--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -326,10 +326,10 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -341,10 +341,10 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -472,10 +472,7 @@
     <xf numFmtId="60" fontId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -487,6 +484,9 @@
     <xf numFmtId="4" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -505,7 +505,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -523,7 +523,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1616,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L25"/>
+  <dimension ref="A2:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1693,880 +1693,925 @@
     <row r="3" ht="20.45" customHeight="1">
       <c r="A3" s="6">
         <f>$A4+7</f>
-        <v>43993</v>
+        <v>44000</v>
       </c>
       <c r="B3" s="7">
         <f>I3-I4</f>
-        <v>5861</v>
+        <v>4766</v>
       </c>
       <c r="C3" s="8">
         <f>J3-J4</f>
-        <v>642219.8</v>
+        <v>598623.9</v>
       </c>
       <c r="D3" s="9">
         <f>K3-K4</f>
-        <v>165650</v>
+        <v>172299</v>
       </c>
       <c r="E3" s="10">
         <f>C3/D3</f>
-        <v>3.87696830667069</v>
+        <v>3.4743318301325</v>
       </c>
       <c r="F3" s="11">
         <f>(C3/C6)^(1/3)</f>
-        <v>0.99229320991712</v>
+        <v>1.00707259268975</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="13">
         <f>$A4+7</f>
-        <v>43993</v>
+        <v>44000</v>
       </c>
       <c r="I3" s="14">
-        <v>116034</v>
+        <v>120800</v>
       </c>
       <c r="J3" s="15">
         <f>K3*L3</f>
-        <v>12956146.2</v>
+        <v>13345800</v>
       </c>
       <c r="K3" s="9">
-        <v>2089701</v>
+        <v>2262000</v>
       </c>
       <c r="L3" s="10">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
     </row>
-    <row r="4" ht="20.25" customHeight="1">
+    <row r="4" ht="20.45" customHeight="1">
       <c r="A4" s="16">
         <f>$A5+7</f>
-        <v>43986</v>
+        <v>43993</v>
       </c>
       <c r="B4" s="17">
         <f>I4-I5</f>
-        <v>6573</v>
+        <v>5861</v>
       </c>
       <c r="C4" s="18">
         <f>J4-J5</f>
-        <v>710526.4</v>
+        <v>667176.1</v>
       </c>
       <c r="D4" s="19">
         <f>K4-K5</f>
-        <v>159051</v>
+        <v>165650</v>
       </c>
       <c r="E4" s="20">
         <f>C4/D4</f>
-        <v>4.46728659360834</v>
+        <v>4.02762511319046</v>
       </c>
       <c r="F4" s="21">
         <f>(C4/C7)^(1/3)</f>
-        <v>0.993483433952295</v>
+        <v>1.00498354133599</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="23">
+      <c r="H4" s="13">
         <f>$A5+7</f>
-        <v>43986</v>
-      </c>
-      <c r="I4" s="24">
-        <v>110173</v>
-      </c>
-      <c r="J4" s="25">
+        <v>43993</v>
+      </c>
+      <c r="I4" s="23">
+        <v>116034</v>
+      </c>
+      <c r="J4" s="24">
         <f>K4*L4</f>
-        <v>12313926.4</v>
+        <v>12747176.1</v>
       </c>
       <c r="K4" s="19">
-        <v>1924051</v>
+        <v>2089701</v>
       </c>
       <c r="L4" s="20">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" ht="20.25" customHeight="1">
       <c r="A5" s="16">
         <f>$A6+7</f>
-        <v>43979</v>
+        <v>43986</v>
       </c>
       <c r="B5" s="17">
         <f>I5-I6</f>
-        <v>7246</v>
+        <v>6573</v>
       </c>
       <c r="C5" s="19">
         <f>J5-J6</f>
-        <v>586100</v>
+        <v>476600</v>
       </c>
       <c r="D5" s="19">
         <f>K5-K6</f>
-        <v>144103</v>
-      </c>
-      <c r="E5" s="26">
+        <v>159051</v>
+      </c>
+      <c r="E5" s="25">
         <f>C5/D5</f>
-        <v>4.0672296898746</v>
-      </c>
-      <c r="F5" s="27">
+        <v>2.99652312780177</v>
+      </c>
+      <c r="F5" s="26">
         <f>(C5/C8)^(1/3)</f>
-        <v>0.855706410034197</v>
+        <v>0.86966482116181</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="28">
+      <c r="H5" s="27">
         <f>$A6+7</f>
-        <v>43979</v>
-      </c>
-      <c r="I5" s="24">
-        <v>103600</v>
+        <v>43986</v>
+      </c>
+      <c r="I5" s="23">
+        <v>110173</v>
       </c>
       <c r="J5" s="19">
         <f>I3*100</f>
-        <v>11603400</v>
+        <v>12080000</v>
       </c>
       <c r="K5" s="19">
-        <v>1765000</v>
-      </c>
-      <c r="L5" s="26">
+        <v>1924051</v>
+      </c>
+      <c r="L5" s="25">
         <f>J5/K5</f>
-        <v>6.57416430594901</v>
+        <v>6.27841985477516</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="16">
         <f>$A7+7</f>
-        <v>43972</v>
+        <v>43979</v>
       </c>
       <c r="B6" s="17">
         <f>I6-I7</f>
-        <v>9354</v>
+        <v>7246</v>
       </c>
       <c r="C6" s="19">
         <f>J6-J7</f>
-        <v>657300</v>
+        <v>586100</v>
       </c>
       <c r="D6" s="19">
         <f>K6-K7</f>
-        <v>180897</v>
-      </c>
-      <c r="E6" s="26">
+        <v>144103</v>
+      </c>
+      <c r="E6" s="25">
         <f>C6/D6</f>
-        <v>3.63355942884625</v>
-      </c>
-      <c r="F6" s="27">
+        <v>4.0672296898746</v>
+      </c>
+      <c r="F6" s="26">
         <f>(C6/C9)^(1/3)</f>
-        <v>0.867393117289844</v>
-      </c>
-      <c r="G6" s="29"/>
+        <v>0.855706410034197</v>
+      </c>
+      <c r="G6" s="22"/>
       <c r="H6" s="28">
         <f>$A7+7</f>
-        <v>43972</v>
-      </c>
-      <c r="I6" s="24">
-        <v>96354</v>
+        <v>43979</v>
+      </c>
+      <c r="I6" s="23">
+        <v>103600</v>
       </c>
       <c r="J6" s="19">
         <f>I4*100</f>
-        <v>11017300</v>
+        <v>11603400</v>
       </c>
       <c r="K6" s="19">
-        <v>1620897</v>
-      </c>
-      <c r="L6" s="26">
+        <v>1765000</v>
+      </c>
+      <c r="L6" s="25">
         <f>J6/K6</f>
-        <v>6.79703892350964</v>
+        <v>6.57416430594901</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="16">
-        <v>43965</v>
+        <f>$A8+7</f>
+        <v>43972</v>
       </c>
       <c r="B7" s="17">
         <f>I7-I8</f>
-        <v>10072</v>
+        <v>9354</v>
       </c>
       <c r="C7" s="19">
         <f>J7-J8</f>
-        <v>724600</v>
+        <v>657300</v>
       </c>
       <c r="D7" s="19">
         <f>K7-K8</f>
-        <v>147377</v>
-      </c>
-      <c r="E7" s="26">
+        <v>180897</v>
+      </c>
+      <c r="E7" s="25">
         <f>C7/D7</f>
-        <v>4.9166423526059</v>
-      </c>
-      <c r="F7" s="27">
+        <v>3.63355942884625</v>
+      </c>
+      <c r="F7" s="26">
         <f>(C7/C10)^(1/3)</f>
-        <v>0.821458126164389</v>
+        <v>0.867393117289844</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="28">
-        <v>43965</v>
-      </c>
-      <c r="I7" s="24">
-        <v>87000</v>
+        <f>$A8+7</f>
+        <v>43972</v>
+      </c>
+      <c r="I7" s="23">
+        <v>96354</v>
       </c>
       <c r="J7" s="19">
-        <v>10360000</v>
+        <f>I5*100</f>
+        <v>11017300</v>
       </c>
       <c r="K7" s="19">
-        <v>1440000</v>
-      </c>
-      <c r="L7" s="26">
+        <v>1620897</v>
+      </c>
+      <c r="L7" s="25">
         <f>J7/K7</f>
-        <v>7.19444444444444</v>
+        <v>6.79703892350964</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="16">
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="B8" s="17">
         <f>I8-I9</f>
-        <v>13072</v>
+        <v>10072</v>
       </c>
       <c r="C8" s="19">
         <f>J8-J9</f>
-        <v>935400</v>
+        <v>724600</v>
       </c>
       <c r="D8" s="19">
         <f>K8-K9</f>
-        <v>197600</v>
-      </c>
-      <c r="E8" s="26">
+        <v>147377</v>
+      </c>
+      <c r="E8" s="25">
         <f>C8/D8</f>
-        <v>4.73380566801619</v>
-      </c>
-      <c r="F8" s="27">
+        <v>4.9166423526059</v>
+      </c>
+      <c r="F8" s="26">
         <f>(C8/C11)^(1/3)</f>
-        <v>0.882280646327855</v>
+        <v>0.821458126164389</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="28">
-        <v>43958</v>
-      </c>
-      <c r="I8" s="24">
-        <v>76928</v>
+        <v>43965</v>
+      </c>
+      <c r="I8" s="23">
+        <v>87000</v>
       </c>
       <c r="J8" s="19">
-        <f>I6*100</f>
-        <v>9635400</v>
+        <v>10360000</v>
       </c>
       <c r="K8" s="19">
-        <v>1292623</v>
-      </c>
-      <c r="L8" s="26">
+        <v>1440000</v>
+      </c>
+      <c r="L8" s="25">
         <f>J8/K8</f>
-        <v>7.45414556293676</v>
+        <v>7.19444444444444</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="16">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="B9" s="17">
         <f>I9-I10</f>
-        <v>13620</v>
+        <v>13072</v>
       </c>
       <c r="C9" s="19">
         <f>J9-J10</f>
-        <v>1007200</v>
+        <v>935400</v>
       </c>
       <c r="D9" s="19">
         <f>K9-K10</f>
-        <v>208581</v>
-      </c>
-      <c r="E9" s="26">
+        <v>197600</v>
+      </c>
+      <c r="E9" s="25">
         <f>C9/D9</f>
-        <v>4.82881949937914</v>
-      </c>
-      <c r="F9" s="27">
+        <v>4.73380566801619</v>
+      </c>
+      <c r="F9" s="26">
         <f>(C9/C12)^(1/3)</f>
-        <v>0.863947788733022</v>
+        <v>0.882280646327855</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="28">
-        <v>43951</v>
-      </c>
-      <c r="I9" s="24">
-        <v>63856</v>
+        <v>43958</v>
+      </c>
+      <c r="I9" s="23">
+        <v>76928</v>
       </c>
       <c r="J9" s="19">
-        <f>100*I7</f>
-        <v>8700000</v>
+        <f>I7*100</f>
+        <v>9635400</v>
       </c>
       <c r="K9" s="19">
-        <v>1095023</v>
-      </c>
-      <c r="L9" s="26">
+        <v>1292623</v>
+      </c>
+      <c r="L9" s="25">
         <f>J9/K9</f>
-        <v>7.9450385973628</v>
+        <v>7.45414556293676</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="16">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B10" s="17">
         <f>I10-I11</f>
-        <v>15619</v>
+        <v>13620</v>
       </c>
       <c r="C10" s="19">
         <f>J10-J11</f>
-        <v>1307200</v>
+        <v>1007200</v>
       </c>
       <c r="D10" s="19">
         <f>K10-K11</f>
-        <v>246778</v>
-      </c>
-      <c r="E10" s="26">
+        <v>208581</v>
+      </c>
+      <c r="E10" s="25">
         <f>C10/D10</f>
-        <v>5.29706862037945</v>
-      </c>
-      <c r="F10" s="27">
+        <v>4.82881949937914</v>
+      </c>
+      <c r="F10" s="26">
         <f>(C10/C13)^(1/3)</f>
-        <v>0.90044233315585</v>
+        <v>0.863947788733022</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="28">
-        <v>43944</v>
-      </c>
-      <c r="I10" s="24">
-        <v>50236</v>
+        <v>43951</v>
+      </c>
+      <c r="I10" s="23">
+        <v>63856</v>
       </c>
       <c r="J10" s="19">
         <f>100*I8</f>
-        <v>7692800</v>
+        <v>8700000</v>
       </c>
       <c r="K10" s="19">
-        <v>886442</v>
-      </c>
-      <c r="L10" s="26">
+        <v>1095023</v>
+      </c>
+      <c r="L10" s="25">
         <f>J10/K10</f>
-        <v>8.67828916048653</v>
+        <v>7.9450385973628</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="16">
-        <v>43937</v>
+        <v>43944</v>
       </c>
       <c r="B11" s="17">
         <f>I11-I12</f>
-        <v>17905</v>
+        <v>15619</v>
       </c>
       <c r="C11" s="19">
         <f>J11-J12</f>
-        <v>1362000</v>
+        <v>1307200</v>
       </c>
       <c r="D11" s="19">
         <f>K11-K12</f>
-        <v>207532</v>
-      </c>
-      <c r="E11" s="26">
+        <v>246778</v>
+      </c>
+      <c r="E11" s="25">
         <f>C11/D11</f>
-        <v>6.56284332054816</v>
-      </c>
-      <c r="F11" s="27">
+        <v>5.29706862037945</v>
+      </c>
+      <c r="F11" s="26">
         <f>(C11/C14)^(1/3)</f>
-        <v>1.08633310680582</v>
+        <v>0.90044233315585</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="28">
-        <v>43937</v>
-      </c>
-      <c r="I11" s="24">
-        <v>34617</v>
+        <v>43944</v>
+      </c>
+      <c r="I11" s="23">
+        <v>50236</v>
       </c>
       <c r="J11" s="19">
         <f>100*I9</f>
-        <v>6385600</v>
+        <v>7692800</v>
       </c>
       <c r="K11" s="19">
-        <v>639664</v>
-      </c>
-      <c r="L11" s="26">
+        <v>886442</v>
+      </c>
+      <c r="L11" s="25">
         <f>J11/K11</f>
-        <v>9.98274093899297</v>
+        <v>8.67828916048653</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="16">
-        <f>$A11-7</f>
-        <v>43930</v>
+        <v>43937</v>
       </c>
       <c r="B12" s="17">
         <f>I12-I13</f>
-        <v>10624</v>
+        <v>17905</v>
       </c>
       <c r="C12" s="19">
         <f>J12-J13</f>
-        <v>1561900</v>
+        <v>1362000</v>
       </c>
       <c r="D12" s="19">
         <f>K12-K13</f>
-        <v>215411</v>
-      </c>
-      <c r="E12" s="26">
+        <v>207532</v>
+      </c>
+      <c r="E12" s="25">
         <f>C12/D12</f>
-        <v>7.25079034961074</v>
-      </c>
-      <c r="F12" s="27">
+        <v>6.56284332054816</v>
+      </c>
+      <c r="F12" s="26">
         <f>(C12/C15)^(1/3)</f>
-        <v>1.48267331704548</v>
+        <v>1.08633310680582</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="28">
-        <f>$A11-7</f>
-        <v>43930</v>
-      </c>
-      <c r="I12" s="24">
-        <v>16712</v>
+        <v>43937</v>
+      </c>
+      <c r="I12" s="23">
+        <v>34617</v>
       </c>
       <c r="J12" s="19">
         <f>100*I10</f>
-        <v>5023600</v>
+        <v>6385600</v>
       </c>
       <c r="K12" s="19">
-        <v>432132</v>
-      </c>
-      <c r="L12" s="26">
+        <v>639664</v>
+      </c>
+      <c r="L12" s="25">
         <f>J12/K12</f>
-        <v>11.6251515740561</v>
+        <v>9.98274093899297</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="16">
         <f>$A12-7</f>
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="B13" s="17">
         <f>I13-I14</f>
-        <v>4792</v>
+        <v>10624</v>
       </c>
       <c r="C13" s="19">
         <f>J13-J14</f>
-        <v>1790500</v>
+        <v>1561900</v>
       </c>
       <c r="D13" s="19">
         <f>K13-K14</f>
-        <v>147527</v>
-      </c>
-      <c r="E13" s="26">
+        <v>215411</v>
+      </c>
+      <c r="E13" s="25">
         <f>C13/D13</f>
-        <v>12.1367614063866</v>
-      </c>
-      <c r="F13" s="27">
+        <v>7.25079034961074</v>
+      </c>
+      <c r="F13" s="26">
         <f>(C13/C16)^(1/3)</f>
-        <v>2.54204134080383</v>
+        <v>1.48267331704548</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="28">
         <f>$A12-7</f>
-        <v>43923</v>
-      </c>
-      <c r="I13" s="24">
-        <v>6088</v>
+        <v>43930</v>
+      </c>
+      <c r="I13" s="23">
+        <v>16712</v>
       </c>
       <c r="J13" s="19">
         <f>100*I11</f>
-        <v>3461700</v>
+        <v>5023600</v>
       </c>
       <c r="K13" s="19">
-        <v>216721</v>
-      </c>
-      <c r="L13" s="26">
+        <v>432132</v>
+      </c>
+      <c r="L13" s="25">
         <f>J13/K13</f>
-        <v>15.9730713682569</v>
+        <v>11.6251515740561</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="16">
         <f>$A13-7</f>
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="B14" s="17">
         <f>I14-I15</f>
-        <v>1090</v>
+        <v>4792</v>
       </c>
       <c r="C14" s="19">
         <f>J14-J15</f>
-        <v>1062400</v>
+        <v>1790500</v>
       </c>
       <c r="D14" s="19">
         <f>K14-K15</f>
-        <v>59779</v>
-      </c>
-      <c r="E14" s="26">
+        <v>147527</v>
+      </c>
+      <c r="E14" s="25">
         <f>C14/D14</f>
-        <v>17.7721273356864</v>
-      </c>
-      <c r="F14" s="27">
+        <v>12.1367614063866</v>
+      </c>
+      <c r="F14" s="26">
         <f>(C14/C17)^(1/3)</f>
-        <v>4.00806453796077</v>
+        <v>2.54204134080383</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="28">
         <f>$A13-7</f>
-        <v>43916</v>
-      </c>
-      <c r="I14" s="24">
-        <v>1296</v>
+        <v>43923</v>
+      </c>
+      <c r="I14" s="23">
+        <v>6088</v>
       </c>
       <c r="J14" s="19">
         <f>100*I12</f>
-        <v>1671200</v>
+        <v>3461700</v>
       </c>
       <c r="K14" s="19">
-        <v>69194</v>
-      </c>
-      <c r="L14" s="26">
+        <v>216721</v>
+      </c>
+      <c r="L14" s="25">
         <f>J14/K14</f>
-        <v>24.1523831546088</v>
+        <v>15.9730713682569</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="16">
         <f>$A14-7</f>
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="B15" s="17">
         <f>I15-I16</f>
-        <v>165</v>
+        <v>1090</v>
       </c>
       <c r="C15" s="19">
         <f>J15-J16</f>
-        <v>479200</v>
+        <v>1062400</v>
       </c>
       <c r="D15" s="19">
         <f>K15-K16</f>
-        <v>8103</v>
-      </c>
-      <c r="E15" s="26">
+        <v>59779</v>
+      </c>
+      <c r="E15" s="25">
         <f>C15/D15</f>
-        <v>59.138590645440</v>
-      </c>
-      <c r="F15" s="27">
+        <v>17.7721273356864</v>
+      </c>
+      <c r="F15" s="26">
         <f>(C15/C18)^(1/3)</f>
-        <v>5.48747983275193</v>
+        <v>4.00806453796077</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="28">
         <f>$A14-7</f>
-        <v>43909</v>
-      </c>
-      <c r="I15" s="24">
-        <v>206</v>
+        <v>43916</v>
+      </c>
+      <c r="I15" s="23">
+        <v>1296</v>
       </c>
       <c r="J15" s="19">
         <f>100*I13</f>
-        <v>608800</v>
+        <v>1671200</v>
       </c>
       <c r="K15" s="19">
-        <v>9415</v>
-      </c>
-      <c r="L15" s="26">
+        <v>69194</v>
+      </c>
+      <c r="L15" s="25">
         <f>J15/K15</f>
-        <v>64.6627721720659</v>
+        <v>24.1523831546088</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="16">
         <f>$A15-7</f>
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="B16" s="17">
         <f>I16-I17</f>
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="C16" s="19">
         <f>J16-J17</f>
-        <v>109000</v>
+        <v>479200</v>
       </c>
       <c r="D16" s="19">
         <f>K16-K17</f>
-        <v>1153</v>
-      </c>
-      <c r="E16" s="26">
+        <v>8103</v>
+      </c>
+      <c r="E16" s="25">
         <f>C16/D16</f>
-        <v>94.53599306157849</v>
-      </c>
-      <c r="F16" s="27">
+        <v>59.138590645440</v>
+      </c>
+      <c r="F16" s="26">
         <f>(C16/C19)^(1/3)</f>
-        <v>4.62748057383939</v>
+        <v>5.48747983275193</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="28">
         <f>$A15-7</f>
-        <v>43902</v>
-      </c>
-      <c r="I16" s="24">
-        <v>41</v>
+        <v>43909</v>
+      </c>
+      <c r="I16" s="23">
+        <v>206</v>
       </c>
       <c r="J16" s="19">
         <f>100*I14</f>
-        <v>129600</v>
+        <v>608800</v>
       </c>
       <c r="K16" s="19">
-        <v>1312</v>
-      </c>
-      <c r="L16" s="26">
+        <v>9415</v>
+      </c>
+      <c r="L16" s="25">
         <f>J16/K16</f>
-        <v>98.78048780487801</v>
+        <v>64.6627721720659</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="16">
         <f>$A16-7</f>
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="B17" s="17">
         <f>I17-I18</f>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C17" s="19">
         <f>J17-J18</f>
-        <v>16500</v>
+        <v>109000</v>
       </c>
       <c r="D17" s="19">
         <f>K17-K18</f>
-        <v>100</v>
-      </c>
-      <c r="E17" s="26">
+        <v>1153</v>
+      </c>
+      <c r="E17" s="25">
         <f>C17/D17</f>
-        <v>165</v>
-      </c>
-      <c r="F17" s="27"/>
+        <v>94.53599306157849</v>
+      </c>
+      <c r="F17" s="26">
+        <f>(C17/C20)^(1/3)</f>
+        <v>4.62748057383939</v>
+      </c>
       <c r="G17" s="29"/>
       <c r="H17" s="28">
         <f>$A16-7</f>
-        <v>43895</v>
-      </c>
-      <c r="I17" s="24">
-        <v>12</v>
+        <v>43902</v>
+      </c>
+      <c r="I17" s="23">
+        <v>41</v>
       </c>
       <c r="J17" s="19">
         <f>100*I15</f>
-        <v>20600</v>
+        <v>129600</v>
       </c>
       <c r="K17" s="19">
-        <v>159</v>
-      </c>
-      <c r="L17" s="26">
+        <v>1312</v>
+      </c>
+      <c r="L17" s="25">
         <f>J17/K17</f>
-        <v>129.559748427673</v>
+        <v>98.78048780487801</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="16">
         <f>$A17-7</f>
-        <v>43888</v>
-      </c>
-      <c r="B18" s="17"/>
+        <v>43895</v>
+      </c>
+      <c r="B18" s="17">
+        <f>I18-I19</f>
+        <v>11</v>
+      </c>
       <c r="C18" s="19">
         <f>J18-J19</f>
-        <v>2900</v>
+        <v>16500</v>
       </c>
       <c r="D18" s="19">
         <f>K18-K19</f>
-        <v>44</v>
-      </c>
-      <c r="E18" s="26">
+        <v>100</v>
+      </c>
+      <c r="E18" s="25">
         <f>C18/D18</f>
-        <v>65.90909090909091</v>
-      </c>
-      <c r="F18" s="27"/>
+        <v>165</v>
+      </c>
+      <c r="F18" s="26"/>
       <c r="G18" s="29"/>
       <c r="H18" s="28">
         <f>$A17-7</f>
-        <v>43888</v>
-      </c>
-      <c r="I18" s="24">
-        <v>1</v>
+        <v>43895</v>
+      </c>
+      <c r="I18" s="23">
+        <v>12</v>
       </c>
       <c r="J18" s="19">
         <f>100*I16</f>
-        <v>4100</v>
+        <v>20600</v>
       </c>
       <c r="K18" s="19">
-        <v>59</v>
-      </c>
-      <c r="L18" s="26">
+        <v>159</v>
+      </c>
+      <c r="L18" s="25">
         <f>J18/K18</f>
-        <v>69.4915254237288</v>
+        <v>129.559748427673</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="16">
         <f>$A18-7</f>
-        <v>43881</v>
+        <v>43888</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="19">
         <f>J19-J20</f>
-        <v>1100</v>
+        <v>2900</v>
       </c>
       <c r="D19" s="19">
         <f>K19-K20</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="26">
+        <v>44</v>
+      </c>
+      <c r="E19" s="25">
         <f>C19/D19</f>
-        <v>1100</v>
-      </c>
-      <c r="F19" s="27"/>
+        <v>65.90909090909091</v>
+      </c>
+      <c r="F19" s="26"/>
       <c r="G19" s="29"/>
       <c r="H19" s="28">
         <f>$A18-7</f>
-        <v>43881</v>
-      </c>
-      <c r="I19" s="24"/>
+        <v>43888</v>
+      </c>
+      <c r="I19" s="23">
+        <v>1</v>
+      </c>
       <c r="J19" s="19">
         <f>100*I17</f>
-        <v>1200</v>
+        <v>4100</v>
       </c>
       <c r="K19" s="19">
-        <v>15</v>
-      </c>
-      <c r="L19" s="26">
+        <v>59</v>
+      </c>
+      <c r="L19" s="25">
         <f>J19/K19</f>
-        <v>80</v>
+        <v>69.4915254237288</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="16">
         <f>$A19-7</f>
-        <v>43874</v>
+        <v>43881</v>
       </c>
       <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
+      <c r="C20" s="19">
+        <f>J20-J21</f>
+        <v>1100</v>
+      </c>
       <c r="D20" s="19">
         <f>K20-K21</f>
-        <v>2</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="25">
+        <f>C20/D20</f>
+        <v>1100</v>
+      </c>
+      <c r="F20" s="26"/>
       <c r="G20" s="29"/>
       <c r="H20" s="28">
         <f>$A19-7</f>
-        <v>43874</v>
-      </c>
-      <c r="I20" s="24"/>
+        <v>43881</v>
+      </c>
+      <c r="I20" s="23"/>
       <c r="J20" s="19">
         <f>100*I18</f>
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="K20" s="19">
-        <v>14</v>
-      </c>
-      <c r="L20" s="26">
+        <v>15</v>
+      </c>
+      <c r="L20" s="25">
         <f>J20/K20</f>
-        <v>7.14285714285714</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="16">
         <f>$A20-7</f>
-        <v>43867</v>
+        <v>43874</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19">
         <f>K21-K22</f>
-        <v>7</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
+        <v>2</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="29"/>
       <c r="H21" s="28">
         <f>$A20-7</f>
-        <v>43867</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="30">
-        <v>12</v>
-      </c>
-      <c r="L21" s="26">
+        <v>43874</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="19">
+        <f>100*I19</f>
+        <v>100</v>
+      </c>
+      <c r="K21" s="19">
+        <v>14</v>
+      </c>
+      <c r="L21" s="25">
         <f>J21/K21</f>
-        <v>0</v>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="16">
         <f>$A21-7</f>
-        <v>43860</v>
+        <v>43867</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19">
         <f>K22-K23</f>
-        <v>4</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="29"/>
       <c r="H22" s="28">
         <f>$A21-7</f>
-        <v>43860</v>
-      </c>
-      <c r="I22" s="24"/>
+        <v>43867</v>
+      </c>
+      <c r="I22" s="23"/>
       <c r="J22" s="19"/>
       <c r="K22" s="30">
-        <v>5</v>
-      </c>
-      <c r="L22" s="26">
+        <v>12</v>
+      </c>
+      <c r="L22" s="25">
         <f>J22/K22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
+      <c r="A23" s="16">
+        <f>$A22-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19">
+        <f>K23-K24</f>
+        <v>4</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="30"/>
+      <c r="H23" s="28">
+        <f>$A22-7</f>
+        <v>43860</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="19"/>
       <c r="K23" s="30">
-        <v>1</v>
-      </c>
-      <c r="L23" s="26">
+        <v>5</v>
+      </c>
+      <c r="L23" s="25">
         <f>J23/K23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" s="31"/>
-      <c r="B24" t="s" s="35">
-        <v>11</v>
-      </c>
+      <c r="B24" s="32"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="40"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="36"/>
+      <c r="K24" s="30">
+        <v>1</v>
+      </c>
+      <c r="L24" s="25">
+        <f>J24/K24</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" s="31"/>
-      <c r="B25" s="41"/>
+      <c r="B25" t="s" s="35">
+        <v>11</v>
+      </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="36"/>
       <c r="F25" s="37"/>
       <c r="G25" s="38"/>
-      <c r="H25" s="42"/>
+      <c r="H25" s="39"/>
       <c r="I25" s="40"/>
       <c r="J25" s="30"/>
       <c r="K25" s="30"/>
       <c r="L25" s="36"/>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B25" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -92,12 +92,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="14"/>
+      <color indexed="16"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="15"/>
+      <color indexed="17"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -122,18 +122,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -168,6 +168,216 @@
       </top>
       <bottom style="thin">
         <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -179,7 +389,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -194,7 +404,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -209,7 +419,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -221,10 +431,10 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -233,43 +443,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -311,7 +506,7 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -323,10 +518,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -338,13 +533,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -353,46 +548,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="16"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="16"/>
-      </left>
-      <right style="thin">
-        <color indexed="16"/>
-      </right>
-      <top style="thin">
-        <color indexed="16"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="16"/>
+        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
@@ -402,7 +582,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -415,121 +595,160 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -552,6 +771,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffdfdfdf"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="fff27100"/>
@@ -1654,144 +1875,145 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" ht="56.25" customHeight="1">
+    <row r="2" ht="56.35" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" t="s" s="5">
+      <c r="G2" s="6"/>
+      <c r="H2" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="K2" t="s" s="3">
+      <c r="K2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="3">
+      <c r="L2" t="s" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="20.45" customHeight="1">
-      <c r="A3" s="6">
+    <row r="3" ht="20.7" customHeight="1">
+      <c r="A3" s="8">
         <f>$A4+7</f>
         <v>44000</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="9">
         <f>I3-I4</f>
         <v>4766</v>
       </c>
-      <c r="C3" s="8">
-        <f>J3-J4</f>
-        <v>598623.9</v>
-      </c>
-      <c r="D3" s="9">
+      <c r="C3" s="10">
+        <f>D3*E3</f>
+        <v>482437.2</v>
+      </c>
+      <c r="D3" s="11">
         <f>K3-K4</f>
         <v>172299</v>
       </c>
-      <c r="E3" s="10">
-        <f>C3/D3</f>
-        <v>3.4743318301325</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="12">
+        <v>2.8</v>
+      </c>
+      <c r="F3" s="13">
         <f>(C3/C6)^(1/3)</f>
-        <v>1.00707259268975</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13">
+        <v>0.937180022367503</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15">
         <f>$A4+7</f>
         <v>44000</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="16">
         <v>120800</v>
       </c>
-      <c r="J3" s="15">
-        <f>K3*L3</f>
-        <v>13345800</v>
-      </c>
-      <c r="K3" s="9">
+      <c r="J3" s="17">
+        <f>J4+C3</f>
+        <v>13042822.2</v>
+      </c>
+      <c r="K3" s="11">
         <v>2262000</v>
       </c>
-      <c r="L3" s="10">
-        <v>5.9</v>
+      <c r="L3" s="12">
+        <f>J3/K3</f>
+        <v>5.7660575596817</v>
       </c>
     </row>
-    <row r="4" ht="20.45" customHeight="1">
-      <c r="A4" s="16">
+    <row r="4" ht="20.7" customHeight="1">
+      <c r="A4" s="18">
         <f>$A5+7</f>
         <v>43993</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="19">
         <f>I4-I5</f>
         <v>5861</v>
       </c>
-      <c r="C4" s="18">
-        <f>J4-J5</f>
-        <v>667176.1</v>
-      </c>
-      <c r="D4" s="19">
+      <c r="C4" s="10">
+        <f>D4*E4</f>
+        <v>480385</v>
+      </c>
+      <c r="D4" s="20">
         <f>K4-K5</f>
         <v>165650</v>
       </c>
-      <c r="E4" s="20">
-        <f>C4/D4</f>
-        <v>4.02762511319046</v>
-      </c>
-      <c r="F4" s="21">
+      <c r="E4" s="21">
+        <f>2.9</f>
+        <v>2.9</v>
+      </c>
+      <c r="F4" s="22">
         <f>(C4/C7)^(1/3)</f>
-        <v>1.00498354133599</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="13">
+        <v>0.900758983083608</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="15">
         <f>$A5+7</f>
         <v>43993</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="24">
         <v>116034</v>
       </c>
-      <c r="J4" s="24">
-        <f>K4*L4</f>
-        <v>12747176.1</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="J4" s="17">
+        <f>J5+C4</f>
+        <v>12560385</v>
+      </c>
+      <c r="K4" s="20">
         <v>2089701</v>
       </c>
-      <c r="L4" s="20">
-        <v>6.1</v>
+      <c r="L4" s="21">
+        <f>J4/K4</f>
+        <v>6.01061348011031</v>
       </c>
     </row>
-    <row r="5" ht="20.25" customHeight="1">
-      <c r="A5" s="16">
+    <row r="5" ht="20.7" customHeight="1">
+      <c r="A5" s="18">
         <f>$A6+7</f>
         <v>43986</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="19">
         <f>I5-I6</f>
         <v>6573</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="20">
         <f>J5-J6</f>
         <v>476600</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="20">
         <f>K5-K6</f>
         <v>159051</v>
       </c>
@@ -1803,19 +2025,19 @@
         <f>(C5/C8)^(1/3)</f>
         <v>0.86966482116181</v>
       </c>
-      <c r="G5" s="22"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="27">
         <f>$A6+7</f>
         <v>43986</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="24">
         <v>110173</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="20">
         <f>I3*100</f>
         <v>12080000</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="20">
         <v>1924051</v>
       </c>
       <c r="L5" s="25">
@@ -1823,788 +2045,788 @@
         <v>6.27841985477516</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="16">
+    <row r="6" ht="20.35" customHeight="1">
+      <c r="A6" s="28">
         <f>$A7+7</f>
         <v>43979</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="29">
         <f>I6-I7</f>
         <v>7246</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="30">
         <f>J6-J7</f>
         <v>586100</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="30">
         <f>K6-K7</f>
         <v>144103</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="31">
         <f>C6/D6</f>
         <v>4.0672296898746</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="32">
         <f>(C6/C9)^(1/3)</f>
         <v>0.855706410034197</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="28">
+      <c r="G6" s="33"/>
+      <c r="H6" s="34">
         <f>$A7+7</f>
         <v>43979</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="35">
         <v>103600</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="30">
         <f>I4*100</f>
         <v>11603400</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="30">
         <v>1765000</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="31">
         <f>J6/K6</f>
         <v>6.57416430594901</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="16">
+      <c r="A7" s="28">
         <f>$A8+7</f>
         <v>43972</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="36">
         <f>I7-I8</f>
         <v>9354</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="37">
         <f>J7-J8</f>
         <v>657300</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="37">
         <f>K7-K8</f>
         <v>180897</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="38">
         <f>C7/D7</f>
         <v>3.63355942884625</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="39">
         <f>(C7/C10)^(1/3)</f>
         <v>0.867393117289844</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28">
+      <c r="G7" s="40"/>
+      <c r="H7" s="41">
         <f>$A8+7</f>
         <v>43972</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="42">
         <v>96354</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="37">
         <f>I5*100</f>
         <v>11017300</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="37">
         <v>1620897</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="38">
         <f>J7/K7</f>
         <v>6.79703892350964</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="16">
+      <c r="A8" s="28">
         <v>43965</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="36">
         <f>I8-I9</f>
         <v>10072</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="37">
         <f>J8-J9</f>
         <v>724600</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="37">
         <f>K8-K9</f>
         <v>147377</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="38">
         <f>C8/D8</f>
         <v>4.9166423526059</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="39">
         <f>(C8/C11)^(1/3)</f>
         <v>0.821458126164389</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28">
+      <c r="G8" s="40"/>
+      <c r="H8" s="41">
         <v>43965</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="42">
         <v>87000</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="37">
         <v>10360000</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="37">
         <v>1440000</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="38">
         <f>J8/K8</f>
         <v>7.19444444444444</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="16">
+      <c r="A9" s="28">
         <v>43958</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="36">
         <f>I9-I10</f>
         <v>13072</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="37">
         <f>J9-J10</f>
         <v>935400</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="37">
         <f>K9-K10</f>
         <v>197600</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="38">
         <f>C9/D9</f>
         <v>4.73380566801619</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="39">
         <f>(C9/C12)^(1/3)</f>
         <v>0.882280646327855</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28">
+      <c r="G9" s="40"/>
+      <c r="H9" s="41">
         <v>43958</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="42">
         <v>76928</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="37">
         <f>I7*100</f>
         <v>9635400</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="37">
         <v>1292623</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="38">
         <f>J9/K9</f>
         <v>7.45414556293676</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="16">
+      <c r="A10" s="28">
         <v>43951</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="36">
         <f>I10-I11</f>
         <v>13620</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="37">
         <f>J10-J11</f>
         <v>1007200</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="37">
         <f>K10-K11</f>
         <v>208581</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="38">
         <f>C10/D10</f>
         <v>4.82881949937914</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="39">
         <f>(C10/C13)^(1/3)</f>
         <v>0.863947788733022</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28">
+      <c r="G10" s="40"/>
+      <c r="H10" s="41">
         <v>43951</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="42">
         <v>63856</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="37">
         <f>100*I8</f>
         <v>8700000</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="37">
         <v>1095023</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="38">
         <f>J10/K10</f>
         <v>7.9450385973628</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="16">
+      <c r="A11" s="28">
         <v>43944</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="36">
         <f>I11-I12</f>
         <v>15619</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="37">
         <f>J11-J12</f>
         <v>1307200</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="37">
         <f>K11-K12</f>
         <v>246778</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="38">
         <f>C11/D11</f>
         <v>5.29706862037945</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="39">
         <f>(C11/C14)^(1/3)</f>
         <v>0.90044233315585</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="28">
+      <c r="G11" s="40"/>
+      <c r="H11" s="41">
         <v>43944</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="42">
         <v>50236</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="37">
         <f>100*I9</f>
         <v>7692800</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="37">
         <v>886442</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="38">
         <f>J11/K11</f>
         <v>8.67828916048653</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="16">
+      <c r="A12" s="28">
         <v>43937</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="36">
         <f>I12-I13</f>
         <v>17905</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="37">
         <f>J12-J13</f>
         <v>1362000</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="37">
         <f>K12-K13</f>
         <v>207532</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="38">
         <f>C12/D12</f>
         <v>6.56284332054816</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="39">
         <f>(C12/C15)^(1/3)</f>
         <v>1.08633310680582</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28">
+      <c r="G12" s="40"/>
+      <c r="H12" s="41">
         <v>43937</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="42">
         <v>34617</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="37">
         <f>100*I10</f>
         <v>6385600</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="37">
         <v>639664</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="38">
         <f>J12/K12</f>
         <v>9.98274093899297</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="16">
+      <c r="A13" s="28">
         <f>$A12-7</f>
         <v>43930</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="36">
         <f>I13-I14</f>
         <v>10624</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="37">
         <f>J13-J14</f>
         <v>1561900</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="37">
         <f>K13-K14</f>
         <v>215411</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="38">
         <f>C13/D13</f>
         <v>7.25079034961074</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="39">
         <f>(C13/C16)^(1/3)</f>
         <v>1.48267331704548</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="28">
+      <c r="G13" s="40"/>
+      <c r="H13" s="41">
         <f>$A12-7</f>
         <v>43930</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="42">
         <v>16712</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="37">
         <f>100*I11</f>
         <v>5023600</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="37">
         <v>432132</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="38">
         <f>J13/K13</f>
         <v>11.6251515740561</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="16">
+      <c r="A14" s="28">
         <f>$A13-7</f>
         <v>43923</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="36">
         <f>I14-I15</f>
         <v>4792</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="37">
         <f>J14-J15</f>
         <v>1790500</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="37">
         <f>K14-K15</f>
         <v>147527</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="38">
         <f>C14/D14</f>
         <v>12.1367614063866</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="39">
         <f>(C14/C17)^(1/3)</f>
         <v>2.54204134080383</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28">
+      <c r="G14" s="40"/>
+      <c r="H14" s="41">
         <f>$A13-7</f>
         <v>43923</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="42">
         <v>6088</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="37">
         <f>100*I12</f>
         <v>3461700</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="37">
         <v>216721</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="38">
         <f>J14/K14</f>
         <v>15.9730713682569</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="16">
+      <c r="A15" s="28">
         <f>$A14-7</f>
         <v>43916</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="36">
         <f>I15-I16</f>
         <v>1090</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="37">
         <f>J15-J16</f>
         <v>1062400</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="37">
         <f>K15-K16</f>
         <v>59779</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="38">
         <f>C15/D15</f>
         <v>17.7721273356864</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="39">
         <f>(C15/C18)^(1/3)</f>
         <v>4.00806453796077</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="28">
+      <c r="G15" s="40"/>
+      <c r="H15" s="41">
         <f>$A14-7</f>
         <v>43916</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="42">
         <v>1296</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="37">
         <f>100*I13</f>
         <v>1671200</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="37">
         <v>69194</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="38">
         <f>J15/K15</f>
         <v>24.1523831546088</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="16">
+      <c r="A16" s="28">
         <f>$A15-7</f>
         <v>43909</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="36">
         <f>I16-I17</f>
         <v>165</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="37">
         <f>J16-J17</f>
         <v>479200</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="37">
         <f>K16-K17</f>
         <v>8103</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="38">
         <f>C16/D16</f>
         <v>59.138590645440</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="39">
         <f>(C16/C19)^(1/3)</f>
         <v>5.48747983275193</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="28">
+      <c r="G16" s="40"/>
+      <c r="H16" s="41">
         <f>$A15-7</f>
         <v>43909</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="42">
         <v>206</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="37">
         <f>100*I14</f>
         <v>608800</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="37">
         <v>9415</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="38">
         <f>J16/K16</f>
         <v>64.6627721720659</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="16">
+      <c r="A17" s="28">
         <f>$A16-7</f>
         <v>43902</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="36">
         <f>I17-I18</f>
         <v>29</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="37">
         <f>J17-J18</f>
         <v>109000</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="37">
         <f>K17-K18</f>
         <v>1153</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="38">
         <f>C17/D17</f>
         <v>94.53599306157849</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="39">
         <f>(C17/C20)^(1/3)</f>
         <v>4.62748057383939</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28">
+      <c r="G17" s="40"/>
+      <c r="H17" s="41">
         <f>$A16-7</f>
         <v>43902</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="42">
         <v>41</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="37">
         <f>100*I15</f>
         <v>129600</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="37">
         <v>1312</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="38">
         <f>J17/K17</f>
         <v>98.78048780487801</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="16">
+      <c r="A18" s="28">
         <f>$A17-7</f>
         <v>43895</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="36">
         <f>I18-I19</f>
         <v>11</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="37">
         <f>J18-J19</f>
         <v>16500</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="37">
         <f>K18-K19</f>
         <v>100</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="38">
         <f>C18/D18</f>
         <v>165</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="28">
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41">
         <f>$A17-7</f>
         <v>43895</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="42">
         <v>12</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="37">
         <f>100*I16</f>
         <v>20600</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="37">
         <v>159</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="38">
         <f>J18/K18</f>
         <v>129.559748427673</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="16">
+      <c r="A19" s="28">
         <f>$A18-7</f>
         <v>43888</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="19">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37">
         <f>J19-J20</f>
         <v>2900</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="37">
         <f>K19-K20</f>
         <v>44</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="38">
         <f>C19/D19</f>
         <v>65.90909090909091</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="28">
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41">
         <f>$A18-7</f>
         <v>43888</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="42">
         <v>1</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="37">
         <f>100*I17</f>
         <v>4100</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="37">
         <v>59</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="38">
         <f>J19/K19</f>
         <v>69.4915254237288</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="16">
+      <c r="A20" s="28">
         <f>$A19-7</f>
         <v>43881</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="19">
+      <c r="B20" s="36"/>
+      <c r="C20" s="37">
         <f>J20-J21</f>
         <v>1100</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="37">
         <f>K20-K21</f>
         <v>1</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="38">
         <f>C20/D20</f>
         <v>1100</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28">
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41">
         <f>$A19-7</f>
         <v>43881</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="19">
+      <c r="I20" s="42"/>
+      <c r="J20" s="37">
         <f>100*I18</f>
         <v>1200</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="37">
         <v>15</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="38">
         <f>J20/K20</f>
         <v>80</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="16">
+      <c r="A21" s="28">
         <f>$A20-7</f>
         <v>43874</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37">
         <f>K21-K22</f>
         <v>2</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28">
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41">
         <f>$A20-7</f>
         <v>43874</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="19">
+      <c r="I21" s="42"/>
+      <c r="J21" s="37">
         <f>100*I19</f>
         <v>100</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="37">
         <v>14</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="38">
         <f>J21/K21</f>
         <v>7.14285714285714</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="16">
+      <c r="A22" s="28">
         <f>$A21-7</f>
         <v>43867</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37">
         <f>K22-K23</f>
         <v>7</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28">
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41">
         <f>$A21-7</f>
         <v>43867</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="30">
+      <c r="I22" s="42"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="43">
         <v>12</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="38">
         <f>J22/K22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="16">
+      <c r="A23" s="28">
         <f>$A22-7</f>
         <v>43860</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37">
         <f>K23-K24</f>
         <v>4</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28">
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41">
         <f>$A22-7</f>
         <v>43860</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="30">
+      <c r="I23" s="42"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="43">
         <v>5</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="38">
         <f>J23/K23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43">
         <v>1</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="38">
         <f>J24/K24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="31"/>
-      <c r="B25" t="s" s="35">
+      <c r="A25" s="44"/>
+      <c r="B25" t="s" s="48">
         <v>11</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="36"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="31"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="36"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -37,7 +37,7 @@
     <t>Deaths</t>
   </si>
   <si>
-    <t>Inferred Cases: Deaths x 100 Lagged 2</t>
+    <t>Inferred Cases: Deaths x 100 Lagged 4</t>
   </si>
   <si>
     <t>Confirmed Cases</t>
@@ -133,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -227,37 +227,37 @@
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
         <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -272,7 +272,7 @@
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -302,34 +302,64 @@
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
         <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="13"/>
@@ -344,7 +374,7 @@
         <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="13"/>
@@ -359,19 +389,94 @@
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
         <color indexed="18"/>
-      </left>
-      <right style="thin">
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
       </right>
       <top style="thin">
         <color indexed="14"/>
@@ -419,6 +524,21 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="13"/>
       </top>
       <bottom style="thin">
@@ -474,21 +594,6 @@
     <border>
       <left style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -582,7 +687,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -619,10 +724,10 @@
     <xf numFmtId="3" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -634,121 +739,139 @@
     <xf numFmtId="3" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1837,7 +1960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L26"/>
+  <dimension ref="A2:L27"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1901,7 +2024,7 @@
       <c r="I2" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="J2" t="s" s="3">
         <v>8</v>
       </c>
       <c r="K2" t="s" s="4">
@@ -1914,926 +2037,975 @@
     <row r="3" ht="20.7" customHeight="1">
       <c r="A3" s="8">
         <f>$A4+7</f>
-        <v>44000</v>
+        <v>44007</v>
       </c>
       <c r="B3" s="9">
         <f>I3-I4</f>
-        <v>4766</v>
+        <v>6177</v>
       </c>
       <c r="C3" s="10">
         <f>D3*E3</f>
-        <v>482437.2</v>
+        <v>462840</v>
       </c>
       <c r="D3" s="11">
         <f>K3-K4</f>
-        <v>172299</v>
+        <v>243600</v>
       </c>
       <c r="E3" s="12">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="F3" s="13">
         <f>(C3/C6)^(1/3)</f>
-        <v>0.937180022367503</v>
+        <v>1.06633683882107</v>
       </c>
       <c r="G3" s="14"/>
       <c r="H3" s="15">
         <f>$A4+7</f>
-        <v>44000</v>
+        <v>44007</v>
       </c>
       <c r="I3" s="16">
-        <v>120800</v>
+        <v>126977</v>
       </c>
       <c r="J3" s="17">
         <f>J4+C3</f>
-        <v>13042822.2</v>
+        <v>14285085.3</v>
       </c>
       <c r="K3" s="11">
-        <v>2262000</v>
+        <v>2505600</v>
       </c>
       <c r="L3" s="12">
         <f>J3/K3</f>
-        <v>5.7660575596817</v>
+        <v>5.70126329022989</v>
       </c>
     </row>
     <row r="4" ht="20.7" customHeight="1">
       <c r="A4" s="18">
         <f>$A5+7</f>
-        <v>43993</v>
+        <v>44000</v>
       </c>
       <c r="B4" s="19">
         <f>I4-I5</f>
-        <v>5861</v>
+        <v>4766</v>
       </c>
       <c r="C4" s="10">
         <f>D4*E4</f>
-        <v>480385</v>
+        <v>361827.9</v>
       </c>
       <c r="D4" s="20">
         <f>K4-K5</f>
-        <v>165650</v>
+        <v>172299</v>
       </c>
       <c r="E4" s="21">
-        <f>2.9</f>
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="F4" s="22">
         <f>(C4/C7)^(1/3)</f>
-        <v>0.900758983083608</v>
+        <v>0.836709724952506</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="15">
         <f>$A5+7</f>
-        <v>43993</v>
+        <v>44000</v>
       </c>
       <c r="I4" s="24">
-        <v>116034</v>
-      </c>
-      <c r="J4" s="17">
+        <v>120800</v>
+      </c>
+      <c r="J4" s="25">
         <f>J5+C4</f>
-        <v>12560385</v>
+        <v>13822245.3</v>
       </c>
       <c r="K4" s="20">
-        <v>2089701</v>
+        <v>2262000</v>
       </c>
       <c r="L4" s="21">
         <f>J4/K4</f>
-        <v>6.01061348011031</v>
+        <v>6.1106301061008</v>
       </c>
     </row>
     <row r="5" ht="20.7" customHeight="1">
       <c r="A5" s="18">
         <f>$A6+7</f>
+        <v>43993</v>
+      </c>
+      <c r="B5" s="26">
+        <f>I5-I6</f>
+        <v>5861</v>
+      </c>
+      <c r="C5" s="10">
+        <f>D5*E5</f>
+        <v>380995</v>
+      </c>
+      <c r="D5" s="27">
+        <f>K5-K6</f>
+        <v>165650</v>
+      </c>
+      <c r="E5" s="28">
+        <v>2.3</v>
+      </c>
+      <c r="F5" s="29">
+        <f>(C5/C8)^(1/3)</f>
+        <v>0.928086408742859</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="15">
+        <f>$A6+7</f>
+        <v>43993</v>
+      </c>
+      <c r="I5" s="31">
+        <v>116034</v>
+      </c>
+      <c r="J5" s="25">
+        <f>J6+C5</f>
+        <v>13460417.4</v>
+      </c>
+      <c r="K5" s="27">
+        <v>2089701</v>
+      </c>
+      <c r="L5" s="28">
+        <f>J5/K5</f>
+        <v>6.44131260883734</v>
+      </c>
+    </row>
+    <row r="6" ht="20.7" customHeight="1">
+      <c r="A6" s="18">
+        <f>$A7+7</f>
         <v>43986</v>
       </c>
-      <c r="B5" s="19">
-        <f>I5-I6</f>
+      <c r="B6" s="26">
+        <f>I6-I7</f>
         <v>6573</v>
       </c>
-      <c r="C5" s="20">
-        <f>J5-J6</f>
-        <v>476600</v>
-      </c>
-      <c r="D5" s="20">
-        <f>K5-K6</f>
+      <c r="C6" s="32">
+        <f>D6*E6</f>
+        <v>381722.4</v>
+      </c>
+      <c r="D6" s="27">
+        <f>K6-K7</f>
         <v>159051</v>
       </c>
-      <c r="E5" s="25">
-        <f>C5/D5</f>
-        <v>2.99652312780177</v>
-      </c>
-      <c r="F5" s="26">
-        <f>(C5/C8)^(1/3)</f>
-        <v>0.86966482116181</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="27">
-        <f>$A6+7</f>
+      <c r="E6" s="28">
+        <v>2.4</v>
+      </c>
+      <c r="F6" s="29">
+        <f>(C6/C9)^(1/3)</f>
+        <v>0.8668127846250629</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="33">
+        <f>$A7+7</f>
         <v>43986</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I6" s="31">
         <v>110173</v>
       </c>
-      <c r="J5" s="20">
-        <f>I3*100</f>
-        <v>12080000</v>
-      </c>
-      <c r="K5" s="20">
+      <c r="J6" s="25">
+        <f>J7+C6</f>
+        <v>13079422.4</v>
+      </c>
+      <c r="K6" s="27">
         <v>1924051</v>
       </c>
-      <c r="L5" s="25">
-        <f>J5/K5</f>
-        <v>6.27841985477516</v>
+      <c r="L6" s="28">
+        <f>J6/K6</f>
+        <v>6.7978563977774</v>
       </c>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="28">
-        <f>$A7+7</f>
+    <row r="7" ht="20.35" customHeight="1">
+      <c r="A7" s="34">
+        <f>$A8+7</f>
         <v>43979</v>
       </c>
-      <c r="B6" s="29">
-        <f>I6-I7</f>
+      <c r="B7" s="35">
+        <f>I7-I8</f>
         <v>7246</v>
       </c>
-      <c r="C6" s="30">
-        <f>J6-J7</f>
-        <v>586100</v>
-      </c>
-      <c r="D6" s="30">
-        <f>K6-K7</f>
-        <v>144103</v>
-      </c>
-      <c r="E6" s="31">
-        <f>C6/D6</f>
-        <v>4.0672296898746</v>
-      </c>
-      <c r="F6" s="32">
-        <f>(C6/C9)^(1/3)</f>
-        <v>0.855706410034197</v>
-      </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="34">
-        <f>$A7+7</f>
-        <v>43979</v>
-      </c>
-      <c r="I6" s="35">
-        <v>103600</v>
-      </c>
-      <c r="J6" s="30">
-        <f>I4*100</f>
-        <v>11603400</v>
-      </c>
-      <c r="K6" s="30">
-        <v>1765000</v>
-      </c>
-      <c r="L6" s="31">
-        <f>J6/K6</f>
-        <v>6.57416430594901</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="28">
-        <f>$A8+7</f>
-        <v>43972</v>
-      </c>
-      <c r="B7" s="36">
-        <f>I7-I8</f>
-        <v>9354</v>
-      </c>
-      <c r="C7" s="37">
-        <f>J7-J8</f>
-        <v>657300</v>
+      <c r="C7" s="36">
+        <f>B3*100</f>
+        <v>617700</v>
       </c>
       <c r="D7" s="37">
         <f>K7-K8</f>
-        <v>180897</v>
+        <v>144103</v>
       </c>
       <c r="E7" s="38">
         <f>C7/D7</f>
-        <v>3.63355942884625</v>
+        <v>4.2865172827769</v>
       </c>
       <c r="F7" s="39">
         <f>(C7/C10)^(1/3)</f>
-        <v>0.867393117289844</v>
+        <v>0.979500487211567</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="41">
         <f>$A8+7</f>
-        <v>43972</v>
+        <v>43979</v>
       </c>
       <c r="I7" s="42">
-        <v>96354</v>
-      </c>
-      <c r="J7" s="37">
-        <f>I5*100</f>
-        <v>11017300</v>
+        <v>103600</v>
+      </c>
+      <c r="J7" s="36">
+        <f>J8+C7</f>
+        <v>12697700</v>
       </c>
       <c r="K7" s="37">
-        <v>1620897</v>
+        <v>1765000</v>
       </c>
       <c r="L7" s="38">
         <f>J7/K7</f>
-        <v>6.79703892350964</v>
+        <v>7.19416430594901</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="28">
-        <v>43965</v>
-      </c>
-      <c r="B8" s="36">
+      <c r="A8" s="34">
+        <f>$A9+7</f>
+        <v>43972</v>
+      </c>
+      <c r="B8" s="43">
         <f>I8-I9</f>
-        <v>10072</v>
-      </c>
-      <c r="C8" s="37">
+        <v>9354</v>
+      </c>
+      <c r="C8" s="36">
         <f>J8-J9</f>
-        <v>724600</v>
-      </c>
-      <c r="D8" s="37">
+        <v>476600</v>
+      </c>
+      <c r="D8" s="36">
         <f>K8-K9</f>
-        <v>147377</v>
-      </c>
-      <c r="E8" s="38">
+        <v>180897</v>
+      </c>
+      <c r="E8" s="44">
         <f>C8/D8</f>
-        <v>4.9166423526059</v>
-      </c>
-      <c r="F8" s="39">
+        <v>2.63464844635345</v>
+      </c>
+      <c r="F8" s="45">
         <f>(C8/C11)^(1/3)</f>
-        <v>0.821458126164389</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41">
-        <v>43965</v>
-      </c>
-      <c r="I8" s="42">
-        <v>87000</v>
-      </c>
-      <c r="J8" s="37">
-        <v>10360000</v>
-      </c>
-      <c r="K8" s="37">
-        <v>1440000</v>
-      </c>
-      <c r="L8" s="38">
+        <v>0.86966482116181</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47">
+        <f>$A9+7</f>
+        <v>43972</v>
+      </c>
+      <c r="I8" s="48">
+        <v>96354</v>
+      </c>
+      <c r="J8" s="36">
+        <f>I4*100</f>
+        <v>12080000</v>
+      </c>
+      <c r="K8" s="36">
+        <v>1620897</v>
+      </c>
+      <c r="L8" s="44">
         <f>J8/K8</f>
-        <v>7.19444444444444</v>
+        <v>7.45266355604335</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="28">
-        <v>43958</v>
-      </c>
-      <c r="B9" s="36">
+      <c r="A9" s="34">
+        <v>43965</v>
+      </c>
+      <c r="B9" s="43">
         <f>I9-I10</f>
-        <v>13072</v>
-      </c>
-      <c r="C9" s="37">
+        <v>10072</v>
+      </c>
+      <c r="C9" s="36">
         <f>J9-J10</f>
-        <v>935400</v>
-      </c>
-      <c r="D9" s="37">
+        <v>586100</v>
+      </c>
+      <c r="D9" s="36">
         <f>K9-K10</f>
-        <v>197600</v>
-      </c>
-      <c r="E9" s="38">
+        <v>147377</v>
+      </c>
+      <c r="E9" s="44">
         <f>C9/D9</f>
-        <v>4.73380566801619</v>
-      </c>
-      <c r="F9" s="39">
+        <v>3.97687563188286</v>
+      </c>
+      <c r="F9" s="45">
         <f>(C9/C12)^(1/3)</f>
-        <v>0.882280646327855</v>
-      </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41">
-        <v>43958</v>
-      </c>
-      <c r="I9" s="42">
-        <v>76928</v>
-      </c>
-      <c r="J9" s="37">
-        <f>I7*100</f>
-        <v>9635400</v>
-      </c>
-      <c r="K9" s="37">
-        <v>1292623</v>
-      </c>
-      <c r="L9" s="38">
+        <v>0.855706410034197</v>
+      </c>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47">
+        <v>43965</v>
+      </c>
+      <c r="I9" s="48">
+        <v>87000</v>
+      </c>
+      <c r="J9" s="36">
+        <f>I5*100</f>
+        <v>11603400</v>
+      </c>
+      <c r="K9" s="36">
+        <v>1440000</v>
+      </c>
+      <c r="L9" s="44">
         <f>J9/K9</f>
-        <v>7.45414556293676</v>
+        <v>8.057916666666671</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="28">
-        <v>43951</v>
-      </c>
-      <c r="B10" s="36">
+      <c r="A10" s="34">
+        <v>43958</v>
+      </c>
+      <c r="B10" s="43">
         <f>I10-I11</f>
-        <v>13620</v>
-      </c>
-      <c r="C10" s="37">
+        <v>13072</v>
+      </c>
+      <c r="C10" s="36">
         <f>J10-J11</f>
-        <v>1007200</v>
-      </c>
-      <c r="D10" s="37">
+        <v>657300</v>
+      </c>
+      <c r="D10" s="36">
         <f>K10-K11</f>
-        <v>208581</v>
-      </c>
-      <c r="E10" s="38">
+        <v>197600</v>
+      </c>
+      <c r="E10" s="44">
         <f>C10/D10</f>
-        <v>4.82881949937914</v>
-      </c>
-      <c r="F10" s="39">
+        <v>3.32641700404858</v>
+      </c>
+      <c r="F10" s="45">
         <f>(C10/C13)^(1/3)</f>
-        <v>0.863947788733022</v>
-      </c>
-      <c r="G10" s="40"/>
-      <c r="H10" s="41">
-        <v>43951</v>
-      </c>
-      <c r="I10" s="42">
-        <v>63856</v>
-      </c>
-      <c r="J10" s="37">
-        <f>100*I8</f>
-        <v>8700000</v>
-      </c>
-      <c r="K10" s="37">
-        <v>1095023</v>
-      </c>
-      <c r="L10" s="38">
+        <v>0.867393117289844</v>
+      </c>
+      <c r="G10" s="46"/>
+      <c r="H10" s="47">
+        <v>43958</v>
+      </c>
+      <c r="I10" s="48">
+        <v>76928</v>
+      </c>
+      <c r="J10" s="36">
+        <f>I6*100</f>
+        <v>11017300</v>
+      </c>
+      <c r="K10" s="36">
+        <v>1292623</v>
+      </c>
+      <c r="L10" s="44">
         <f>J10/K10</f>
-        <v>7.9450385973628</v>
+        <v>8.52321210438001</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="28">
-        <v>43944</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="A11" s="34">
+        <v>43951</v>
+      </c>
+      <c r="B11" s="43">
         <f>I11-I12</f>
-        <v>15619</v>
-      </c>
-      <c r="C11" s="37">
+        <v>13620</v>
+      </c>
+      <c r="C11" s="36">
         <f>J11-J12</f>
-        <v>1307200</v>
-      </c>
-      <c r="D11" s="37">
+        <v>724600</v>
+      </c>
+      <c r="D11" s="36">
         <f>K11-K12</f>
-        <v>246778</v>
-      </c>
-      <c r="E11" s="38">
+        <v>208581</v>
+      </c>
+      <c r="E11" s="44">
         <f>C11/D11</f>
-        <v>5.29706862037945</v>
-      </c>
-      <c r="F11" s="39">
+        <v>3.47395016804023</v>
+      </c>
+      <c r="F11" s="45">
         <f>(C11/C14)^(1/3)</f>
-        <v>0.90044233315585</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="41">
-        <v>43944</v>
-      </c>
-      <c r="I11" s="42">
-        <v>50236</v>
-      </c>
-      <c r="J11" s="37">
-        <f>100*I9</f>
-        <v>7692800</v>
-      </c>
-      <c r="K11" s="37">
-        <v>886442</v>
-      </c>
-      <c r="L11" s="38">
+        <v>0.821458126164389</v>
+      </c>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47">
+        <v>43951</v>
+      </c>
+      <c r="I11" s="48">
+        <v>63856</v>
+      </c>
+      <c r="J11" s="36">
+        <f>I7*100</f>
+        <v>10360000</v>
+      </c>
+      <c r="K11" s="36">
+        <v>1095023</v>
+      </c>
+      <c r="L11" s="44">
         <f>J11/K11</f>
-        <v>8.67828916048653</v>
+        <v>9.46098849065271</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="28">
-        <v>43937</v>
-      </c>
-      <c r="B12" s="36">
+      <c r="A12" s="34">
+        <v>43944</v>
+      </c>
+      <c r="B12" s="43">
         <f>I12-I13</f>
-        <v>17905</v>
-      </c>
-      <c r="C12" s="37">
+        <v>15619</v>
+      </c>
+      <c r="C12" s="36">
         <f>J12-J13</f>
-        <v>1362000</v>
-      </c>
-      <c r="D12" s="37">
+        <v>935400</v>
+      </c>
+      <c r="D12" s="36">
         <f>K12-K13</f>
-        <v>207532</v>
-      </c>
-      <c r="E12" s="38">
+        <v>246778</v>
+      </c>
+      <c r="E12" s="44">
         <f>C12/D12</f>
-        <v>6.56284332054816</v>
-      </c>
-      <c r="F12" s="39">
+        <v>3.79045133682905</v>
+      </c>
+      <c r="F12" s="45">
         <f>(C12/C15)^(1/3)</f>
-        <v>1.08633310680582</v>
-      </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41">
-        <v>43937</v>
-      </c>
-      <c r="I12" s="42">
-        <v>34617</v>
-      </c>
-      <c r="J12" s="37">
-        <f>100*I10</f>
-        <v>6385600</v>
-      </c>
-      <c r="K12" s="37">
-        <v>639664</v>
-      </c>
-      <c r="L12" s="38">
+        <v>0.882280646327855</v>
+      </c>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47">
+        <v>43944</v>
+      </c>
+      <c r="I12" s="48">
+        <v>50236</v>
+      </c>
+      <c r="J12" s="36">
+        <f>I8*100</f>
+        <v>9635400</v>
+      </c>
+      <c r="K12" s="36">
+        <v>886442</v>
+      </c>
+      <c r="L12" s="44">
         <f>J12/K12</f>
-        <v>9.98274093899297</v>
+        <v>10.8697466952153</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="28">
-        <f>$A12-7</f>
-        <v>43930</v>
-      </c>
-      <c r="B13" s="36">
+      <c r="A13" s="34">
+        <v>43937</v>
+      </c>
+      <c r="B13" s="43">
         <f>I13-I14</f>
-        <v>10624</v>
-      </c>
-      <c r="C13" s="37">
+        <v>17905</v>
+      </c>
+      <c r="C13" s="36">
         <f>J13-J14</f>
-        <v>1561900</v>
-      </c>
-      <c r="D13" s="37">
+        <v>1007200</v>
+      </c>
+      <c r="D13" s="36">
         <f>K13-K14</f>
-        <v>215411</v>
-      </c>
-      <c r="E13" s="38">
+        <v>207532</v>
+      </c>
+      <c r="E13" s="44">
         <f>C13/D13</f>
-        <v>7.25079034961074</v>
-      </c>
-      <c r="F13" s="39">
+        <v>4.85322745407937</v>
+      </c>
+      <c r="F13" s="45">
         <f>(C13/C16)^(1/3)</f>
-        <v>1.48267331704548</v>
-      </c>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41">
-        <f>$A12-7</f>
-        <v>43930</v>
-      </c>
-      <c r="I13" s="42">
-        <v>16712</v>
-      </c>
-      <c r="J13" s="37">
-        <f>100*I11</f>
-        <v>5023600</v>
-      </c>
-      <c r="K13" s="37">
-        <v>432132</v>
-      </c>
-      <c r="L13" s="38">
+        <v>0.863947788733022</v>
+      </c>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47">
+        <v>43937</v>
+      </c>
+      <c r="I13" s="48">
+        <v>34617</v>
+      </c>
+      <c r="J13" s="36">
+        <f>I9*100</f>
+        <v>8700000</v>
+      </c>
+      <c r="K13" s="36">
+        <v>639664</v>
+      </c>
+      <c r="L13" s="44">
         <f>J13/K13</f>
-        <v>11.6251515740561</v>
+        <v>13.6008904674954</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="28">
+      <c r="A14" s="34">
         <f>$A13-7</f>
-        <v>43923</v>
-      </c>
-      <c r="B14" s="36">
+        <v>43930</v>
+      </c>
+      <c r="B14" s="43">
         <f>I14-I15</f>
-        <v>4792</v>
-      </c>
-      <c r="C14" s="37">
+        <v>10624</v>
+      </c>
+      <c r="C14" s="36">
         <f>J14-J15</f>
-        <v>1790500</v>
-      </c>
-      <c r="D14" s="37">
+        <v>1307200</v>
+      </c>
+      <c r="D14" s="36">
         <f>K14-K15</f>
-        <v>147527</v>
-      </c>
-      <c r="E14" s="38">
+        <v>215411</v>
+      </c>
+      <c r="E14" s="44">
         <f>C14/D14</f>
-        <v>12.1367614063866</v>
-      </c>
-      <c r="F14" s="39">
+        <v>6.06839947820678</v>
+      </c>
+      <c r="F14" s="45">
         <f>(C14/C17)^(1/3)</f>
-        <v>2.54204134080383</v>
-      </c>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41">
+        <v>0.90044233315585</v>
+      </c>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47">
         <f>$A13-7</f>
-        <v>43923</v>
-      </c>
-      <c r="I14" s="42">
-        <v>6088</v>
-      </c>
-      <c r="J14" s="37">
-        <f>100*I12</f>
-        <v>3461700</v>
-      </c>
-      <c r="K14" s="37">
-        <v>216721</v>
-      </c>
-      <c r="L14" s="38">
+        <v>43930</v>
+      </c>
+      <c r="I14" s="48">
+        <v>16712</v>
+      </c>
+      <c r="J14" s="36">
+        <f>I10*100</f>
+        <v>7692800</v>
+      </c>
+      <c r="K14" s="36">
+        <v>432132</v>
+      </c>
+      <c r="L14" s="44">
         <f>J14/K14</f>
-        <v>15.9730713682569</v>
+        <v>17.8019679172105</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="28">
+      <c r="A15" s="34">
         <f>$A14-7</f>
-        <v>43916</v>
-      </c>
-      <c r="B15" s="36">
+        <v>43923</v>
+      </c>
+      <c r="B15" s="43">
         <f>I15-I16</f>
-        <v>1090</v>
-      </c>
-      <c r="C15" s="37">
+        <v>4792</v>
+      </c>
+      <c r="C15" s="36">
         <f>J15-J16</f>
-        <v>1062400</v>
-      </c>
-      <c r="D15" s="37">
+        <v>1362000</v>
+      </c>
+      <c r="D15" s="36">
         <f>K15-K16</f>
-        <v>59779</v>
-      </c>
-      <c r="E15" s="38">
+        <v>147527</v>
+      </c>
+      <c r="E15" s="44">
         <f>C15/D15</f>
-        <v>17.7721273356864</v>
-      </c>
-      <c r="F15" s="39">
+        <v>9.23220834152392</v>
+      </c>
+      <c r="F15" s="45">
         <f>(C15/C18)^(1/3)</f>
-        <v>4.00806453796077</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41">
+        <v>1.08633310680582</v>
+      </c>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47">
         <f>$A14-7</f>
-        <v>43916</v>
-      </c>
-      <c r="I15" s="42">
-        <v>1296</v>
-      </c>
-      <c r="J15" s="37">
-        <f>100*I13</f>
-        <v>1671200</v>
-      </c>
-      <c r="K15" s="37">
-        <v>69194</v>
-      </c>
-      <c r="L15" s="38">
+        <v>43923</v>
+      </c>
+      <c r="I15" s="48">
+        <v>6088</v>
+      </c>
+      <c r="J15" s="36">
+        <f>I11*100</f>
+        <v>6385600</v>
+      </c>
+      <c r="K15" s="36">
+        <v>216721</v>
+      </c>
+      <c r="L15" s="44">
         <f>J15/K15</f>
-        <v>24.1523831546088</v>
+        <v>29.4646111821189</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="28">
+      <c r="A16" s="34">
         <f>$A15-7</f>
-        <v>43909</v>
-      </c>
-      <c r="B16" s="36">
+        <v>43916</v>
+      </c>
+      <c r="B16" s="43">
         <f>I16-I17</f>
-        <v>165</v>
-      </c>
-      <c r="C16" s="37">
+        <v>1090</v>
+      </c>
+      <c r="C16" s="36">
         <f>J16-J17</f>
-        <v>479200</v>
-      </c>
-      <c r="D16" s="37">
+        <v>1561900</v>
+      </c>
+      <c r="D16" s="36">
         <f>K16-K17</f>
-        <v>8103</v>
-      </c>
-      <c r="E16" s="38">
+        <v>59779</v>
+      </c>
+      <c r="E16" s="44">
         <f>C16/D16</f>
-        <v>59.138590645440</v>
-      </c>
-      <c r="F16" s="39">
+        <v>26.1279044480503</v>
+      </c>
+      <c r="F16" s="45">
         <f>(C16/C19)^(1/3)</f>
-        <v>5.48747983275193</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41">
+        <v>1.48267331704548</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47">
         <f>$A15-7</f>
-        <v>43909</v>
-      </c>
-      <c r="I16" s="42">
-        <v>206</v>
-      </c>
-      <c r="J16" s="37">
-        <f>100*I14</f>
-        <v>608800</v>
-      </c>
-      <c r="K16" s="37">
-        <v>9415</v>
-      </c>
-      <c r="L16" s="38">
+        <v>43916</v>
+      </c>
+      <c r="I16" s="48">
+        <v>1296</v>
+      </c>
+      <c r="J16" s="36">
+        <f>I12*100</f>
+        <v>5023600</v>
+      </c>
+      <c r="K16" s="36">
+        <v>69194</v>
+      </c>
+      <c r="L16" s="44">
         <f>J16/K16</f>
-        <v>64.6627721720659</v>
+        <v>72.6016706650866</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="28">
+      <c r="A17" s="34">
         <f>$A16-7</f>
-        <v>43902</v>
-      </c>
-      <c r="B17" s="36">
+        <v>43909</v>
+      </c>
+      <c r="B17" s="43">
         <f>I17-I18</f>
-        <v>29</v>
-      </c>
-      <c r="C17" s="37">
+        <v>165</v>
+      </c>
+      <c r="C17" s="36">
         <f>J17-J18</f>
-        <v>109000</v>
-      </c>
-      <c r="D17" s="37">
+        <v>1790500</v>
+      </c>
+      <c r="D17" s="36">
         <f>K17-K18</f>
-        <v>1153</v>
-      </c>
-      <c r="E17" s="38">
+        <v>8103</v>
+      </c>
+      <c r="E17" s="44">
         <f>C17/D17</f>
-        <v>94.53599306157849</v>
-      </c>
-      <c r="F17" s="39">
+        <v>220.967542885351</v>
+      </c>
+      <c r="F17" s="45">
         <f>(C17/C20)^(1/3)</f>
-        <v>4.62748057383939</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="41">
+        <v>2.54204134080383</v>
+      </c>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47">
         <f>$A16-7</f>
-        <v>43902</v>
-      </c>
-      <c r="I17" s="42">
-        <v>41</v>
-      </c>
-      <c r="J17" s="37">
-        <f>100*I15</f>
-        <v>129600</v>
-      </c>
-      <c r="K17" s="37">
-        <v>1312</v>
-      </c>
-      <c r="L17" s="38">
+        <v>43909</v>
+      </c>
+      <c r="I17" s="48">
+        <v>206</v>
+      </c>
+      <c r="J17" s="36">
+        <f>I13*100</f>
+        <v>3461700</v>
+      </c>
+      <c r="K17" s="36">
+        <v>9415</v>
+      </c>
+      <c r="L17" s="44">
         <f>J17/K17</f>
-        <v>98.78048780487801</v>
+        <v>367.679235262878</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="28">
+      <c r="A18" s="34">
         <f>$A17-7</f>
-        <v>43895</v>
-      </c>
-      <c r="B18" s="36">
+        <v>43902</v>
+      </c>
+      <c r="B18" s="43">
         <f>I18-I19</f>
-        <v>11</v>
-      </c>
-      <c r="C18" s="37">
+        <v>29</v>
+      </c>
+      <c r="C18" s="36">
         <f>J18-J19</f>
-        <v>16500</v>
-      </c>
-      <c r="D18" s="37">
+        <v>1062400</v>
+      </c>
+      <c r="D18" s="36">
         <f>K18-K19</f>
-        <v>100</v>
-      </c>
-      <c r="E18" s="38">
+        <v>1153</v>
+      </c>
+      <c r="E18" s="44">
         <f>C18/D18</f>
-        <v>165</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="41">
+        <v>921.422376409367</v>
+      </c>
+      <c r="F18" s="45">
+        <f>(C18/C21)^(1/3)</f>
+        <v>4.00806453796077</v>
+      </c>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47">
         <f>$A17-7</f>
-        <v>43895</v>
-      </c>
-      <c r="I18" s="42">
-        <v>12</v>
-      </c>
-      <c r="J18" s="37">
-        <f>100*I16</f>
-        <v>20600</v>
-      </c>
-      <c r="K18" s="37">
-        <v>159</v>
-      </c>
-      <c r="L18" s="38">
+        <v>43902</v>
+      </c>
+      <c r="I18" s="48">
+        <v>41</v>
+      </c>
+      <c r="J18" s="36">
+        <f>I14*100</f>
+        <v>1671200</v>
+      </c>
+      <c r="K18" s="36">
+        <v>1312</v>
+      </c>
+      <c r="L18" s="44">
         <f>J18/K18</f>
-        <v>129.559748427673</v>
+        <v>1273.780487804880</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="28">
+      <c r="A19" s="34">
         <f>$A18-7</f>
-        <v>43888</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37">
+        <v>43895</v>
+      </c>
+      <c r="B19" s="43">
+        <f>I19-I20</f>
+        <v>11</v>
+      </c>
+      <c r="C19" s="36">
         <f>J19-J20</f>
-        <v>2900</v>
-      </c>
-      <c r="D19" s="37">
+        <v>479200</v>
+      </c>
+      <c r="D19" s="36">
         <f>K19-K20</f>
-        <v>44</v>
-      </c>
-      <c r="E19" s="38">
+        <v>100</v>
+      </c>
+      <c r="E19" s="44">
         <f>C19/D19</f>
-        <v>65.90909090909091</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41">
+        <v>4792</v>
+      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47">
         <f>$A18-7</f>
-        <v>43888</v>
-      </c>
-      <c r="I19" s="42">
-        <v>1</v>
-      </c>
-      <c r="J19" s="37">
-        <f>100*I17</f>
-        <v>4100</v>
-      </c>
-      <c r="K19" s="37">
-        <v>59</v>
-      </c>
-      <c r="L19" s="38">
+        <v>43895</v>
+      </c>
+      <c r="I19" s="48">
+        <v>12</v>
+      </c>
+      <c r="J19" s="36">
+        <f>I15*100</f>
+        <v>608800</v>
+      </c>
+      <c r="K19" s="36">
+        <v>159</v>
+      </c>
+      <c r="L19" s="44">
         <f>J19/K19</f>
-        <v>69.4915254237288</v>
+        <v>3828.930817610060</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="28">
+      <c r="A20" s="34">
         <f>$A19-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37">
+        <v>43888</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="36">
         <f>J20-J21</f>
-        <v>1100</v>
-      </c>
-      <c r="D20" s="37">
+        <v>109000</v>
+      </c>
+      <c r="D20" s="36">
         <f>K20-K21</f>
+        <v>44</v>
+      </c>
+      <c r="E20" s="44">
+        <f>C20/D20</f>
+        <v>2477.272727272730</v>
+      </c>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47">
+        <f>$A19-7</f>
+        <v>43888</v>
+      </c>
+      <c r="I20" s="48">
         <v>1</v>
       </c>
-      <c r="E20" s="38">
-        <f>C20/D20</f>
-        <v>1100</v>
-      </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41">
-        <f>$A19-7</f>
-        <v>43881</v>
-      </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="37">
-        <f>100*I18</f>
-        <v>1200</v>
-      </c>
-      <c r="K20" s="37">
-        <v>15</v>
-      </c>
-      <c r="L20" s="38">
+      <c r="J20" s="36">
+        <f>I16*100</f>
+        <v>129600</v>
+      </c>
+      <c r="K20" s="36">
+        <v>59</v>
+      </c>
+      <c r="L20" s="44">
         <f>J20/K20</f>
-        <v>80</v>
+        <v>2196.610169491530</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="28">
+      <c r="A21" s="34">
         <f>$A20-7</f>
-        <v>43874</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37">
+        <v>43881</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="36">
+        <f>J21-J22</f>
+        <v>16500</v>
+      </c>
+      <c r="D21" s="36">
         <f>K21-K22</f>
-        <v>2</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="41">
+        <v>1</v>
+      </c>
+      <c r="E21" s="44">
+        <f>C21/D21</f>
+        <v>16500</v>
+      </c>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47">
         <f>$A20-7</f>
-        <v>43874</v>
-      </c>
-      <c r="I21" s="42"/>
-      <c r="J21" s="37">
-        <f>100*I19</f>
-        <v>100</v>
-      </c>
-      <c r="K21" s="37">
-        <v>14</v>
-      </c>
-      <c r="L21" s="38">
+        <v>43881</v>
+      </c>
+      <c r="I21" s="48"/>
+      <c r="J21" s="36">
+        <f>I17*100</f>
+        <v>20600</v>
+      </c>
+      <c r="K21" s="36">
+        <v>15</v>
+      </c>
+      <c r="L21" s="44">
         <f>J21/K21</f>
-        <v>7.14285714285714</v>
+        <v>1373.333333333330</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="28">
+      <c r="A22" s="34">
         <f>$A21-7</f>
-        <v>43867</v>
-      </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37">
+        <v>43874</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36">
         <f>K22-K23</f>
-        <v>7</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="41">
+        <v>2</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47">
         <f>$A21-7</f>
-        <v>43867</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="43">
-        <v>12</v>
-      </c>
-      <c r="L22" s="38">
+        <v>43874</v>
+      </c>
+      <c r="I22" s="48"/>
+      <c r="J22" s="36">
+        <f>I18*100</f>
+        <v>4100</v>
+      </c>
+      <c r="K22" s="36">
+        <v>14</v>
+      </c>
+      <c r="L22" s="44">
         <f>J22/K22</f>
-        <v>0</v>
+        <v>292.857142857143</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="28">
+      <c r="A23" s="34">
         <f>$A22-7</f>
-        <v>43860</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37">
+        <v>43867</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36">
         <f>K23-K24</f>
-        <v>4</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41">
+        <v>7</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47">
         <f>$A22-7</f>
-        <v>43860</v>
-      </c>
-      <c r="I23" s="42"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="43">
-        <v>5</v>
-      </c>
-      <c r="L23" s="38">
+        <v>43867</v>
+      </c>
+      <c r="I23" s="48"/>
+      <c r="J23" s="36">
+        <f>I19*100</f>
+        <v>1200</v>
+      </c>
+      <c r="K23" s="49">
+        <v>12</v>
+      </c>
+      <c r="L23" s="44">
         <f>J23/K23</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43">
-        <v>1</v>
-      </c>
-      <c r="L24" s="38">
+      <c r="A24" s="34">
+        <f>$A23-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36">
+        <f>K24-K25</f>
+        <v>4</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47">
+        <f>$A23-7</f>
+        <v>43860</v>
+      </c>
+      <c r="I24" s="48"/>
+      <c r="J24" s="36">
+        <f>I20*100</f>
+        <v>100</v>
+      </c>
+      <c r="K24" s="49">
+        <v>5</v>
+      </c>
+      <c r="L24" s="44">
         <f>J24/K24</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" t="s" s="48">
-        <v>11</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
       <c r="H25" s="52"/>
       <c r="I25" s="53"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49">
+        <v>1</v>
+      </c>
+      <c r="L25" s="44">
+        <f>J25/K25</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="44"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="49"/>
+      <c r="A26" s="50"/>
+      <c r="B26" t="s" s="54">
+        <v>11</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="55"/>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="50"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B26" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -31,30 +31,22 @@
     <t>New Inferred/New Confirmed</t>
   </si>
   <si>
+    <t>Tests per Case</t>
+  </si>
+  <si>
     <t>Weekly R (Past 3 Weeks)</t>
   </si>
   <si>
     <t>Deaths</t>
   </si>
   <si>
-    <t>Inferred Cases: Deaths x 100 Lagged 4</t>
+    <t>Inferred Cases: Deaths x 100 Lagged 3</t>
   </si>
   <si>
     <t>Confirmed Cases</t>
   </si>
   <si>
     <t>Inferred Cases/Confirmed Cases</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -75,6 +67,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -100,14 +97,8 @@
       <color indexed="17"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -133,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -145,6 +142,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -158,28 +177,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="13"/>
@@ -188,13 +192,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -203,31 +222,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -236,7 +240,7 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="13"/>
@@ -248,31 +252,31 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -296,127 +300,7 @@
         <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="12"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="13"/>
@@ -428,7 +312,52 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
         <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="18"/>
@@ -437,7 +366,7 @@
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -446,13 +375,13 @@
         <color indexed="18"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,13 +390,43 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="18"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="18"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,82 +441,7 @@
         <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,55 +453,10 @@
         <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,37 +468,7 @@
         <color indexed="18"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="18"/>
@@ -687,191 +496,158 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -891,11 +667,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffdfdfdf"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="fff27100"/>
@@ -918,10 +694,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -1098,11 +874,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1111,34 +890,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="2200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1388,10 +1167,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1682,7 +1461,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1960,1053 +1739,1106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.26562" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4062" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.2969" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.97656" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.0078" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.4609" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7891" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.4062" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.2969" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.8516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.35156" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="7" width="10.3516" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3516" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" ht="56.35" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" t="s" s="7">
+      <c r="G2" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" t="s" s="9">
         <v>1</v>
       </c>
-      <c r="I2" t="s" s="4">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="K2" t="s" s="4">
+      <c r="K2" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="4">
+      <c r="L2" t="s" s="6">
         <v>10</v>
+      </c>
+      <c r="M2" t="s" s="6">
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
-      <c r="A3" s="8">
+      <c r="A3" s="10">
         <f>$A4+7</f>
         <v>44007</v>
       </c>
-      <c r="B3" s="9">
-        <f>I3-I4</f>
+      <c r="B3" s="11">
+        <f>J3-J4</f>
         <v>6177</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="12">
         <f>D3*E3</f>
-        <v>462840</v>
-      </c>
-      <c r="D3" s="11">
-        <f>K3-K4</f>
+        <v>779520</v>
+      </c>
+      <c r="D3" s="13">
+        <f>L3-L4</f>
         <v>243600</v>
       </c>
-      <c r="E3" s="12">
-        <v>1.9</v>
+      <c r="E3" s="14">
+        <v>3.2</v>
       </c>
       <c r="F3" s="13">
+        <v>17</v>
+      </c>
+      <c r="G3" s="15">
         <f>(C3/C6)^(1/3)</f>
-        <v>1.06633683882107</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15">
+        <v>1.08064542781417</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17">
         <f>$A4+7</f>
         <v>44007</v>
       </c>
-      <c r="I3" s="16">
+      <c r="J3" s="18">
         <v>126977</v>
       </c>
-      <c r="J3" s="17">
-        <f>J4+C3</f>
-        <v>14285085.3</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="K3" s="19">
+        <f>K4+C3</f>
+        <v>14491067</v>
+      </c>
+      <c r="L3" s="13">
         <v>2505600</v>
       </c>
-      <c r="L3" s="12">
-        <f>J3/K3</f>
-        <v>5.70126329022989</v>
+      <c r="M3" s="14">
+        <f>K3/L3</f>
+        <v>5.78347182311622</v>
       </c>
     </row>
     <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" s="18">
+      <c r="A4" s="20">
         <f>$A5+7</f>
         <v>44000</v>
       </c>
-      <c r="B4" s="19">
-        <f>I4-I5</f>
+      <c r="B4" s="21">
+        <f>J4-J5</f>
         <v>4766</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="12">
         <f>D4*E4</f>
-        <v>361827.9</v>
-      </c>
-      <c r="D4" s="20">
-        <f>K4-K5</f>
+        <v>516897</v>
+      </c>
+      <c r="D4" s="22">
+        <f>L4-L5</f>
         <v>172299</v>
       </c>
-      <c r="E4" s="21">
-        <v>2.1</v>
+      <c r="E4" s="23">
+        <v>3</v>
       </c>
       <c r="F4" s="22">
+        <v>21</v>
+      </c>
+      <c r="G4" s="24">
         <f>(C4/C7)^(1/3)</f>
-        <v>0.836709724952506</v>
-      </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="15">
+        <v>1.02742467383361</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="17">
         <f>$A5+7</f>
         <v>44000</v>
       </c>
-      <c r="I4" s="24">
+      <c r="J4" s="26">
         <v>120800</v>
       </c>
-      <c r="J4" s="25">
-        <f>J5+C4</f>
-        <v>13822245.3</v>
-      </c>
-      <c r="K4" s="20">
+      <c r="K4" s="12">
+        <f>K5+C4</f>
+        <v>13711547</v>
+      </c>
+      <c r="L4" s="22">
         <v>2262000</v>
       </c>
-      <c r="L4" s="21">
-        <f>J4/K4</f>
-        <v>6.1106301061008</v>
+      <c r="M4" s="23">
+        <f>K4/L4</f>
+        <v>6.06169186560566</v>
       </c>
     </row>
     <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" s="18">
+      <c r="A5" s="20">
         <f>$A6+7</f>
         <v>43993</v>
       </c>
-      <c r="B5" s="26">
-        <f>I5-I6</f>
+      <c r="B5" s="27">
+        <f>J5-J6</f>
         <v>5861</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="12">
         <f>D5*E5</f>
-        <v>380995</v>
-      </c>
-      <c r="D5" s="27">
-        <f>K5-K6</f>
+        <v>496950</v>
+      </c>
+      <c r="D5" s="28">
+        <f>L5-L6</f>
         <v>165650</v>
       </c>
-      <c r="E5" s="28">
-        <v>2.3</v>
-      </c>
-      <c r="F5" s="29">
+      <c r="E5" s="29">
+        <v>3</v>
+      </c>
+      <c r="F5" s="28">
+        <v>21</v>
+      </c>
+      <c r="G5" s="30">
         <f>(C5/C8)^(1/3)</f>
-        <v>0.928086408742859</v>
-      </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="15">
+        <v>0.9464848305439471</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="17">
         <f>$A6+7</f>
         <v>43993</v>
       </c>
-      <c r="I5" s="31">
+      <c r="J5" s="32">
         <v>116034</v>
       </c>
-      <c r="J5" s="25">
-        <f>J6+C5</f>
-        <v>13460417.4</v>
-      </c>
-      <c r="K5" s="27">
+      <c r="K5" s="12">
+        <f>K6+C5</f>
+        <v>13194650</v>
+      </c>
+      <c r="L5" s="28">
         <v>2089701</v>
       </c>
-      <c r="L5" s="28">
-        <f>J5/K5</f>
-        <v>6.44131260883734</v>
+      <c r="M5" s="29">
+        <f>K5/L5</f>
+        <v>6.31413297883286</v>
       </c>
     </row>
     <row r="6" ht="20.7" customHeight="1">
-      <c r="A6" s="18">
+      <c r="A6" s="20">
         <f>$A7+7</f>
         <v>43986</v>
       </c>
-      <c r="B6" s="26">
-        <f>I6-I7</f>
+      <c r="B6" s="27">
+        <f>J6-J7</f>
         <v>6573</v>
       </c>
-      <c r="C6" s="32">
-        <f>D6*E6</f>
-        <v>381722.4</v>
-      </c>
-      <c r="D6" s="27">
-        <f>K6-K7</f>
+      <c r="C6" s="28">
+        <f>B3*100</f>
+        <v>617700</v>
+      </c>
+      <c r="D6" s="28">
+        <f>L6-L7</f>
         <v>159051</v>
       </c>
-      <c r="E6" s="28">
-        <v>2.4</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="E6" s="33">
+        <f>C6/D6</f>
+        <v>3.88365995812664</v>
+      </c>
+      <c r="F6" s="28">
+        <v>20</v>
+      </c>
+      <c r="G6" s="34">
         <f>(C6/C9)^(1/3)</f>
-        <v>0.8668127846250629</v>
-      </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="33">
+        <v>0.979500487211567</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="35">
         <f>$A7+7</f>
         <v>43986</v>
       </c>
-      <c r="I6" s="31">
+      <c r="J6" s="32">
         <v>110173</v>
       </c>
-      <c r="J6" s="25">
-        <f>J7+C6</f>
-        <v>13079422.4</v>
-      </c>
-      <c r="K6" s="27">
+      <c r="K6" s="28">
+        <f>J3*100</f>
+        <v>12697700</v>
+      </c>
+      <c r="L6" s="28">
         <v>1924051</v>
       </c>
-      <c r="L6" s="28">
-        <f>J6/K6</f>
-        <v>6.7978563977774</v>
+      <c r="M6" s="33">
+        <f>K6/L6</f>
+        <v>6.59946124089226</v>
       </c>
     </row>
     <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="34">
+      <c r="A7" s="20">
         <f>$A8+7</f>
         <v>43979</v>
       </c>
-      <c r="B7" s="35">
-        <f>I7-I8</f>
+      <c r="B7" s="27">
+        <f>J7-J8</f>
         <v>7246</v>
       </c>
-      <c r="C7" s="36">
-        <f>B3*100</f>
-        <v>617700</v>
-      </c>
-      <c r="D7" s="37">
-        <f>K7-K8</f>
+      <c r="C7" s="28">
+        <f>B4*100</f>
+        <v>476600</v>
+      </c>
+      <c r="D7" s="28">
+        <f>L7-L8</f>
         <v>144103</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="33">
         <f>C7/D7</f>
-        <v>4.2865172827769</v>
-      </c>
-      <c r="F7" s="39">
+        <v>3.30735654358341</v>
+      </c>
+      <c r="F7" s="28">
+        <v>18</v>
+      </c>
+      <c r="G7" s="34">
         <f>(C7/C10)^(1/3)</f>
-        <v>0.979500487211567</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="41">
+        <v>0.86966482116181</v>
+      </c>
+      <c r="H7" s="31"/>
+      <c r="I7" s="36">
         <f>$A8+7</f>
         <v>43979</v>
       </c>
-      <c r="I7" s="42">
+      <c r="J7" s="32">
         <v>103600</v>
       </c>
-      <c r="J7" s="36">
-        <f>J8+C7</f>
-        <v>12697700</v>
-      </c>
-      <c r="K7" s="37">
+      <c r="K7" s="28">
+        <f>J4*100</f>
+        <v>12080000</v>
+      </c>
+      <c r="L7" s="28">
         <v>1765000</v>
       </c>
-      <c r="L7" s="38">
-        <f>J7/K7</f>
-        <v>7.19416430594901</v>
+      <c r="M7" s="33">
+        <f>K7/L7</f>
+        <v>6.84419263456091</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="34">
+      <c r="A8" s="20">
         <f>$A9+7</f>
         <v>43972</v>
       </c>
-      <c r="B8" s="43">
-        <f>I8-I9</f>
+      <c r="B8" s="27">
+        <f>J8-J9</f>
         <v>9354</v>
       </c>
-      <c r="C8" s="36">
-        <f>J8-J9</f>
-        <v>476600</v>
-      </c>
-      <c r="D8" s="36">
-        <f>K8-K9</f>
+      <c r="C8" s="28">
+        <f>B5*100</f>
+        <v>586100</v>
+      </c>
+      <c r="D8" s="28">
+        <f>L8-L9</f>
         <v>180897</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="33">
         <f>C8/D8</f>
-        <v>2.63464844635345</v>
-      </c>
-      <c r="F8" s="45">
+        <v>3.23996528411195</v>
+      </c>
+      <c r="F8" s="28">
+        <v>17</v>
+      </c>
+      <c r="G8" s="34">
         <f>(C8/C11)^(1/3)</f>
-        <v>0.86966482116181</v>
-      </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47">
+        <v>0.855706410034197</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="36">
         <f>$A9+7</f>
         <v>43972</v>
       </c>
-      <c r="I8" s="48">
+      <c r="J8" s="32">
         <v>96354</v>
       </c>
-      <c r="J8" s="36">
-        <f>I4*100</f>
-        <v>12080000</v>
-      </c>
-      <c r="K8" s="36">
+      <c r="K8" s="28">
+        <f>J5*100</f>
+        <v>11603400</v>
+      </c>
+      <c r="L8" s="28">
         <v>1620897</v>
       </c>
-      <c r="L8" s="44">
-        <f>J8/K8</f>
-        <v>7.45266355604335</v>
+      <c r="M8" s="33">
+        <f>K8/L8</f>
+        <v>7.15862883329416</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="34">
+      <c r="A9" s="20">
         <v>43965</v>
       </c>
-      <c r="B9" s="43">
-        <f>I9-I10</f>
+      <c r="B9" s="27">
+        <f>J9-J10</f>
         <v>10072</v>
       </c>
-      <c r="C9" s="36">
-        <f>J9-J10</f>
-        <v>586100</v>
-      </c>
-      <c r="D9" s="36">
-        <f>K9-K10</f>
+      <c r="C9" s="28">
+        <f>B6*100</f>
+        <v>657300</v>
+      </c>
+      <c r="D9" s="28">
+        <f>L9-L10</f>
         <v>147377</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="33">
         <f>C9/D9</f>
-        <v>3.97687563188286</v>
-      </c>
-      <c r="F9" s="45">
+        <v>4.45999036484662</v>
+      </c>
+      <c r="F9" s="28">
+        <v>14</v>
+      </c>
+      <c r="G9" s="34">
         <f>(C9/C12)^(1/3)</f>
-        <v>0.855706410034197</v>
-      </c>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47">
+        <v>0.867393117289844</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="36">
         <v>43965</v>
       </c>
-      <c r="I9" s="48">
+      <c r="J9" s="32">
         <v>87000</v>
       </c>
-      <c r="J9" s="36">
-        <f>I5*100</f>
-        <v>11603400</v>
-      </c>
-      <c r="K9" s="36">
+      <c r="K9" s="28">
+        <f>J6*100</f>
+        <v>11017300</v>
+      </c>
+      <c r="L9" s="28">
         <v>1440000</v>
       </c>
-      <c r="L9" s="44">
-        <f>J9/K9</f>
-        <v>8.057916666666671</v>
+      <c r="M9" s="33">
+        <f>K9/L9</f>
+        <v>7.65090277777778</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="34">
+      <c r="A10" s="20">
         <v>43958</v>
       </c>
-      <c r="B10" s="43">
-        <f>I10-I11</f>
+      <c r="B10" s="27">
+        <f>J10-J11</f>
         <v>13072</v>
       </c>
-      <c r="C10" s="36">
-        <f>J10-J11</f>
-        <v>657300</v>
-      </c>
-      <c r="D10" s="36">
-        <f>K10-K11</f>
+      <c r="C10" s="28">
+        <f>B7*100</f>
+        <v>724600</v>
+      </c>
+      <c r="D10" s="28">
+        <f>L10-L11</f>
         <v>197600</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="33">
         <f>C10/D10</f>
-        <v>3.32641700404858</v>
-      </c>
-      <c r="F10" s="45">
+        <v>3.667004048583</v>
+      </c>
+      <c r="F10" s="28">
+        <v>10</v>
+      </c>
+      <c r="G10" s="34">
         <f>(C10/C13)^(1/3)</f>
-        <v>0.867393117289844</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47">
+        <v>0.821458126164389</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="36">
         <v>43958</v>
       </c>
-      <c r="I10" s="48">
+      <c r="J10" s="32">
         <v>76928</v>
       </c>
-      <c r="J10" s="36">
-        <f>I6*100</f>
-        <v>11017300</v>
-      </c>
-      <c r="K10" s="36">
+      <c r="K10" s="28">
+        <f>J7*100</f>
+        <v>10360000</v>
+      </c>
+      <c r="L10" s="28">
         <v>1292623</v>
       </c>
-      <c r="L10" s="44">
-        <f>J10/K10</f>
-        <v>8.52321210438001</v>
+      <c r="M10" s="33">
+        <f>K10/L10</f>
+        <v>8.01471117255379</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="34">
+      <c r="A11" s="20">
         <v>43951</v>
       </c>
-      <c r="B11" s="43">
-        <f>I11-I12</f>
+      <c r="B11" s="27">
+        <f>J11-J12</f>
         <v>13620</v>
       </c>
-      <c r="C11" s="36">
-        <f>J11-J12</f>
-        <v>724600</v>
-      </c>
-      <c r="D11" s="36">
-        <f>K11-K12</f>
+      <c r="C11" s="28">
+        <f>B8*100</f>
+        <v>935400</v>
+      </c>
+      <c r="D11" s="28">
+        <f>L11-L12</f>
         <v>208581</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="33">
         <f>C11/D11</f>
-        <v>3.47395016804023</v>
-      </c>
-      <c r="F11" s="45">
+        <v>4.48458872092856</v>
+      </c>
+      <c r="F11" s="28">
+        <v>8</v>
+      </c>
+      <c r="G11" s="34">
         <f>(C11/C14)^(1/3)</f>
-        <v>0.821458126164389</v>
-      </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47">
+        <v>0.882280646327855</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="36">
         <v>43951</v>
       </c>
-      <c r="I11" s="48">
+      <c r="J11" s="32">
         <v>63856</v>
       </c>
-      <c r="J11" s="36">
-        <f>I7*100</f>
-        <v>10360000</v>
-      </c>
-      <c r="K11" s="36">
+      <c r="K11" s="28">
+        <f>J8*100</f>
+        <v>9635400</v>
+      </c>
+      <c r="L11" s="28">
         <v>1095023</v>
       </c>
-      <c r="L11" s="44">
-        <f>J11/K11</f>
-        <v>9.46098849065271</v>
+      <c r="M11" s="33">
+        <f>K11/L11</f>
+        <v>8.799267230003389</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="34">
+      <c r="A12" s="20">
         <v>43944</v>
       </c>
-      <c r="B12" s="43">
-        <f>I12-I13</f>
+      <c r="B12" s="27">
+        <f>J12-J13</f>
         <v>15619</v>
       </c>
-      <c r="C12" s="36">
-        <f>J12-J13</f>
-        <v>935400</v>
-      </c>
-      <c r="D12" s="36">
-        <f>K12-K13</f>
+      <c r="C12" s="28">
+        <f>B9*100</f>
+        <v>1007200</v>
+      </c>
+      <c r="D12" s="28">
+        <f>L12-L13</f>
         <v>246778</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="33">
         <f>C12/D12</f>
-        <v>3.79045133682905</v>
-      </c>
-      <c r="F12" s="45">
+        <v>4.08140109734255</v>
+      </c>
+      <c r="F12" s="28">
+        <v>6</v>
+      </c>
+      <c r="G12" s="34">
         <f>(C12/C15)^(1/3)</f>
-        <v>0.882280646327855</v>
-      </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47">
+        <v>0.863947788733022</v>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="36">
         <v>43944</v>
       </c>
-      <c r="I12" s="48">
+      <c r="J12" s="32">
         <v>50236</v>
       </c>
-      <c r="J12" s="36">
-        <f>I8*100</f>
-        <v>9635400</v>
-      </c>
-      <c r="K12" s="36">
+      <c r="K12" s="28">
+        <f>J9*100</f>
+        <v>8700000</v>
+      </c>
+      <c r="L12" s="28">
         <v>886442</v>
       </c>
-      <c r="L12" s="44">
-        <f>J12/K12</f>
-        <v>10.8697466952153</v>
+      <c r="M12" s="33">
+        <f>K12/L12</f>
+        <v>9.81451691142793</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="34">
+      <c r="A13" s="20">
         <v>43937</v>
       </c>
-      <c r="B13" s="43">
-        <f>I13-I14</f>
+      <c r="B13" s="27">
+        <f>J13-J14</f>
         <v>17905</v>
       </c>
-      <c r="C13" s="36">
-        <f>J13-J14</f>
-        <v>1007200</v>
-      </c>
-      <c r="D13" s="36">
-        <f>K13-K14</f>
+      <c r="C13" s="28">
+        <f>B10*100</f>
+        <v>1307200</v>
+      </c>
+      <c r="D13" s="28">
+        <f>L13-L14</f>
         <v>207532</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="33">
         <f>C13/D13</f>
-        <v>4.85322745407937</v>
-      </c>
-      <c r="F13" s="45">
+        <v>6.29878765684328</v>
+      </c>
+      <c r="F13" s="28">
+        <v>5</v>
+      </c>
+      <c r="G13" s="34">
         <f>(C13/C16)^(1/3)</f>
-        <v>0.863947788733022</v>
-      </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47">
+        <v>0.90044233315585</v>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="36">
         <v>43937</v>
       </c>
-      <c r="I13" s="48">
+      <c r="J13" s="32">
         <v>34617</v>
       </c>
-      <c r="J13" s="36">
-        <f>I9*100</f>
-        <v>8700000</v>
-      </c>
-      <c r="K13" s="36">
+      <c r="K13" s="28">
+        <f>J10*100</f>
+        <v>7692800</v>
+      </c>
+      <c r="L13" s="28">
         <v>639664</v>
       </c>
-      <c r="L13" s="44">
-        <f>J13/K13</f>
-        <v>13.6008904674954</v>
+      <c r="M13" s="33">
+        <f>K13/L13</f>
+        <v>12.0263138147527</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="34">
+      <c r="A14" s="20">
         <f>$A13-7</f>
         <v>43930</v>
       </c>
-      <c r="B14" s="43">
-        <f>I14-I15</f>
+      <c r="B14" s="27">
+        <f>J14-J15</f>
         <v>10624</v>
       </c>
-      <c r="C14" s="36">
-        <f>J14-J15</f>
-        <v>1307200</v>
-      </c>
-      <c r="D14" s="36">
-        <f>K14-K15</f>
+      <c r="C14" s="28">
+        <f>B11*100</f>
+        <v>1362000</v>
+      </c>
+      <c r="D14" s="28">
+        <f>L14-L15</f>
         <v>215411</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="33">
         <f>C14/D14</f>
-        <v>6.06839947820678</v>
-      </c>
-      <c r="F14" s="45">
+        <v>6.3227968859529</v>
+      </c>
+      <c r="F14" s="28">
+        <v>5</v>
+      </c>
+      <c r="G14" s="34">
         <f>(C14/C17)^(1/3)</f>
-        <v>0.90044233315585</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47">
+        <v>1.08633310680582</v>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="36">
         <f>$A13-7</f>
         <v>43930</v>
       </c>
-      <c r="I14" s="48">
+      <c r="J14" s="32">
         <v>16712</v>
       </c>
-      <c r="J14" s="36">
-        <f>I10*100</f>
-        <v>7692800</v>
-      </c>
-      <c r="K14" s="36">
+      <c r="K14" s="28">
+        <f>J11*100</f>
+        <v>6385600</v>
+      </c>
+      <c r="L14" s="28">
         <v>432132</v>
       </c>
-      <c r="L14" s="44">
-        <f>J14/K14</f>
-        <v>17.8019679172105</v>
+      <c r="M14" s="33">
+        <f>K14/L14</f>
+        <v>14.7769662973351</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="34">
+      <c r="A15" s="20">
         <f>$A14-7</f>
         <v>43923</v>
       </c>
-      <c r="B15" s="43">
-        <f>I15-I16</f>
+      <c r="B15" s="27">
+        <f>J15-J16</f>
         <v>4792</v>
       </c>
-      <c r="C15" s="36">
-        <f>J15-J16</f>
-        <v>1362000</v>
-      </c>
-      <c r="D15" s="36">
-        <f>K15-K16</f>
+      <c r="C15" s="28">
+        <f>B12*100</f>
+        <v>1561900</v>
+      </c>
+      <c r="D15" s="28">
+        <f>L15-L16</f>
         <v>147527</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="33">
         <f>C15/D15</f>
-        <v>9.23220834152392</v>
-      </c>
-      <c r="F15" s="45">
+        <v>10.5872145437784</v>
+      </c>
+      <c r="F15" s="28">
+        <v>5</v>
+      </c>
+      <c r="G15" s="34">
         <f>(C15/C18)^(1/3)</f>
-        <v>1.08633310680582</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47">
+        <v>1.48267331704548</v>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="36">
         <f>$A14-7</f>
         <v>43923</v>
       </c>
-      <c r="I15" s="48">
+      <c r="J15" s="32">
         <v>6088</v>
       </c>
-      <c r="J15" s="36">
-        <f>I11*100</f>
-        <v>6385600</v>
-      </c>
-      <c r="K15" s="36">
+      <c r="K15" s="28">
+        <f>J12*100</f>
+        <v>5023600</v>
+      </c>
+      <c r="L15" s="28">
         <v>216721</v>
       </c>
-      <c r="L15" s="44">
-        <f>J15/K15</f>
-        <v>29.4646111821189</v>
+      <c r="M15" s="33">
+        <f>K15/L15</f>
+        <v>23.1800333147226</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="34">
+      <c r="A16" s="20">
         <f>$A15-7</f>
         <v>43916</v>
       </c>
-      <c r="B16" s="43">
-        <f>I16-I17</f>
+      <c r="B16" s="27">
+        <f>J16-J17</f>
         <v>1090</v>
       </c>
-      <c r="C16" s="36">
-        <f>J16-J17</f>
-        <v>1561900</v>
-      </c>
-      <c r="D16" s="36">
-        <f>K16-K17</f>
+      <c r="C16" s="28">
+        <f>B13*100</f>
+        <v>1790500</v>
+      </c>
+      <c r="D16" s="28">
+        <f>L16-L17</f>
         <v>59779</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="33">
         <f>C16/D16</f>
-        <v>26.1279044480503</v>
-      </c>
-      <c r="F16" s="45">
+        <v>29.9519898292042</v>
+      </c>
+      <c r="F16" s="28">
+        <v>7</v>
+      </c>
+      <c r="G16" s="34">
         <f>(C16/C19)^(1/3)</f>
-        <v>1.48267331704548</v>
-      </c>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47">
+        <v>2.54204134080383</v>
+      </c>
+      <c r="H16" s="37"/>
+      <c r="I16" s="36">
         <f>$A15-7</f>
         <v>43916</v>
       </c>
-      <c r="I16" s="48">
+      <c r="J16" s="32">
         <v>1296</v>
       </c>
-      <c r="J16" s="36">
-        <f>I12*100</f>
-        <v>5023600</v>
-      </c>
-      <c r="K16" s="36">
+      <c r="K16" s="28">
+        <f>J13*100</f>
+        <v>3461700</v>
+      </c>
+      <c r="L16" s="28">
         <v>69194</v>
       </c>
-      <c r="L16" s="44">
-        <f>J16/K16</f>
-        <v>72.6016706650866</v>
+      <c r="M16" s="33">
+        <f>K16/L16</f>
+        <v>50.028904240252</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="34">
+      <c r="A17" s="20">
         <f>$A16-7</f>
         <v>43909</v>
       </c>
-      <c r="B17" s="43">
-        <f>I17-I18</f>
+      <c r="B17" s="27">
+        <f>J17-J18</f>
         <v>165</v>
       </c>
-      <c r="C17" s="36">
-        <f>J17-J18</f>
-        <v>1790500</v>
-      </c>
-      <c r="D17" s="36">
-        <f>K17-K18</f>
+      <c r="C17" s="28">
+        <f>B14*100</f>
+        <v>1062400</v>
+      </c>
+      <c r="D17" s="28">
+        <f>L17-L18</f>
         <v>8103</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="33">
         <f>C17/D17</f>
-        <v>220.967542885351</v>
-      </c>
-      <c r="F17" s="45">
+        <v>131.111933851660</v>
+      </c>
+      <c r="F17" s="28">
+        <v>12</v>
+      </c>
+      <c r="G17" s="34">
         <f>(C17/C20)^(1/3)</f>
-        <v>2.54204134080383</v>
-      </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47">
+        <v>4.00806453796077</v>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="36">
         <f>$A16-7</f>
         <v>43909</v>
       </c>
-      <c r="I17" s="48">
+      <c r="J17" s="32">
         <v>206</v>
       </c>
-      <c r="J17" s="36">
-        <f>I13*100</f>
-        <v>3461700</v>
-      </c>
-      <c r="K17" s="36">
+      <c r="K17" s="28">
+        <f>J14*100</f>
+        <v>1671200</v>
+      </c>
+      <c r="L17" s="28">
         <v>9415</v>
       </c>
-      <c r="L17" s="44">
-        <f>J17/K17</f>
-        <v>367.679235262878</v>
+      <c r="M17" s="33">
+        <f>K17/L17</f>
+        <v>177.503983005842</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="34">
+      <c r="A18" s="20">
         <f>$A17-7</f>
         <v>43902</v>
       </c>
-      <c r="B18" s="43">
-        <f>I18-I19</f>
+      <c r="B18" s="27">
+        <f>J18-J19</f>
         <v>29</v>
       </c>
-      <c r="C18" s="36">
-        <f>J18-J19</f>
-        <v>1062400</v>
-      </c>
-      <c r="D18" s="36">
-        <f>K18-K19</f>
+      <c r="C18" s="28">
+        <f>B15*100</f>
+        <v>479200</v>
+      </c>
+      <c r="D18" s="28">
+        <f>L18-L19</f>
         <v>1153</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="33">
         <f>C18/D18</f>
-        <v>921.422376409367</v>
-      </c>
-      <c r="F18" s="45">
+        <v>415.611448395490</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="34">
         <f>(C18/C21)^(1/3)</f>
-        <v>4.00806453796077</v>
-      </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47">
+        <v>5.48747983275193</v>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="36">
         <f>$A17-7</f>
         <v>43902</v>
       </c>
-      <c r="I18" s="48">
+      <c r="J18" s="32">
         <v>41</v>
       </c>
-      <c r="J18" s="36">
-        <f>I14*100</f>
-        <v>1671200</v>
-      </c>
-      <c r="K18" s="36">
+      <c r="K18" s="28">
+        <f>J15*100</f>
+        <v>608800</v>
+      </c>
+      <c r="L18" s="28">
         <v>1312</v>
       </c>
-      <c r="L18" s="44">
-        <f>J18/K18</f>
-        <v>1273.780487804880</v>
+      <c r="M18" s="33">
+        <f>K18/L18</f>
+        <v>464.024390243902</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="34">
+      <c r="A19" s="20">
         <f>$A18-7</f>
         <v>43895</v>
       </c>
-      <c r="B19" s="43">
-        <f>I19-I20</f>
+      <c r="B19" s="27">
+        <f>J19-J20</f>
         <v>11</v>
       </c>
-      <c r="C19" s="36">
-        <f>J19-J20</f>
-        <v>479200</v>
-      </c>
-      <c r="D19" s="36">
-        <f>K19-K20</f>
+      <c r="C19" s="28">
+        <f>B16*100</f>
+        <v>109000</v>
+      </c>
+      <c r="D19" s="28">
+        <f>L19-L20</f>
         <v>100</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="33">
         <f>C19/D19</f>
-        <v>4792</v>
-      </c>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47">
+        <v>1090</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="36">
         <f>$A18-7</f>
         <v>43895</v>
       </c>
-      <c r="I19" s="48">
+      <c r="J19" s="32">
         <v>12</v>
       </c>
-      <c r="J19" s="36">
-        <f>I15*100</f>
-        <v>608800</v>
-      </c>
-      <c r="K19" s="36">
+      <c r="K19" s="28">
+        <f>J16*100</f>
+        <v>129600</v>
+      </c>
+      <c r="L19" s="28">
         <v>159</v>
       </c>
-      <c r="L19" s="44">
-        <f>J19/K19</f>
-        <v>3828.930817610060</v>
+      <c r="M19" s="33">
+        <f>K19/L19</f>
+        <v>815.094339622642</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="34">
+      <c r="A20" s="20">
         <f>$A19-7</f>
         <v>43888</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="36">
-        <f>J20-J21</f>
-        <v>109000</v>
-      </c>
-      <c r="D20" s="36">
-        <f>K20-K21</f>
+      <c r="B20" s="27"/>
+      <c r="C20" s="28">
+        <f>B17*100</f>
+        <v>16500</v>
+      </c>
+      <c r="D20" s="28">
+        <f>L20-L21</f>
         <v>44</v>
       </c>
-      <c r="E20" s="44">
+      <c r="E20" s="33">
         <f>C20/D20</f>
-        <v>2477.272727272730</v>
-      </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47">
+        <v>375</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="36">
         <f>$A19-7</f>
         <v>43888</v>
       </c>
-      <c r="I20" s="48">
+      <c r="J20" s="32">
         <v>1</v>
       </c>
-      <c r="J20" s="36">
-        <f>I16*100</f>
-        <v>129600</v>
-      </c>
-      <c r="K20" s="36">
+      <c r="K20" s="28">
+        <f>J17*100</f>
+        <v>20600</v>
+      </c>
+      <c r="L20" s="28">
         <v>59</v>
       </c>
-      <c r="L20" s="44">
-        <f>J20/K20</f>
-        <v>2196.610169491530</v>
+      <c r="M20" s="33">
+        <f>K20/L20</f>
+        <v>349.152542372881</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="34">
+      <c r="A21" s="20">
         <f>$A20-7</f>
         <v>43881</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="36">
-        <f>J21-J22</f>
-        <v>16500</v>
-      </c>
-      <c r="D21" s="36">
-        <f>K21-K22</f>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28">
+        <f>B18*100</f>
+        <v>2900</v>
+      </c>
+      <c r="D21" s="28">
+        <f>L21-L22</f>
         <v>1</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="33">
         <f>C21/D21</f>
-        <v>16500</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47">
+        <v>2900</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="36">
         <f>$A20-7</f>
         <v>43881</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="36">
-        <f>I17*100</f>
-        <v>20600</v>
-      </c>
-      <c r="K21" s="36">
+      <c r="J21" s="32"/>
+      <c r="K21" s="28">
+        <f>J18*100</f>
+        <v>4100</v>
+      </c>
+      <c r="L21" s="28">
         <v>15</v>
       </c>
-      <c r="L21" s="44">
-        <f>J21/K21</f>
-        <v>1373.333333333330</v>
+      <c r="M21" s="33">
+        <f>K21/L21</f>
+        <v>273.333333333333</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="34">
+      <c r="A22" s="20">
         <f>$A21-7</f>
         <v>43874</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36">
-        <f>K22-K23</f>
+      <c r="B22" s="27"/>
+      <c r="C22" s="28">
+        <f>B19*100</f>
+        <v>1100</v>
+      </c>
+      <c r="D22" s="28">
+        <f>L22-L23</f>
         <v>2</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47">
+      <c r="E22" s="33"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="36">
         <f>$A21-7</f>
         <v>43874</v>
       </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="36">
-        <f>I18*100</f>
-        <v>4100</v>
-      </c>
-      <c r="K22" s="36">
+      <c r="J22" s="32"/>
+      <c r="K22" s="28">
+        <f>J19*100</f>
+        <v>1200</v>
+      </c>
+      <c r="L22" s="28">
         <v>14</v>
       </c>
-      <c r="L22" s="44">
-        <f>J22/K22</f>
-        <v>292.857142857143</v>
+      <c r="M22" s="33">
+        <f>K22/L22</f>
+        <v>85.71428571428569</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="34">
+      <c r="A23" s="20">
         <f>$A22-7</f>
         <v>43867</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36">
-        <f>K23-K24</f>
+      <c r="B23" s="27"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28">
+        <f>L23-L24</f>
         <v>7</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47">
+      <c r="E23" s="33"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="36">
         <f>$A22-7</f>
         <v>43867</v>
       </c>
-      <c r="I23" s="48"/>
-      <c r="J23" s="36">
-        <f>I19*100</f>
-        <v>1200</v>
-      </c>
-      <c r="K23" s="49">
+      <c r="J23" s="32"/>
+      <c r="K23" s="28">
+        <f>J20*100</f>
+        <v>100</v>
+      </c>
+      <c r="L23" s="38">
         <v>12</v>
       </c>
-      <c r="L23" s="44">
-        <f>J23/K23</f>
-        <v>100</v>
+      <c r="M23" s="33">
+        <f>K23/L23</f>
+        <v>8.33333333333333</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="34">
+      <c r="A24" s="20">
         <f>$A23-7</f>
         <v>43860</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36">
-        <f>K24-K25</f>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28">
+        <f>L24-L25</f>
         <v>4</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47">
+      <c r="E24" s="33"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="36">
         <f>$A23-7</f>
         <v>43860</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="36">
-        <f>I20*100</f>
-        <v>100</v>
-      </c>
-      <c r="K24" s="49">
+      <c r="J24" s="32"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="38">
         <v>5</v>
       </c>
-      <c r="L24" s="44">
-        <f>J24/K24</f>
-        <v>20</v>
+      <c r="M24" s="33">
+        <f>K24/L24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38">
         <v>1</v>
       </c>
-      <c r="L25" s="44">
-        <f>J25/K25</f>
+      <c r="M25" s="33">
+        <f>K25/L25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" t="s" s="54">
-        <v>11</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="55"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="44"/>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="55"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B26" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
-  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>Coronavirus Extrapolations</t>
   </si>
@@ -48,6 +48,17 @@
   <si>
     <t>Inferred Cases/Confirmed Cases</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="20"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.icloud.com/numbers/0padta9WRXNKrK-CmBCgoWKpA</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -59,7 +70,7 @@
     <numFmt numFmtId="60" formatCode="#,##0.0"/>
     <numFmt numFmtId="61" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -97,6 +108,12 @@
       <color indexed="17"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="20"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -130,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -231,7 +248,7 @@
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
@@ -315,6 +332,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -472,6 +504,21 @@
       </top>
       <bottom style="thin">
         <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,79 +601,79 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="6" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="6" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="60" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="4" fillId="5" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="4" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="5" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="61" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -635,19 +682,19 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,6 +725,7 @@
       <rgbColor rgb="ffd69500"/>
       <rgbColor rgb="fff0f0f0"/>
       <rgbColor rgb="ffd5d5d5"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1739,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1818,1027 +1866,1083 @@
     <row r="3" ht="20.7" customHeight="1">
       <c r="A3" s="10">
         <f>$A4+7</f>
-        <v>44007</v>
+        <v>44014</v>
       </c>
       <c r="B3" s="11">
         <f>J3-J4</f>
-        <v>6177</v>
+        <v>4923</v>
       </c>
       <c r="C3" s="12">
         <f>D3*E3</f>
-        <v>779520</v>
+        <v>1200280</v>
       </c>
       <c r="D3" s="13">
         <f>L3-L4</f>
-        <v>243600</v>
+        <v>324400</v>
       </c>
       <c r="E3" s="14">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="F3" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="15">
         <f>(C3/C6)^(1/3)</f>
-        <v>1.08064542781417</v>
+        <v>1.34591482846974</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17">
         <f>$A4+7</f>
-        <v>44007</v>
+        <v>44014</v>
       </c>
       <c r="J3" s="18">
-        <v>126977</v>
+        <v>131900</v>
       </c>
       <c r="K3" s="19">
         <f>K4+C3</f>
-        <v>14491067</v>
+        <v>15686697</v>
       </c>
       <c r="L3" s="13">
-        <v>2505600</v>
+        <v>2830000</v>
       </c>
       <c r="M3" s="14">
         <f>K3/L3</f>
-        <v>5.78347182311622</v>
+        <v>5.54300247349823</v>
       </c>
     </row>
     <row r="4" ht="20.7" customHeight="1">
       <c r="A4" s="20">
         <f>$A5+7</f>
-        <v>44000</v>
-      </c>
-      <c r="B4" s="21">
+        <v>44007</v>
+      </c>
+      <c r="B4" s="11">
         <f>J4-J5</f>
-        <v>4766</v>
+        <v>6177</v>
       </c>
       <c r="C4" s="12">
         <f>D4*E4</f>
-        <v>516897</v>
-      </c>
-      <c r="D4" s="22">
+        <v>779520</v>
+      </c>
+      <c r="D4" s="13">
         <f>L4-L5</f>
-        <v>172299</v>
-      </c>
-      <c r="E4" s="23">
-        <v>3</v>
-      </c>
-      <c r="F4" s="22">
-        <v>21</v>
-      </c>
-      <c r="G4" s="24">
+        <v>243600</v>
+      </c>
+      <c r="E4" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="F4" s="13">
+        <v>17</v>
+      </c>
+      <c r="G4" s="15">
         <f>(C4/C7)^(1/3)</f>
-        <v>1.02742467383361</v>
-      </c>
-      <c r="H4" s="25"/>
+        <v>1.08064542781417</v>
+      </c>
+      <c r="H4" s="16"/>
       <c r="I4" s="17">
         <f>$A5+7</f>
-        <v>44000</v>
-      </c>
-      <c r="J4" s="26">
-        <v>120800</v>
-      </c>
-      <c r="K4" s="12">
+        <v>44007</v>
+      </c>
+      <c r="J4" s="18">
+        <v>126977</v>
+      </c>
+      <c r="K4" s="21">
         <f>K5+C4</f>
-        <v>13711547</v>
-      </c>
-      <c r="L4" s="22">
-        <v>2262000</v>
-      </c>
-      <c r="M4" s="23">
+        <v>14486417</v>
+      </c>
+      <c r="L4" s="13">
+        <v>2505600</v>
+      </c>
+      <c r="M4" s="14">
         <f>K4/L4</f>
-        <v>6.06169186560566</v>
+        <v>5.78161598020434</v>
       </c>
     </row>
     <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" s="20">
+      <c r="A5" s="22">
         <f>$A6+7</f>
-        <v>43993</v>
-      </c>
-      <c r="B5" s="27">
+        <v>44000</v>
+      </c>
+      <c r="B5" s="23">
         <f>J5-J6</f>
-        <v>5861</v>
+        <v>4766</v>
       </c>
       <c r="C5" s="12">
         <f>D5*E5</f>
-        <v>496950</v>
-      </c>
-      <c r="D5" s="28">
+        <v>516897</v>
+      </c>
+      <c r="D5" s="24">
         <f>L5-L6</f>
-        <v>165650</v>
-      </c>
-      <c r="E5" s="29">
+        <v>172299</v>
+      </c>
+      <c r="E5" s="25">
         <v>3</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="24">
         <v>21</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="26">
         <f>(C5/C8)^(1/3)</f>
-        <v>0.9464848305439471</v>
-      </c>
-      <c r="H5" s="31"/>
+        <v>1.02742467383361</v>
+      </c>
+      <c r="H5" s="27"/>
       <c r="I5" s="17">
         <f>$A6+7</f>
-        <v>43993</v>
-      </c>
-      <c r="J5" s="32">
-        <v>116034</v>
+        <v>44000</v>
+      </c>
+      <c r="J5" s="28">
+        <v>120800</v>
       </c>
       <c r="K5" s="12">
         <f>K6+C5</f>
-        <v>13194650</v>
-      </c>
-      <c r="L5" s="28">
-        <v>2089701</v>
-      </c>
-      <c r="M5" s="29">
+        <v>13706897</v>
+      </c>
+      <c r="L5" s="24">
+        <v>2262000</v>
+      </c>
+      <c r="M5" s="25">
         <f>K5/L5</f>
-        <v>6.31413297883286</v>
+        <v>6.05963616268789</v>
       </c>
     </row>
     <row r="6" ht="20.7" customHeight="1">
-      <c r="A6" s="20">
+      <c r="A6" s="22">
         <f>$A7+7</f>
+        <v>43993</v>
+      </c>
+      <c r="B6" s="29">
+        <f>J6-J7</f>
+        <v>5861</v>
+      </c>
+      <c r="C6" s="30">
+        <f>B3*100</f>
+        <v>492300</v>
+      </c>
+      <c r="D6" s="30">
+        <f>L6-L7</f>
+        <v>165650</v>
+      </c>
+      <c r="E6" s="31">
+        <f>C6/D6</f>
+        <v>2.97192876546936</v>
+      </c>
+      <c r="F6" s="30">
+        <v>21</v>
+      </c>
+      <c r="G6" s="32">
+        <f>(C6/C9)^(1/3)</f>
+        <v>0.9435234638166</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="17">
+        <f>$A7+7</f>
+        <v>43993</v>
+      </c>
+      <c r="J6" s="34">
+        <v>116034</v>
+      </c>
+      <c r="K6" s="30">
+        <f>J3*100</f>
+        <v>13190000</v>
+      </c>
+      <c r="L6" s="30">
+        <v>2089701</v>
+      </c>
+      <c r="M6" s="31">
+        <f>K6/L6</f>
+        <v>6.31190778010825</v>
+      </c>
+    </row>
+    <row r="7" ht="20.7" customHeight="1">
+      <c r="A7" s="22">
+        <f>$A8+7</f>
         <v>43986</v>
       </c>
-      <c r="B6" s="27">
-        <f>J6-J7</f>
+      <c r="B7" s="29">
+        <f>J7-J8</f>
         <v>6573</v>
       </c>
-      <c r="C6" s="28">
-        <f>B3*100</f>
+      <c r="C7" s="30">
+        <f>B4*100</f>
         <v>617700</v>
       </c>
-      <c r="D6" s="28">
-        <f>L6-L7</f>
+      <c r="D7" s="30">
+        <f>L7-L8</f>
         <v>159051</v>
       </c>
-      <c r="E6" s="33">
-        <f>C6/D6</f>
+      <c r="E7" s="31">
+        <f>C7/D7</f>
         <v>3.88365995812664</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F7" s="30">
         <v>20</v>
       </c>
-      <c r="G6" s="34">
-        <f>(C6/C9)^(1/3)</f>
+      <c r="G7" s="32">
+        <f>(C7/C10)^(1/3)</f>
         <v>0.979500487211567</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="35">
-        <f>$A7+7</f>
+      <c r="H7" s="33"/>
+      <c r="I7" s="35">
+        <f>$A8+7</f>
         <v>43986</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J7" s="34">
         <v>110173</v>
       </c>
-      <c r="K6" s="28">
-        <f>J3*100</f>
+      <c r="K7" s="30">
+        <f>J4*100</f>
         <v>12697700</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L7" s="30">
         <v>1924051</v>
       </c>
-      <c r="M6" s="33">
-        <f>K6/L6</f>
+      <c r="M7" s="31">
+        <f>K7/L7</f>
         <v>6.59946124089226</v>
       </c>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="20">
-        <f>$A8+7</f>
+    <row r="8" ht="20.35" customHeight="1">
+      <c r="A8" s="22">
+        <f>$A9+7</f>
         <v>43979</v>
       </c>
-      <c r="B7" s="27">
-        <f>J7-J8</f>
+      <c r="B8" s="29">
+        <f>J8-J9</f>
         <v>7246</v>
       </c>
-      <c r="C7" s="28">
-        <f>B4*100</f>
+      <c r="C8" s="30">
+        <f>B5*100</f>
         <v>476600</v>
       </c>
-      <c r="D7" s="28">
-        <f>L7-L8</f>
+      <c r="D8" s="30">
+        <f>L8-L9</f>
         <v>144103</v>
       </c>
-      <c r="E7" s="33">
-        <f>C7/D7</f>
+      <c r="E8" s="31">
+        <f>C8/D8</f>
         <v>3.30735654358341</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F8" s="30">
         <v>18</v>
       </c>
-      <c r="G7" s="34">
-        <f>(C7/C10)^(1/3)</f>
+      <c r="G8" s="32">
+        <f>(C8/C11)^(1/3)</f>
         <v>0.86966482116181</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="36">
-        <f>$A8+7</f>
-        <v>43979</v>
-      </c>
-      <c r="J7" s="32">
-        <v>103600</v>
-      </c>
-      <c r="K7" s="28">
-        <f>J4*100</f>
-        <v>12080000</v>
-      </c>
-      <c r="L7" s="28">
-        <v>1765000</v>
-      </c>
-      <c r="M7" s="33">
-        <f>K7/L7</f>
-        <v>6.84419263456091</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="20">
-        <f>$A9+7</f>
-        <v>43972</v>
-      </c>
-      <c r="B8" s="27">
-        <f>J8-J9</f>
-        <v>9354</v>
-      </c>
-      <c r="C8" s="28">
-        <f>B5*100</f>
-        <v>586100</v>
-      </c>
-      <c r="D8" s="28">
-        <f>L8-L9</f>
-        <v>180897</v>
-      </c>
-      <c r="E8" s="33">
-        <f>C8/D8</f>
-        <v>3.23996528411195</v>
-      </c>
-      <c r="F8" s="28">
-        <v>17</v>
-      </c>
-      <c r="G8" s="34">
-        <f>(C8/C11)^(1/3)</f>
-        <v>0.855706410034197</v>
-      </c>
-      <c r="H8" s="37"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="36">
         <f>$A9+7</f>
-        <v>43972</v>
-      </c>
-      <c r="J8" s="32">
-        <v>96354</v>
-      </c>
-      <c r="K8" s="28">
+        <v>43979</v>
+      </c>
+      <c r="J8" s="34">
+        <v>103600</v>
+      </c>
+      <c r="K8" s="30">
         <f>J5*100</f>
-        <v>11603400</v>
-      </c>
-      <c r="L8" s="28">
-        <v>1620897</v>
-      </c>
-      <c r="M8" s="33">
+        <v>12080000</v>
+      </c>
+      <c r="L8" s="30">
+        <v>1765000</v>
+      </c>
+      <c r="M8" s="31">
         <f>K8/L8</f>
-        <v>7.15862883329416</v>
+        <v>6.84419263456091</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="20">
-        <v>43965</v>
-      </c>
-      <c r="B9" s="27">
+      <c r="A9" s="22">
+        <f>$A10+7</f>
+        <v>43972</v>
+      </c>
+      <c r="B9" s="29">
         <f>J9-J10</f>
-        <v>10072</v>
-      </c>
-      <c r="C9" s="28">
+        <v>9354</v>
+      </c>
+      <c r="C9" s="30">
         <f>B6*100</f>
-        <v>657300</v>
-      </c>
-      <c r="D9" s="28">
+        <v>586100</v>
+      </c>
+      <c r="D9" s="30">
         <f>L9-L10</f>
-        <v>147377</v>
-      </c>
-      <c r="E9" s="33">
+        <v>180897</v>
+      </c>
+      <c r="E9" s="31">
         <f>C9/D9</f>
-        <v>4.45999036484662</v>
-      </c>
-      <c r="F9" s="28">
-        <v>14</v>
-      </c>
-      <c r="G9" s="34">
+        <v>3.23996528411195</v>
+      </c>
+      <c r="F9" s="30">
+        <v>17</v>
+      </c>
+      <c r="G9" s="32">
         <f>(C9/C12)^(1/3)</f>
-        <v>0.867393117289844</v>
+        <v>0.855706410034197</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="36">
-        <v>43965</v>
-      </c>
-      <c r="J9" s="32">
-        <v>87000</v>
-      </c>
-      <c r="K9" s="28">
+        <f>$A10+7</f>
+        <v>43972</v>
+      </c>
+      <c r="J9" s="34">
+        <v>96354</v>
+      </c>
+      <c r="K9" s="30">
         <f>J6*100</f>
-        <v>11017300</v>
-      </c>
-      <c r="L9" s="28">
-        <v>1440000</v>
-      </c>
-      <c r="M9" s="33">
+        <v>11603400</v>
+      </c>
+      <c r="L9" s="30">
+        <v>1620897</v>
+      </c>
+      <c r="M9" s="31">
         <f>K9/L9</f>
-        <v>7.65090277777778</v>
+        <v>7.15862883329416</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="20">
-        <v>43958</v>
-      </c>
-      <c r="B10" s="27">
+      <c r="A10" s="22">
+        <v>43965</v>
+      </c>
+      <c r="B10" s="29">
         <f>J10-J11</f>
-        <v>13072</v>
-      </c>
-      <c r="C10" s="28">
+        <v>10072</v>
+      </c>
+      <c r="C10" s="30">
         <f>B7*100</f>
-        <v>724600</v>
-      </c>
-      <c r="D10" s="28">
+        <v>657300</v>
+      </c>
+      <c r="D10" s="30">
         <f>L10-L11</f>
-        <v>197600</v>
-      </c>
-      <c r="E10" s="33">
+        <v>147377</v>
+      </c>
+      <c r="E10" s="31">
         <f>C10/D10</f>
-        <v>3.667004048583</v>
-      </c>
-      <c r="F10" s="28">
-        <v>10</v>
-      </c>
-      <c r="G10" s="34">
+        <v>4.45999036484662</v>
+      </c>
+      <c r="F10" s="30">
+        <v>14</v>
+      </c>
+      <c r="G10" s="32">
         <f>(C10/C13)^(1/3)</f>
-        <v>0.821458126164389</v>
+        <v>0.867393117289844</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="36">
-        <v>43958</v>
-      </c>
-      <c r="J10" s="32">
-        <v>76928</v>
-      </c>
-      <c r="K10" s="28">
+        <v>43965</v>
+      </c>
+      <c r="J10" s="34">
+        <v>87000</v>
+      </c>
+      <c r="K10" s="30">
         <f>J7*100</f>
-        <v>10360000</v>
-      </c>
-      <c r="L10" s="28">
-        <v>1292623</v>
-      </c>
-      <c r="M10" s="33">
+        <v>11017300</v>
+      </c>
+      <c r="L10" s="30">
+        <v>1440000</v>
+      </c>
+      <c r="M10" s="31">
         <f>K10/L10</f>
-        <v>8.01471117255379</v>
+        <v>7.65090277777778</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="20">
-        <v>43951</v>
-      </c>
-      <c r="B11" s="27">
+      <c r="A11" s="22">
+        <v>43958</v>
+      </c>
+      <c r="B11" s="29">
         <f>J11-J12</f>
-        <v>13620</v>
-      </c>
-      <c r="C11" s="28">
+        <v>13072</v>
+      </c>
+      <c r="C11" s="30">
         <f>B8*100</f>
-        <v>935400</v>
-      </c>
-      <c r="D11" s="28">
+        <v>724600</v>
+      </c>
+      <c r="D11" s="30">
         <f>L11-L12</f>
-        <v>208581</v>
-      </c>
-      <c r="E11" s="33">
+        <v>197600</v>
+      </c>
+      <c r="E11" s="31">
         <f>C11/D11</f>
-        <v>4.48458872092856</v>
-      </c>
-      <c r="F11" s="28">
-        <v>8</v>
-      </c>
-      <c r="G11" s="34">
+        <v>3.667004048583</v>
+      </c>
+      <c r="F11" s="30">
+        <v>10</v>
+      </c>
+      <c r="G11" s="32">
         <f>(C11/C14)^(1/3)</f>
-        <v>0.882280646327855</v>
+        <v>0.821458126164389</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="36">
-        <v>43951</v>
-      </c>
-      <c r="J11" s="32">
-        <v>63856</v>
-      </c>
-      <c r="K11" s="28">
+        <v>43958</v>
+      </c>
+      <c r="J11" s="34">
+        <v>76928</v>
+      </c>
+      <c r="K11" s="30">
         <f>J8*100</f>
-        <v>9635400</v>
-      </c>
-      <c r="L11" s="28">
-        <v>1095023</v>
-      </c>
-      <c r="M11" s="33">
+        <v>10360000</v>
+      </c>
+      <c r="L11" s="30">
+        <v>1292623</v>
+      </c>
+      <c r="M11" s="31">
         <f>K11/L11</f>
-        <v>8.799267230003389</v>
+        <v>8.01471117255379</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="20">
-        <v>43944</v>
-      </c>
-      <c r="B12" s="27">
+      <c r="A12" s="22">
+        <v>43951</v>
+      </c>
+      <c r="B12" s="29">
         <f>J12-J13</f>
-        <v>15619</v>
-      </c>
-      <c r="C12" s="28">
+        <v>13620</v>
+      </c>
+      <c r="C12" s="30">
         <f>B9*100</f>
-        <v>1007200</v>
-      </c>
-      <c r="D12" s="28">
+        <v>935400</v>
+      </c>
+      <c r="D12" s="30">
         <f>L12-L13</f>
-        <v>246778</v>
-      </c>
-      <c r="E12" s="33">
+        <v>208581</v>
+      </c>
+      <c r="E12" s="31">
         <f>C12/D12</f>
-        <v>4.08140109734255</v>
-      </c>
-      <c r="F12" s="28">
-        <v>6</v>
-      </c>
-      <c r="G12" s="34">
+        <v>4.48458872092856</v>
+      </c>
+      <c r="F12" s="30">
+        <v>8</v>
+      </c>
+      <c r="G12" s="32">
         <f>(C12/C15)^(1/3)</f>
-        <v>0.863947788733022</v>
+        <v>0.882280646327855</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="36">
-        <v>43944</v>
-      </c>
-      <c r="J12" s="32">
-        <v>50236</v>
-      </c>
-      <c r="K12" s="28">
+        <v>43951</v>
+      </c>
+      <c r="J12" s="34">
+        <v>63856</v>
+      </c>
+      <c r="K12" s="30">
         <f>J9*100</f>
-        <v>8700000</v>
-      </c>
-      <c r="L12" s="28">
-        <v>886442</v>
-      </c>
-      <c r="M12" s="33">
+        <v>9635400</v>
+      </c>
+      <c r="L12" s="30">
+        <v>1095023</v>
+      </c>
+      <c r="M12" s="31">
         <f>K12/L12</f>
-        <v>9.81451691142793</v>
+        <v>8.799267230003389</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="20">
-        <v>43937</v>
-      </c>
-      <c r="B13" s="27">
+      <c r="A13" s="22">
+        <v>43944</v>
+      </c>
+      <c r="B13" s="29">
         <f>J13-J14</f>
-        <v>17905</v>
-      </c>
-      <c r="C13" s="28">
+        <v>15619</v>
+      </c>
+      <c r="C13" s="30">
         <f>B10*100</f>
-        <v>1307200</v>
-      </c>
-      <c r="D13" s="28">
+        <v>1007200</v>
+      </c>
+      <c r="D13" s="30">
         <f>L13-L14</f>
-        <v>207532</v>
-      </c>
-      <c r="E13" s="33">
+        <v>246778</v>
+      </c>
+      <c r="E13" s="31">
         <f>C13/D13</f>
-        <v>6.29878765684328</v>
-      </c>
-      <c r="F13" s="28">
-        <v>5</v>
-      </c>
-      <c r="G13" s="34">
+        <v>4.08140109734255</v>
+      </c>
+      <c r="F13" s="30">
+        <v>6</v>
+      </c>
+      <c r="G13" s="32">
         <f>(C13/C16)^(1/3)</f>
-        <v>0.90044233315585</v>
+        <v>0.863947788733022</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="36">
-        <v>43937</v>
-      </c>
-      <c r="J13" s="32">
-        <v>34617</v>
-      </c>
-      <c r="K13" s="28">
+        <v>43944</v>
+      </c>
+      <c r="J13" s="34">
+        <v>50236</v>
+      </c>
+      <c r="K13" s="30">
         <f>J10*100</f>
-        <v>7692800</v>
-      </c>
-      <c r="L13" s="28">
-        <v>639664</v>
-      </c>
-      <c r="M13" s="33">
+        <v>8700000</v>
+      </c>
+      <c r="L13" s="30">
+        <v>886442</v>
+      </c>
+      <c r="M13" s="31">
         <f>K13/L13</f>
-        <v>12.0263138147527</v>
+        <v>9.81451691142793</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="20">
-        <f>$A13-7</f>
-        <v>43930</v>
-      </c>
-      <c r="B14" s="27">
+      <c r="A14" s="22">
+        <v>43937</v>
+      </c>
+      <c r="B14" s="29">
         <f>J14-J15</f>
-        <v>10624</v>
-      </c>
-      <c r="C14" s="28">
+        <v>17905</v>
+      </c>
+      <c r="C14" s="30">
         <f>B11*100</f>
-        <v>1362000</v>
-      </c>
-      <c r="D14" s="28">
+        <v>1307200</v>
+      </c>
+      <c r="D14" s="30">
         <f>L14-L15</f>
-        <v>215411</v>
-      </c>
-      <c r="E14" s="33">
+        <v>207532</v>
+      </c>
+      <c r="E14" s="31">
         <f>C14/D14</f>
-        <v>6.3227968859529</v>
-      </c>
-      <c r="F14" s="28">
+        <v>6.29878765684328</v>
+      </c>
+      <c r="F14" s="30">
         <v>5</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="32">
         <f>(C14/C17)^(1/3)</f>
-        <v>1.08633310680582</v>
+        <v>0.90044233315585</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="36">
-        <f>$A13-7</f>
-        <v>43930</v>
-      </c>
-      <c r="J14" s="32">
-        <v>16712</v>
-      </c>
-      <c r="K14" s="28">
+        <v>43937</v>
+      </c>
+      <c r="J14" s="34">
+        <v>34617</v>
+      </c>
+      <c r="K14" s="30">
         <f>J11*100</f>
-        <v>6385600</v>
-      </c>
-      <c r="L14" s="28">
-        <v>432132</v>
-      </c>
-      <c r="M14" s="33">
+        <v>7692800</v>
+      </c>
+      <c r="L14" s="30">
+        <v>639664</v>
+      </c>
+      <c r="M14" s="31">
         <f>K14/L14</f>
-        <v>14.7769662973351</v>
+        <v>12.0263138147527</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="20">
+      <c r="A15" s="22">
         <f>$A14-7</f>
-        <v>43923</v>
-      </c>
-      <c r="B15" s="27">
+        <v>43930</v>
+      </c>
+      <c r="B15" s="29">
         <f>J15-J16</f>
-        <v>4792</v>
-      </c>
-      <c r="C15" s="28">
+        <v>10624</v>
+      </c>
+      <c r="C15" s="30">
         <f>B12*100</f>
-        <v>1561900</v>
-      </c>
-      <c r="D15" s="28">
+        <v>1362000</v>
+      </c>
+      <c r="D15" s="30">
         <f>L15-L16</f>
-        <v>147527</v>
-      </c>
-      <c r="E15" s="33">
+        <v>215411</v>
+      </c>
+      <c r="E15" s="31">
         <f>C15/D15</f>
-        <v>10.5872145437784</v>
-      </c>
-      <c r="F15" s="28">
+        <v>6.3227968859529</v>
+      </c>
+      <c r="F15" s="30">
         <v>5</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="32">
         <f>(C15/C18)^(1/3)</f>
-        <v>1.48267331704548</v>
+        <v>1.08633310680582</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="36">
         <f>$A14-7</f>
-        <v>43923</v>
-      </c>
-      <c r="J15" s="32">
-        <v>6088</v>
-      </c>
-      <c r="K15" s="28">
+        <v>43930</v>
+      </c>
+      <c r="J15" s="34">
+        <v>16712</v>
+      </c>
+      <c r="K15" s="30">
         <f>J12*100</f>
-        <v>5023600</v>
-      </c>
-      <c r="L15" s="28">
-        <v>216721</v>
-      </c>
-      <c r="M15" s="33">
+        <v>6385600</v>
+      </c>
+      <c r="L15" s="30">
+        <v>432132</v>
+      </c>
+      <c r="M15" s="31">
         <f>K15/L15</f>
-        <v>23.1800333147226</v>
+        <v>14.7769662973351</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="20">
+      <c r="A16" s="22">
         <f>$A15-7</f>
-        <v>43916</v>
-      </c>
-      <c r="B16" s="27">
+        <v>43923</v>
+      </c>
+      <c r="B16" s="29">
         <f>J16-J17</f>
-        <v>1090</v>
-      </c>
-      <c r="C16" s="28">
+        <v>4792</v>
+      </c>
+      <c r="C16" s="30">
         <f>B13*100</f>
-        <v>1790500</v>
-      </c>
-      <c r="D16" s="28">
+        <v>1561900</v>
+      </c>
+      <c r="D16" s="30">
         <f>L16-L17</f>
-        <v>59779</v>
-      </c>
-      <c r="E16" s="33">
+        <v>147527</v>
+      </c>
+      <c r="E16" s="31">
         <f>C16/D16</f>
-        <v>29.9519898292042</v>
-      </c>
-      <c r="F16" s="28">
-        <v>7</v>
-      </c>
-      <c r="G16" s="34">
+        <v>10.5872145437784</v>
+      </c>
+      <c r="F16" s="30">
+        <v>5</v>
+      </c>
+      <c r="G16" s="32">
         <f>(C16/C19)^(1/3)</f>
-        <v>2.54204134080383</v>
+        <v>1.48267331704548</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="36">
         <f>$A15-7</f>
-        <v>43916</v>
-      </c>
-      <c r="J16" s="32">
-        <v>1296</v>
-      </c>
-      <c r="K16" s="28">
+        <v>43923</v>
+      </c>
+      <c r="J16" s="34">
+        <v>6088</v>
+      </c>
+      <c r="K16" s="30">
         <f>J13*100</f>
-        <v>3461700</v>
-      </c>
-      <c r="L16" s="28">
-        <v>69194</v>
-      </c>
-      <c r="M16" s="33">
+        <v>5023600</v>
+      </c>
+      <c r="L16" s="30">
+        <v>216721</v>
+      </c>
+      <c r="M16" s="31">
         <f>K16/L16</f>
-        <v>50.028904240252</v>
+        <v>23.1800333147226</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="20">
+      <c r="A17" s="22">
         <f>$A16-7</f>
-        <v>43909</v>
-      </c>
-      <c r="B17" s="27">
+        <v>43916</v>
+      </c>
+      <c r="B17" s="29">
         <f>J17-J18</f>
-        <v>165</v>
-      </c>
-      <c r="C17" s="28">
+        <v>1090</v>
+      </c>
+      <c r="C17" s="30">
         <f>B14*100</f>
-        <v>1062400</v>
-      </c>
-      <c r="D17" s="28">
+        <v>1790500</v>
+      </c>
+      <c r="D17" s="30">
         <f>L17-L18</f>
-        <v>8103</v>
-      </c>
-      <c r="E17" s="33">
+        <v>59779</v>
+      </c>
+      <c r="E17" s="31">
         <f>C17/D17</f>
-        <v>131.111933851660</v>
-      </c>
-      <c r="F17" s="28">
-        <v>12</v>
-      </c>
-      <c r="G17" s="34">
+        <v>29.9519898292042</v>
+      </c>
+      <c r="F17" s="30">
+        <v>7</v>
+      </c>
+      <c r="G17" s="32">
         <f>(C17/C20)^(1/3)</f>
-        <v>4.00806453796077</v>
+        <v>2.54204134080383</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="36">
         <f>$A16-7</f>
-        <v>43909</v>
-      </c>
-      <c r="J17" s="32">
-        <v>206</v>
-      </c>
-      <c r="K17" s="28">
+        <v>43916</v>
+      </c>
+      <c r="J17" s="34">
+        <v>1296</v>
+      </c>
+      <c r="K17" s="30">
         <f>J14*100</f>
-        <v>1671200</v>
-      </c>
-      <c r="L17" s="28">
-        <v>9415</v>
-      </c>
-      <c r="M17" s="33">
+        <v>3461700</v>
+      </c>
+      <c r="L17" s="30">
+        <v>69194</v>
+      </c>
+      <c r="M17" s="31">
         <f>K17/L17</f>
-        <v>177.503983005842</v>
+        <v>50.028904240252</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="20">
+      <c r="A18" s="22">
         <f>$A17-7</f>
-        <v>43902</v>
-      </c>
-      <c r="B18" s="27">
+        <v>43909</v>
+      </c>
+      <c r="B18" s="29">
         <f>J18-J19</f>
-        <v>29</v>
-      </c>
-      <c r="C18" s="28">
+        <v>165</v>
+      </c>
+      <c r="C18" s="30">
         <f>B15*100</f>
-        <v>479200</v>
-      </c>
-      <c r="D18" s="28">
+        <v>1062400</v>
+      </c>
+      <c r="D18" s="30">
         <f>L18-L19</f>
-        <v>1153</v>
-      </c>
-      <c r="E18" s="33">
+        <v>8103</v>
+      </c>
+      <c r="E18" s="31">
         <f>C18/D18</f>
-        <v>415.611448395490</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="34">
+        <v>131.111933851660</v>
+      </c>
+      <c r="F18" s="30">
+        <v>12</v>
+      </c>
+      <c r="G18" s="32">
         <f>(C18/C21)^(1/3)</f>
-        <v>5.48747983275193</v>
+        <v>4.00806453796077</v>
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="36">
         <f>$A17-7</f>
-        <v>43902</v>
-      </c>
-      <c r="J18" s="32">
-        <v>41</v>
-      </c>
-      <c r="K18" s="28">
+        <v>43909</v>
+      </c>
+      <c r="J18" s="34">
+        <v>206</v>
+      </c>
+      <c r="K18" s="30">
         <f>J15*100</f>
-        <v>608800</v>
-      </c>
-      <c r="L18" s="28">
-        <v>1312</v>
-      </c>
-      <c r="M18" s="33">
+        <v>1671200</v>
+      </c>
+      <c r="L18" s="30">
+        <v>9415</v>
+      </c>
+      <c r="M18" s="31">
         <f>K18/L18</f>
-        <v>464.024390243902</v>
+        <v>177.503983005842</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="20">
+      <c r="A19" s="22">
         <f>$A18-7</f>
-        <v>43895</v>
-      </c>
-      <c r="B19" s="27">
+        <v>43902</v>
+      </c>
+      <c r="B19" s="29">
         <f>J19-J20</f>
-        <v>11</v>
-      </c>
-      <c r="C19" s="28">
+        <v>29</v>
+      </c>
+      <c r="C19" s="30">
         <f>B16*100</f>
-        <v>109000</v>
-      </c>
-      <c r="D19" s="28">
+        <v>479200</v>
+      </c>
+      <c r="D19" s="30">
         <f>L19-L20</f>
-        <v>100</v>
-      </c>
-      <c r="E19" s="33">
+        <v>1153</v>
+      </c>
+      <c r="E19" s="31">
         <f>C19/D19</f>
-        <v>1090</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="34"/>
+        <v>415.611448395490</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32">
+        <f>(C19/C22)^(1/3)</f>
+        <v>5.48747983275193</v>
+      </c>
       <c r="H19" s="37"/>
       <c r="I19" s="36">
         <f>$A18-7</f>
-        <v>43895</v>
-      </c>
-      <c r="J19" s="32">
-        <v>12</v>
-      </c>
-      <c r="K19" s="28">
+        <v>43902</v>
+      </c>
+      <c r="J19" s="34">
+        <v>41</v>
+      </c>
+      <c r="K19" s="30">
         <f>J16*100</f>
-        <v>129600</v>
-      </c>
-      <c r="L19" s="28">
-        <v>159</v>
-      </c>
-      <c r="M19" s="33">
+        <v>608800</v>
+      </c>
+      <c r="L19" s="30">
+        <v>1312</v>
+      </c>
+      <c r="M19" s="31">
         <f>K19/L19</f>
-        <v>815.094339622642</v>
+        <v>464.024390243902</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="20">
+      <c r="A20" s="22">
         <f>$A19-7</f>
-        <v>43888</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28">
+        <v>43895</v>
+      </c>
+      <c r="B20" s="29">
+        <f>J20-J21</f>
+        <v>11</v>
+      </c>
+      <c r="C20" s="30">
         <f>B17*100</f>
-        <v>16500</v>
-      </c>
-      <c r="D20" s="28">
+        <v>109000</v>
+      </c>
+      <c r="D20" s="30">
         <f>L20-L21</f>
-        <v>44</v>
-      </c>
-      <c r="E20" s="33">
+        <v>100</v>
+      </c>
+      <c r="E20" s="31">
         <f>C20/D20</f>
-        <v>375</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="34"/>
+        <v>1090</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="32">
+        <f>(C20/C23)^(1/3)</f>
+        <v>4.62748057383939</v>
+      </c>
       <c r="H20" s="37"/>
       <c r="I20" s="36">
         <f>$A19-7</f>
-        <v>43888</v>
-      </c>
-      <c r="J20" s="32">
-        <v>1</v>
-      </c>
-      <c r="K20" s="28">
+        <v>43895</v>
+      </c>
+      <c r="J20" s="34">
+        <v>12</v>
+      </c>
+      <c r="K20" s="30">
         <f>J17*100</f>
-        <v>20600</v>
-      </c>
-      <c r="L20" s="28">
-        <v>59</v>
-      </c>
-      <c r="M20" s="33">
+        <v>129600</v>
+      </c>
+      <c r="L20" s="30">
+        <v>159</v>
+      </c>
+      <c r="M20" s="31">
         <f>K20/L20</f>
-        <v>349.152542372881</v>
+        <v>815.094339622642</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="20">
+      <c r="A21" s="22">
         <f>$A20-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28">
+        <v>43888</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30">
         <f>B18*100</f>
-        <v>2900</v>
-      </c>
-      <c r="D21" s="28">
+        <v>16500</v>
+      </c>
+      <c r="D21" s="30">
         <f>L21-L22</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="33">
+        <v>44</v>
+      </c>
+      <c r="E21" s="31">
         <f>C21/D21</f>
-        <v>2900</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="34"/>
+        <v>375</v>
+      </c>
+      <c r="F21" s="30"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="37"/>
       <c r="I21" s="36">
         <f>$A20-7</f>
-        <v>43881</v>
-      </c>
-      <c r="J21" s="32"/>
-      <c r="K21" s="28">
+        <v>43888</v>
+      </c>
+      <c r="J21" s="34">
+        <v>1</v>
+      </c>
+      <c r="K21" s="30">
         <f>J18*100</f>
-        <v>4100</v>
-      </c>
-      <c r="L21" s="28">
-        <v>15</v>
-      </c>
-      <c r="M21" s="33">
+        <v>20600</v>
+      </c>
+      <c r="L21" s="30">
+        <v>59</v>
+      </c>
+      <c r="M21" s="31">
         <f>K21/L21</f>
-        <v>273.333333333333</v>
+        <v>349.152542372881</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="20">
+      <c r="A22" s="22">
         <f>$A21-7</f>
-        <v>43874</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28">
+        <v>43881</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30">
         <f>B19*100</f>
-        <v>1100</v>
-      </c>
-      <c r="D22" s="28">
+        <v>2900</v>
+      </c>
+      <c r="D22" s="30">
         <f>L22-L23</f>
-        <v>2</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="34"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="31">
+        <f>C22/D22</f>
+        <v>2900</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="37"/>
       <c r="I22" s="36">
         <f>$A21-7</f>
-        <v>43874</v>
-      </c>
-      <c r="J22" s="32"/>
-      <c r="K22" s="28">
+        <v>43881</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="30">
         <f>J19*100</f>
-        <v>1200</v>
-      </c>
-      <c r="L22" s="28">
-        <v>14</v>
-      </c>
-      <c r="M22" s="33">
+        <v>4100</v>
+      </c>
+      <c r="L22" s="30">
+        <v>15</v>
+      </c>
+      <c r="M22" s="31">
         <f>K22/L22</f>
-        <v>85.71428571428569</v>
+        <v>273.333333333333</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="20">
+      <c r="A23" s="22">
         <f>$A22-7</f>
-        <v>43867</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28">
+        <v>43874</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30">
+        <f>B20*100</f>
+        <v>1100</v>
+      </c>
+      <c r="D23" s="30">
         <f>L23-L24</f>
-        <v>7</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="34"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="37"/>
       <c r="I23" s="36">
         <f>$A22-7</f>
-        <v>43867</v>
-      </c>
-      <c r="J23" s="32"/>
-      <c r="K23" s="28">
+        <v>43874</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="30">
         <f>J20*100</f>
-        <v>100</v>
-      </c>
-      <c r="L23" s="38">
-        <v>12</v>
-      </c>
-      <c r="M23" s="33">
+        <v>1200</v>
+      </c>
+      <c r="L23" s="30">
+        <v>14</v>
+      </c>
+      <c r="M23" s="31">
         <f>K23/L23</f>
-        <v>8.33333333333333</v>
+        <v>85.71428571428569</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="20">
+      <c r="A24" s="22">
         <f>$A23-7</f>
-        <v>43860</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28">
+        <v>43867</v>
+      </c>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30">
         <f>L24-L25</f>
-        <v>4</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="34"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="37"/>
       <c r="I24" s="36">
         <f>$A23-7</f>
-        <v>43860</v>
-      </c>
-      <c r="J24" s="32"/>
-      <c r="K24" s="28"/>
+        <v>43867</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="30">
+        <f>J21*100</f>
+        <v>100</v>
+      </c>
       <c r="L24" s="38">
-        <v>5</v>
-      </c>
-      <c r="M24" s="33">
+        <v>12</v>
+      </c>
+      <c r="M24" s="31">
         <f>K24/L24</f>
-        <v>0</v>
+        <v>8.33333333333333</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="34"/>
+      <c r="A25" s="22">
+        <f>$A24-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30">
+        <f>L25-L26</f>
+        <v>4</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="38"/>
+      <c r="I25" s="36">
+        <f>$A24-7</f>
+        <v>43860</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="38">
-        <v>1</v>
-      </c>
-      <c r="M25" s="33">
+        <v>5</v>
+      </c>
+      <c r="M25" s="31">
         <f>K25/L25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" s="39"/>
-      <c r="B26" s="43"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="44"/>
+      <c r="L26" s="38">
+        <v>1</v>
+      </c>
+      <c r="M26" s="31">
+        <f>K26/L26</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" s="39"/>
-      <c r="B27" s="49"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="44"/>
       <c r="F27" s="38"/>
       <c r="G27" s="45"/>
       <c r="H27" s="46"/>
-      <c r="I27" s="50"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="48"/>
       <c r="K27" s="38"/>
       <c r="L27" s="38"/>
       <c r="M27" s="44"/>
     </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="39"/>
+      <c r="B28" t="s" s="49">
+        <v>12</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="44"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0padta9WRXNKrK-CmBCgoWKpA"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Coronavirus Extrapolations</t>
   </si>
@@ -37,10 +37,13 @@
     <t>Weekly R (Past 3 Weeks)</t>
   </si>
   <si>
+    <t>Weekly R (One Week)</t>
+  </si>
+  <si>
     <t>Deaths</t>
   </si>
   <si>
-    <t>Inferred Cases: Deaths x 100 Lagged 3</t>
+    <t>Inferred Cases: Deaths x 150 Lagged 3</t>
   </si>
   <si>
     <t>Confirmed Cases</t>
@@ -543,7 +546,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -592,6 +595,9 @@
     <xf numFmtId="4" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="60" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -607,6 +613,12 @@
     <xf numFmtId="59" fontId="4" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="60" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -616,13 +628,16 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="6" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -632,15 +647,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="6" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1787,7 +1793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1797,14 +1803,14 @@
     <col min="2" max="2" width="8.35156" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.1719" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
-    <col min="5" max="7" width="10.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3516" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="8" width="10.3516" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.8516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.3516" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="56.95" customHeight="1">
@@ -1817,12 +1823,13 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="5"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" ht="56.35" customHeight="1">
       <c r="A2" t="s" s="6">
@@ -1846,12 +1853,12 @@
       <c r="G2" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" t="s" s="9">
+      <c r="H2" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s" s="9">
         <v>1</v>
-      </c>
-      <c r="J2" t="s" s="6">
-        <v>8</v>
       </c>
       <c r="K2" t="s" s="6">
         <v>9</v>
@@ -1861,1087 +1868,1228 @@
       </c>
       <c r="M2" t="s" s="6">
         <v>11</v>
+      </c>
+      <c r="N2" t="s" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="3" ht="20.7" customHeight="1">
       <c r="A3" s="10">
         <f>$A4+7</f>
-        <v>44014</v>
+        <v>44021</v>
       </c>
       <c r="B3" s="11">
-        <f>J3-J4</f>
-        <v>4923</v>
+        <f>K3-K4</f>
+        <v>4300</v>
       </c>
       <c r="C3" s="12">
         <f>D3*E3</f>
-        <v>1200280</v>
+        <v>1646040</v>
       </c>
       <c r="D3" s="13">
-        <f>L3-L4</f>
-        <v>324400</v>
+        <f>M3-M4</f>
+        <v>382800</v>
       </c>
       <c r="E3" s="14">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="F3" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="15">
         <f>(C3/C6)^(1/3)</f>
-        <v>1.34591482846974</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17">
+        <v>1.36655429044929</v>
+      </c>
+      <c r="H3" s="16">
+        <f>C3/C4</f>
+        <v>1.18188867826986</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18">
         <f>$A4+7</f>
-        <v>44014</v>
-      </c>
-      <c r="J3" s="18">
-        <v>131900</v>
+        <v>44021</v>
       </c>
       <c r="K3" s="19">
-        <f>K4+C3</f>
-        <v>15686697</v>
-      </c>
-      <c r="L3" s="13">
-        <v>2830000</v>
-      </c>
-      <c r="M3" s="14">
-        <f>K3/L3</f>
-        <v>5.54300247349823</v>
+        <v>135800</v>
+      </c>
+      <c r="L3" s="20">
+        <f>L4+C3</f>
+        <v>24383160</v>
+      </c>
+      <c r="M3" s="13">
+        <v>3220000</v>
+      </c>
+      <c r="N3" s="14">
+        <f>L3/M3</f>
+        <v>7.5724099378882</v>
       </c>
     </row>
     <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" s="20">
+      <c r="A4" s="10">
         <f>$A5+7</f>
-        <v>44007</v>
+        <v>44014</v>
       </c>
       <c r="B4" s="11">
-        <f>J4-J5</f>
-        <v>6177</v>
+        <f>K4-K5</f>
+        <v>4523</v>
       </c>
       <c r="C4" s="12">
         <f>D4*E4</f>
-        <v>779520</v>
+        <v>1392720</v>
       </c>
       <c r="D4" s="13">
-        <f>L4-L5</f>
-        <v>243600</v>
+        <f>M4-M5</f>
+        <v>331600</v>
       </c>
       <c r="E4" s="14">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="F4" s="13">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="15">
         <f>(C4/C7)^(1/3)</f>
-        <v>1.08064542781417</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17">
+        <v>1.27091153611368</v>
+      </c>
+      <c r="H4" s="16">
+        <f>C4/C5</f>
+        <v>1.42931034482759</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18">
         <f>$A5+7</f>
-        <v>44007</v>
-      </c>
-      <c r="J4" s="18">
-        <v>126977</v>
-      </c>
-      <c r="K4" s="21">
-        <f>K5+C4</f>
-        <v>14486417</v>
-      </c>
-      <c r="L4" s="13">
-        <v>2505600</v>
-      </c>
-      <c r="M4" s="14">
-        <f>K4/L4</f>
-        <v>5.78161598020434</v>
+        <v>44014</v>
+      </c>
+      <c r="K4" s="19">
+        <v>131500</v>
+      </c>
+      <c r="L4" s="20">
+        <f>L5+C4</f>
+        <v>22737120</v>
+      </c>
+      <c r="M4" s="13">
+        <v>2837200</v>
+      </c>
+      <c r="N4" s="14">
+        <f>L4/M4</f>
+        <v>8.01392922599746</v>
       </c>
     </row>
     <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <f>$A6+7</f>
-        <v>44000</v>
-      </c>
-      <c r="B5" s="23">
-        <f>J5-J6</f>
-        <v>4766</v>
+        <v>44007</v>
+      </c>
+      <c r="B5" s="11">
+        <f>K5-K6</f>
+        <v>6177</v>
       </c>
       <c r="C5" s="12">
         <f>D5*E5</f>
-        <v>516897</v>
-      </c>
-      <c r="D5" s="24">
-        <f>L5-L6</f>
-        <v>172299</v>
-      </c>
-      <c r="E5" s="25">
-        <v>3</v>
-      </c>
-      <c r="F5" s="24">
-        <v>21</v>
-      </c>
-      <c r="G5" s="26">
+        <v>974400</v>
+      </c>
+      <c r="D5" s="13">
+        <f>M5-M6</f>
+        <v>243600</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>17</v>
+      </c>
+      <c r="G5" s="23">
         <f>(C5/C8)^(1/3)</f>
-        <v>1.02742467383361</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="17">
+        <v>1.01692628201869</v>
+      </c>
+      <c r="H5" s="16">
+        <f>C5/C6</f>
+        <v>1.5106976744186</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18">
         <f>$A6+7</f>
-        <v>44000</v>
-      </c>
-      <c r="J5" s="28">
-        <v>120800</v>
-      </c>
-      <c r="K5" s="12">
-        <f>K6+C5</f>
-        <v>13706897</v>
+        <v>44007</v>
+      </c>
+      <c r="K5" s="19">
+        <v>126977</v>
       </c>
       <c r="L5" s="24">
-        <v>2262000</v>
-      </c>
-      <c r="M5" s="25">
-        <f>K5/L5</f>
-        <v>6.05963616268789</v>
+        <f>L6+C5</f>
+        <v>21344400</v>
+      </c>
+      <c r="M5" s="13">
+        <v>2505600</v>
+      </c>
+      <c r="N5" s="22">
+        <f>L5/M5</f>
+        <v>8.51867816091954</v>
       </c>
     </row>
     <row r="6" ht="20.7" customHeight="1">
-      <c r="A6" s="22">
+      <c r="A6" s="25">
         <f>$A7+7</f>
-        <v>43993</v>
-      </c>
-      <c r="B6" s="29">
-        <f>J6-J7</f>
-        <v>5861</v>
-      </c>
-      <c r="C6" s="30">
-        <f>B3*100</f>
-        <v>492300</v>
-      </c>
-      <c r="D6" s="30">
-        <f>L6-L7</f>
-        <v>165650</v>
-      </c>
-      <c r="E6" s="31">
+        <v>44000</v>
+      </c>
+      <c r="B6" s="26">
+        <f>K6-K7</f>
+        <v>4766</v>
+      </c>
+      <c r="C6" s="27">
+        <f>B3*150</f>
+        <v>645000</v>
+      </c>
+      <c r="D6" s="28">
+        <f>M6-M7</f>
+        <v>172299</v>
+      </c>
+      <c r="E6" s="29">
         <f>C6/D6</f>
-        <v>2.97192876546936</v>
-      </c>
-      <c r="F6" s="30">
+        <v>3.74349241725141</v>
+      </c>
+      <c r="F6" s="28">
         <v>21</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <f>(C6/C9)^(1/3)</f>
-        <v>0.9435234638166</v>
-      </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="17">
+        <v>0.966284038773475</v>
+      </c>
+      <c r="H6" s="30">
+        <f>C6/C7</f>
+        <v>0.950696440415653</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="18">
         <f>$A7+7</f>
-        <v>43993</v>
-      </c>
-      <c r="J6" s="34">
-        <v>116034</v>
-      </c>
-      <c r="K6" s="30">
-        <f>J3*100</f>
-        <v>13190000</v>
-      </c>
-      <c r="L6" s="30">
-        <v>2089701</v>
-      </c>
-      <c r="M6" s="31">
-        <f>K6/L6</f>
-        <v>6.31190778010825</v>
+        <v>44000</v>
+      </c>
+      <c r="K6" s="32">
+        <v>120800</v>
+      </c>
+      <c r="L6" s="27">
+        <f>K3*150</f>
+        <v>20370000</v>
+      </c>
+      <c r="M6" s="28">
+        <v>2262000</v>
+      </c>
+      <c r="N6" s="29">
+        <f>L6/M6</f>
+        <v>9.0053050397878</v>
       </c>
     </row>
     <row r="7" ht="20.7" customHeight="1">
-      <c r="A7" s="22">
+      <c r="A7" s="25">
         <f>$A8+7</f>
+        <v>43993</v>
+      </c>
+      <c r="B7" s="33">
+        <f>K7-K8</f>
+        <v>5861</v>
+      </c>
+      <c r="C7" s="27">
+        <f>B4*150</f>
+        <v>678450</v>
+      </c>
+      <c r="D7" s="27">
+        <f>M7-M8</f>
+        <v>165650</v>
+      </c>
+      <c r="E7" s="29">
+        <f>C7/D7</f>
+        <v>4.09568367038938</v>
+      </c>
+      <c r="F7" s="27">
+        <v>21</v>
+      </c>
+      <c r="G7" s="30">
+        <f>(C7/C10)^(1/3)</f>
+        <v>0.917244160267474</v>
+      </c>
+      <c r="H7" s="30">
+        <f>C7/C8</f>
+        <v>0.73223247531164</v>
+      </c>
+      <c r="I7" s="34"/>
+      <c r="J7" s="18">
+        <f>$A8+7</f>
+        <v>43993</v>
+      </c>
+      <c r="K7" s="35">
+        <v>116034</v>
+      </c>
+      <c r="L7" s="27">
+        <f>K4*150</f>
+        <v>19725000</v>
+      </c>
+      <c r="M7" s="27">
+        <v>2089701</v>
+      </c>
+      <c r="N7" s="29">
+        <f>L7/M7</f>
+        <v>9.439149428554609</v>
+      </c>
+    </row>
+    <row r="8" ht="20.7" customHeight="1">
+      <c r="A8" s="25">
+        <f>$A9+7</f>
         <v>43986</v>
       </c>
-      <c r="B7" s="29">
-        <f>J7-J8</f>
+      <c r="B8" s="33">
+        <f>K8-K9</f>
         <v>6573</v>
       </c>
-      <c r="C7" s="30">
-        <f>B4*100</f>
-        <v>617700</v>
-      </c>
-      <c r="D7" s="30">
-        <f>L7-L8</f>
+      <c r="C8" s="27">
+        <f>B5*150</f>
+        <v>926550</v>
+      </c>
+      <c r="D8" s="27">
+        <f>M8-M9</f>
         <v>159051</v>
       </c>
-      <c r="E7" s="31">
-        <f>C7/D7</f>
-        <v>3.88365995812664</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="E8" s="29">
+        <f>C8/D8</f>
+        <v>5.82548993718996</v>
+      </c>
+      <c r="F8" s="27">
         <v>20</v>
       </c>
-      <c r="G7" s="32">
-        <f>(C7/C10)^(1/3)</f>
+      <c r="G8" s="30">
+        <f>(C8/C11)^(1/3)</f>
         <v>0.979500487211567</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="35">
-        <f>$A8+7</f>
+      <c r="H8" s="30">
+        <f>C8/C9</f>
+        <v>1.29605539236257</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="36">
+        <f>$A9+7</f>
         <v>43986</v>
       </c>
-      <c r="J7" s="34">
+      <c r="K8" s="35">
         <v>110173</v>
       </c>
-      <c r="K7" s="30">
-        <f>J4*100</f>
-        <v>12697700</v>
-      </c>
-      <c r="L7" s="30">
+      <c r="L8" s="27">
+        <f>K5*150</f>
+        <v>19046550</v>
+      </c>
+      <c r="M8" s="27">
         <v>1924051</v>
       </c>
-      <c r="M7" s="31">
-        <f>K7/L7</f>
-        <v>6.59946124089226</v>
+      <c r="N8" s="29">
+        <f>L8/M8</f>
+        <v>9.899191861338389</v>
       </c>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="22">
-        <f>$A9+7</f>
+    <row r="9" ht="20.35" customHeight="1">
+      <c r="A9" s="25">
+        <f>$A10+7</f>
         <v>43979</v>
       </c>
-      <c r="B8" s="29">
-        <f>J8-J9</f>
+      <c r="B9" s="33">
+        <f>K9-K10</f>
         <v>7246</v>
       </c>
-      <c r="C8" s="30">
-        <f>B5*100</f>
-        <v>476600</v>
-      </c>
-      <c r="D8" s="30">
-        <f>L8-L9</f>
+      <c r="C9" s="27">
+        <f>B6*150</f>
+        <v>714900</v>
+      </c>
+      <c r="D9" s="27">
+        <f>M9-M10</f>
         <v>144103</v>
       </c>
-      <c r="E8" s="31">
-        <f>C8/D8</f>
-        <v>3.30735654358341</v>
-      </c>
-      <c r="F8" s="30">
+      <c r="E9" s="29">
+        <f>C9/D9</f>
+        <v>4.96103481537511</v>
+      </c>
+      <c r="F9" s="27">
         <v>18</v>
       </c>
-      <c r="G8" s="32">
-        <f>(C8/C11)^(1/3)</f>
+      <c r="G9" s="30">
+        <f>(C9/C12)^(1/3)</f>
         <v>0.86966482116181</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="36">
-        <f>$A9+7</f>
+      <c r="H9" s="30">
+        <f>C9/C10</f>
+        <v>0.813171813683672</v>
+      </c>
+      <c r="I9" s="34"/>
+      <c r="J9" s="37">
+        <f>$A10+7</f>
         <v>43979</v>
       </c>
-      <c r="J8" s="34">
+      <c r="K9" s="35">
         <v>103600</v>
       </c>
-      <c r="K8" s="30">
-        <f>J5*100</f>
-        <v>12080000</v>
-      </c>
-      <c r="L8" s="30">
+      <c r="L9" s="27">
+        <f>K6*150</f>
+        <v>18120000</v>
+      </c>
+      <c r="M9" s="27">
         <v>1765000</v>
       </c>
-      <c r="M8" s="31">
-        <f>K8/L8</f>
-        <v>6.84419263456091</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="22">
-        <f>$A10+7</f>
-        <v>43972</v>
-      </c>
-      <c r="B9" s="29">
-        <f>J9-J10</f>
-        <v>9354</v>
-      </c>
-      <c r="C9" s="30">
-        <f>B6*100</f>
-        <v>586100</v>
-      </c>
-      <c r="D9" s="30">
-        <f>L9-L10</f>
-        <v>180897</v>
-      </c>
-      <c r="E9" s="31">
-        <f>C9/D9</f>
-        <v>3.23996528411195</v>
-      </c>
-      <c r="F9" s="30">
-        <v>17</v>
-      </c>
-      <c r="G9" s="32">
-        <f>(C9/C12)^(1/3)</f>
-        <v>0.855706410034197</v>
-      </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="36">
-        <f>$A10+7</f>
-        <v>43972</v>
-      </c>
-      <c r="J9" s="34">
-        <v>96354</v>
-      </c>
-      <c r="K9" s="30">
-        <f>J6*100</f>
-        <v>11603400</v>
-      </c>
-      <c r="L9" s="30">
-        <v>1620897</v>
-      </c>
-      <c r="M9" s="31">
-        <f>K9/L9</f>
-        <v>7.15862883329416</v>
+      <c r="N9" s="29">
+        <f>L9/M9</f>
+        <v>10.2662889518414</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="22">
-        <v>43965</v>
-      </c>
-      <c r="B10" s="29">
-        <f>J10-J11</f>
-        <v>10072</v>
-      </c>
-      <c r="C10" s="30">
-        <f>B7*100</f>
-        <v>657300</v>
-      </c>
-      <c r="D10" s="30">
-        <f>L10-L11</f>
-        <v>147377</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="A10" s="25">
+        <f>$A11+7</f>
+        <v>43972</v>
+      </c>
+      <c r="B10" s="33">
+        <f>K10-K11</f>
+        <v>9354</v>
+      </c>
+      <c r="C10" s="27">
+        <f>B7*150</f>
+        <v>879150</v>
+      </c>
+      <c r="D10" s="27">
+        <f>M10-M11</f>
+        <v>180897</v>
+      </c>
+      <c r="E10" s="29">
         <f>C10/D10</f>
-        <v>4.45999036484662</v>
-      </c>
-      <c r="F10" s="30">
-        <v>14</v>
-      </c>
-      <c r="G10" s="32">
+        <v>4.85994792616793</v>
+      </c>
+      <c r="F10" s="27">
+        <v>17</v>
+      </c>
+      <c r="G10" s="30">
         <f>(C10/C13)^(1/3)</f>
-        <v>0.867393117289844</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="36">
-        <v>43965</v>
-      </c>
-      <c r="J10" s="34">
-        <v>87000</v>
-      </c>
-      <c r="K10" s="30">
-        <f>J7*100</f>
-        <v>11017300</v>
-      </c>
-      <c r="L10" s="30">
-        <v>1440000</v>
-      </c>
-      <c r="M10" s="31">
-        <f>K10/L10</f>
-        <v>7.65090277777778</v>
+        <v>0.855706410034197</v>
+      </c>
+      <c r="H10" s="30">
+        <f>C10/C11</f>
+        <v>0.891678076981591</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="37">
+        <f>$A11+7</f>
+        <v>43972</v>
+      </c>
+      <c r="K10" s="35">
+        <v>96354</v>
+      </c>
+      <c r="L10" s="27">
+        <f>K7*150</f>
+        <v>17405100</v>
+      </c>
+      <c r="M10" s="27">
+        <v>1620897</v>
+      </c>
+      <c r="N10" s="29">
+        <f>L10/M10</f>
+        <v>10.7379432499412</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="22">
-        <v>43958</v>
-      </c>
-      <c r="B11" s="29">
-        <f>J11-J12</f>
-        <v>13072</v>
-      </c>
-      <c r="C11" s="30">
-        <f>B8*100</f>
-        <v>724600</v>
-      </c>
-      <c r="D11" s="30">
-        <f>L11-L12</f>
-        <v>197600</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="A11" s="25">
+        <v>43965</v>
+      </c>
+      <c r="B11" s="33">
+        <f>K11-K12</f>
+        <v>10072</v>
+      </c>
+      <c r="C11" s="27">
+        <f>B8*150</f>
+        <v>985950</v>
+      </c>
+      <c r="D11" s="27">
+        <f>M11-M12</f>
+        <v>147377</v>
+      </c>
+      <c r="E11" s="29">
         <f>C11/D11</f>
-        <v>3.667004048583</v>
-      </c>
-      <c r="F11" s="30">
-        <v>10</v>
-      </c>
-      <c r="G11" s="32">
+        <v>6.68998554726993</v>
+      </c>
+      <c r="F11" s="27">
+        <v>14</v>
+      </c>
+      <c r="G11" s="30">
         <f>(C11/C14)^(1/3)</f>
-        <v>0.821458126164389</v>
-      </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="36">
-        <v>43958</v>
-      </c>
-      <c r="J11" s="34">
-        <v>76928</v>
-      </c>
-      <c r="K11" s="30">
-        <f>J8*100</f>
-        <v>10360000</v>
-      </c>
-      <c r="L11" s="30">
-        <v>1292623</v>
-      </c>
-      <c r="M11" s="31">
-        <f>K11/L11</f>
-        <v>8.01471117255379</v>
+        <v>0.867393117289844</v>
+      </c>
+      <c r="H11" s="30">
+        <f>C11/C12</f>
+        <v>0.907121170300856</v>
+      </c>
+      <c r="I11" s="38"/>
+      <c r="J11" s="37">
+        <v>43965</v>
+      </c>
+      <c r="K11" s="35">
+        <v>87000</v>
+      </c>
+      <c r="L11" s="27">
+        <f>K8*150</f>
+        <v>16525950</v>
+      </c>
+      <c r="M11" s="27">
+        <v>1440000</v>
+      </c>
+      <c r="N11" s="29">
+        <f>L11/M11</f>
+        <v>11.4763541666667</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="22">
-        <v>43951</v>
-      </c>
-      <c r="B12" s="29">
-        <f>J12-J13</f>
-        <v>13620</v>
-      </c>
-      <c r="C12" s="30">
-        <f>B9*100</f>
-        <v>935400</v>
-      </c>
-      <c r="D12" s="30">
-        <f>L12-L13</f>
-        <v>208581</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="A12" s="25">
+        <v>43958</v>
+      </c>
+      <c r="B12" s="33">
+        <f>K12-K13</f>
+        <v>13072</v>
+      </c>
+      <c r="C12" s="27">
+        <f>B9*150</f>
+        <v>1086900</v>
+      </c>
+      <c r="D12" s="27">
+        <f>M12-M13</f>
+        <v>197600</v>
+      </c>
+      <c r="E12" s="29">
         <f>C12/D12</f>
-        <v>4.48458872092856</v>
-      </c>
-      <c r="F12" s="30">
-        <v>8</v>
-      </c>
-      <c r="G12" s="32">
+        <v>5.50050607287449</v>
+      </c>
+      <c r="F12" s="27">
+        <v>10</v>
+      </c>
+      <c r="G12" s="30">
         <f>(C12/C15)^(1/3)</f>
-        <v>0.882280646327855</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="36">
-        <v>43951</v>
-      </c>
-      <c r="J12" s="34">
-        <v>63856</v>
-      </c>
-      <c r="K12" s="30">
-        <f>J9*100</f>
-        <v>9635400</v>
-      </c>
-      <c r="L12" s="30">
-        <v>1095023</v>
-      </c>
-      <c r="M12" s="31">
-        <f>K12/L12</f>
-        <v>8.799267230003389</v>
+        <v>0.821458126164389</v>
+      </c>
+      <c r="H12" s="30">
+        <f>C12/C13</f>
+        <v>0.774641864443019</v>
+      </c>
+      <c r="I12" s="38"/>
+      <c r="J12" s="37">
+        <v>43958</v>
+      </c>
+      <c r="K12" s="35">
+        <v>76928</v>
+      </c>
+      <c r="L12" s="27">
+        <f>K9*150</f>
+        <v>15540000</v>
+      </c>
+      <c r="M12" s="27">
+        <v>1292623</v>
+      </c>
+      <c r="N12" s="29">
+        <f>L12/M12</f>
+        <v>12.0220667588307</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="22">
-        <v>43944</v>
-      </c>
-      <c r="B13" s="29">
-        <f>J13-J14</f>
-        <v>15619</v>
-      </c>
-      <c r="C13" s="30">
-        <f>B10*100</f>
-        <v>1007200</v>
-      </c>
-      <c r="D13" s="30">
-        <f>L13-L14</f>
-        <v>246778</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="A13" s="25">
+        <v>43951</v>
+      </c>
+      <c r="B13" s="33">
+        <f>K13-K14</f>
+        <v>13620</v>
+      </c>
+      <c r="C13" s="27">
+        <f>B10*150</f>
+        <v>1403100</v>
+      </c>
+      <c r="D13" s="27">
+        <f>M13-M14</f>
+        <v>208581</v>
+      </c>
+      <c r="E13" s="29">
         <f>C13/D13</f>
-        <v>4.08140109734255</v>
-      </c>
-      <c r="F13" s="30">
-        <v>6</v>
-      </c>
-      <c r="G13" s="32">
+        <v>6.72688308139284</v>
+      </c>
+      <c r="F13" s="27">
+        <v>8</v>
+      </c>
+      <c r="G13" s="30">
         <f>(C13/C16)^(1/3)</f>
-        <v>0.863947788733022</v>
-      </c>
-      <c r="H13" s="37"/>
-      <c r="I13" s="36">
-        <v>43944</v>
-      </c>
-      <c r="J13" s="34">
-        <v>50236</v>
-      </c>
-      <c r="K13" s="30">
-        <f>J10*100</f>
-        <v>8700000</v>
-      </c>
-      <c r="L13" s="30">
-        <v>886442</v>
-      </c>
-      <c r="M13" s="31">
-        <f>K13/L13</f>
-        <v>9.81451691142793</v>
+        <v>0.882280646327855</v>
+      </c>
+      <c r="H13" s="30">
+        <f>C13/C14</f>
+        <v>0.928713264495631</v>
+      </c>
+      <c r="I13" s="38"/>
+      <c r="J13" s="37">
+        <v>43951</v>
+      </c>
+      <c r="K13" s="35">
+        <v>63856</v>
+      </c>
+      <c r="L13" s="27">
+        <f>K10*150</f>
+        <v>14453100</v>
+      </c>
+      <c r="M13" s="27">
+        <v>1095023</v>
+      </c>
+      <c r="N13" s="29">
+        <f>L13/M13</f>
+        <v>13.1989008450051</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="22">
-        <v>43937</v>
-      </c>
-      <c r="B14" s="29">
-        <f>J14-J15</f>
-        <v>17905</v>
-      </c>
-      <c r="C14" s="30">
-        <f>B11*100</f>
-        <v>1307200</v>
-      </c>
-      <c r="D14" s="30">
-        <f>L14-L15</f>
-        <v>207532</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="A14" s="25">
+        <v>43944</v>
+      </c>
+      <c r="B14" s="33">
+        <f>K14-K15</f>
+        <v>15619</v>
+      </c>
+      <c r="C14" s="27">
+        <f>B11*150</f>
+        <v>1510800</v>
+      </c>
+      <c r="D14" s="27">
+        <f>M14-M15</f>
+        <v>246778</v>
+      </c>
+      <c r="E14" s="29">
         <f>C14/D14</f>
-        <v>6.29878765684328</v>
-      </c>
-      <c r="F14" s="30">
-        <v>5</v>
-      </c>
-      <c r="G14" s="32">
+        <v>6.12210164601383</v>
+      </c>
+      <c r="F14" s="27">
+        <v>6</v>
+      </c>
+      <c r="G14" s="30">
         <f>(C14/C17)^(1/3)</f>
-        <v>0.90044233315585</v>
-      </c>
-      <c r="H14" s="37"/>
-      <c r="I14" s="36">
-        <v>43937</v>
-      </c>
-      <c r="J14" s="34">
-        <v>34617</v>
-      </c>
-      <c r="K14" s="30">
-        <f>J11*100</f>
-        <v>7692800</v>
-      </c>
-      <c r="L14" s="30">
-        <v>639664</v>
-      </c>
-      <c r="M14" s="31">
-        <f>K14/L14</f>
-        <v>12.0263138147527</v>
+        <v>0.863947788733022</v>
+      </c>
+      <c r="H14" s="30">
+        <f>C14/C15</f>
+        <v>0.770501835985312</v>
+      </c>
+      <c r="I14" s="38"/>
+      <c r="J14" s="37">
+        <v>43944</v>
+      </c>
+      <c r="K14" s="35">
+        <v>50236</v>
+      </c>
+      <c r="L14" s="27">
+        <f>K11*150</f>
+        <v>13050000</v>
+      </c>
+      <c r="M14" s="27">
+        <v>886442</v>
+      </c>
+      <c r="N14" s="29">
+        <f>L14/M14</f>
+        <v>14.7217753671419</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="22">
-        <f>$A14-7</f>
-        <v>43930</v>
-      </c>
-      <c r="B15" s="29">
-        <f>J15-J16</f>
-        <v>10624</v>
-      </c>
-      <c r="C15" s="30">
-        <f>B12*100</f>
-        <v>1362000</v>
-      </c>
-      <c r="D15" s="30">
-        <f>L15-L16</f>
-        <v>215411</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="A15" s="25">
+        <v>43937</v>
+      </c>
+      <c r="B15" s="33">
+        <f>K15-K16</f>
+        <v>17905</v>
+      </c>
+      <c r="C15" s="27">
+        <f>B12*150</f>
+        <v>1960800</v>
+      </c>
+      <c r="D15" s="27">
+        <f>M15-M16</f>
+        <v>207532</v>
+      </c>
+      <c r="E15" s="29">
         <f>C15/D15</f>
-        <v>6.3227968859529</v>
-      </c>
-      <c r="F15" s="30">
+        <v>9.44818148526492</v>
+      </c>
+      <c r="F15" s="27">
         <v>5</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="30">
         <f>(C15/C18)^(1/3)</f>
-        <v>1.08633310680582</v>
-      </c>
-      <c r="H15" s="37"/>
-      <c r="I15" s="36">
-        <f>$A14-7</f>
-        <v>43930</v>
-      </c>
-      <c r="J15" s="34">
-        <v>16712</v>
-      </c>
-      <c r="K15" s="30">
-        <f>J12*100</f>
-        <v>6385600</v>
-      </c>
-      <c r="L15" s="30">
-        <v>432132</v>
-      </c>
-      <c r="M15" s="31">
-        <f>K15/L15</f>
-        <v>14.7769662973351</v>
+        <v>0.90044233315585</v>
+      </c>
+      <c r="H15" s="30">
+        <f>C15/C16</f>
+        <v>0.959765051395007</v>
+      </c>
+      <c r="I15" s="38"/>
+      <c r="J15" s="37">
+        <v>43937</v>
+      </c>
+      <c r="K15" s="35">
+        <v>34617</v>
+      </c>
+      <c r="L15" s="27">
+        <f>K12*150</f>
+        <v>11539200</v>
+      </c>
+      <c r="M15" s="27">
+        <v>639664</v>
+      </c>
+      <c r="N15" s="29">
+        <f>L15/M15</f>
+        <v>18.0394707221291</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="22">
+      <c r="A16" s="25">
         <f>$A15-7</f>
-        <v>43923</v>
-      </c>
-      <c r="B16" s="29">
-        <f>J16-J17</f>
-        <v>4792</v>
-      </c>
-      <c r="C16" s="30">
-        <f>B13*100</f>
-        <v>1561900</v>
-      </c>
-      <c r="D16" s="30">
-        <f>L16-L17</f>
-        <v>147527</v>
-      </c>
-      <c r="E16" s="31">
+        <v>43930</v>
+      </c>
+      <c r="B16" s="33">
+        <f>K16-K17</f>
+        <v>10624</v>
+      </c>
+      <c r="C16" s="27">
+        <f>B13*150</f>
+        <v>2043000</v>
+      </c>
+      <c r="D16" s="27">
+        <f>M16-M17</f>
+        <v>215411</v>
+      </c>
+      <c r="E16" s="29">
         <f>C16/D16</f>
-        <v>10.5872145437784</v>
-      </c>
-      <c r="F16" s="30">
+        <v>9.484195328929349</v>
+      </c>
+      <c r="F16" s="27">
         <v>5</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="30">
         <f>(C16/C19)^(1/3)</f>
-        <v>1.48267331704548</v>
-      </c>
-      <c r="H16" s="37"/>
-      <c r="I16" s="36">
+        <v>1.08633310680582</v>
+      </c>
+      <c r="H16" s="30">
+        <f>C16/C17</f>
+        <v>0.872014853703822</v>
+      </c>
+      <c r="I16" s="38"/>
+      <c r="J16" s="37">
         <f>$A15-7</f>
-        <v>43923</v>
-      </c>
-      <c r="J16" s="34">
-        <v>6088</v>
-      </c>
-      <c r="K16" s="30">
-        <f>J13*100</f>
-        <v>5023600</v>
-      </c>
-      <c r="L16" s="30">
-        <v>216721</v>
-      </c>
-      <c r="M16" s="31">
-        <f>K16/L16</f>
-        <v>23.1800333147226</v>
+        <v>43930</v>
+      </c>
+      <c r="K16" s="35">
+        <v>16712</v>
+      </c>
+      <c r="L16" s="27">
+        <f>K13*150</f>
+        <v>9578400</v>
+      </c>
+      <c r="M16" s="27">
+        <v>432132</v>
+      </c>
+      <c r="N16" s="29">
+        <f>L16/M16</f>
+        <v>22.1654494460026</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="22">
+      <c r="A17" s="25">
         <f>$A16-7</f>
-        <v>43916</v>
-      </c>
-      <c r="B17" s="29">
-        <f>J17-J18</f>
-        <v>1090</v>
-      </c>
-      <c r="C17" s="30">
-        <f>B14*100</f>
-        <v>1790500</v>
-      </c>
-      <c r="D17" s="30">
-        <f>L17-L18</f>
-        <v>59779</v>
-      </c>
-      <c r="E17" s="31">
+        <v>43923</v>
+      </c>
+      <c r="B17" s="33">
+        <f>K17-K18</f>
+        <v>4792</v>
+      </c>
+      <c r="C17" s="27">
+        <f>B14*150</f>
+        <v>2342850</v>
+      </c>
+      <c r="D17" s="27">
+        <f>M17-M18</f>
+        <v>147527</v>
+      </c>
+      <c r="E17" s="29">
         <f>C17/D17</f>
-        <v>29.9519898292042</v>
-      </c>
-      <c r="F17" s="30">
-        <v>7</v>
-      </c>
-      <c r="G17" s="32">
+        <v>15.8808218156676</v>
+      </c>
+      <c r="F17" s="27">
+        <v>5</v>
+      </c>
+      <c r="G17" s="30">
         <f>(C17/C20)^(1/3)</f>
-        <v>2.54204134080383</v>
-      </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="36">
+        <v>1.48267331704548</v>
+      </c>
+      <c r="H17" s="30">
+        <f>C17/C18</f>
+        <v>0.872326165875454</v>
+      </c>
+      <c r="I17" s="38"/>
+      <c r="J17" s="37">
         <f>$A16-7</f>
-        <v>43916</v>
-      </c>
-      <c r="J17" s="34">
-        <v>1296</v>
-      </c>
-      <c r="K17" s="30">
-        <f>J14*100</f>
-        <v>3461700</v>
-      </c>
-      <c r="L17" s="30">
-        <v>69194</v>
-      </c>
-      <c r="M17" s="31">
-        <f>K17/L17</f>
-        <v>50.028904240252</v>
+        <v>43923</v>
+      </c>
+      <c r="K17" s="35">
+        <v>6088</v>
+      </c>
+      <c r="L17" s="27">
+        <f>K14*150</f>
+        <v>7535400</v>
+      </c>
+      <c r="M17" s="27">
+        <v>216721</v>
+      </c>
+      <c r="N17" s="29">
+        <f>L17/M17</f>
+        <v>34.7700499720839</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="22">
+      <c r="A18" s="25">
         <f>$A17-7</f>
-        <v>43909</v>
-      </c>
-      <c r="B18" s="29">
-        <f>J18-J19</f>
-        <v>165</v>
-      </c>
-      <c r="C18" s="30">
-        <f>B15*100</f>
-        <v>1062400</v>
-      </c>
-      <c r="D18" s="30">
-        <f>L18-L19</f>
-        <v>8103</v>
-      </c>
-      <c r="E18" s="31">
+        <v>43916</v>
+      </c>
+      <c r="B18" s="33">
+        <f>K18-K19</f>
+        <v>1090</v>
+      </c>
+      <c r="C18" s="27">
+        <f>B15*150</f>
+        <v>2685750</v>
+      </c>
+      <c r="D18" s="27">
+        <f>M18-M19</f>
+        <v>59779</v>
+      </c>
+      <c r="E18" s="29">
         <f>C18/D18</f>
-        <v>131.111933851660</v>
-      </c>
-      <c r="F18" s="30">
-        <v>12</v>
-      </c>
-      <c r="G18" s="32">
+        <v>44.9279847438064</v>
+      </c>
+      <c r="F18" s="27">
+        <v>7</v>
+      </c>
+      <c r="G18" s="30">
         <f>(C18/C21)^(1/3)</f>
-        <v>4.00806453796077</v>
-      </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="36">
+        <v>2.54204134080383</v>
+      </c>
+      <c r="H18" s="30">
+        <f>C18/C19</f>
+        <v>1.68533509036145</v>
+      </c>
+      <c r="I18" s="38"/>
+      <c r="J18" s="37">
         <f>$A17-7</f>
-        <v>43909</v>
-      </c>
-      <c r="J18" s="34">
-        <v>206</v>
-      </c>
-      <c r="K18" s="30">
-        <f>J15*100</f>
-        <v>1671200</v>
-      </c>
-      <c r="L18" s="30">
-        <v>9415</v>
-      </c>
-      <c r="M18" s="31">
-        <f>K18/L18</f>
-        <v>177.503983005842</v>
+        <v>43916</v>
+      </c>
+      <c r="K18" s="35">
+        <v>1296</v>
+      </c>
+      <c r="L18" s="27">
+        <f>K15*150</f>
+        <v>5192550</v>
+      </c>
+      <c r="M18" s="27">
+        <v>69194</v>
+      </c>
+      <c r="N18" s="29">
+        <f>L18/M18</f>
+        <v>75.0433563603781</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="22">
+      <c r="A19" s="25">
         <f>$A18-7</f>
-        <v>43902</v>
-      </c>
-      <c r="B19" s="29">
-        <f>J19-J20</f>
-        <v>29</v>
-      </c>
-      <c r="C19" s="30">
-        <f>B16*100</f>
-        <v>479200</v>
-      </c>
-      <c r="D19" s="30">
-        <f>L19-L20</f>
-        <v>1153</v>
-      </c>
-      <c r="E19" s="31">
+        <v>43909</v>
+      </c>
+      <c r="B19" s="33">
+        <f>K19-K20</f>
+        <v>165</v>
+      </c>
+      <c r="C19" s="27">
+        <f>B16*150</f>
+        <v>1593600</v>
+      </c>
+      <c r="D19" s="27">
+        <f>M19-M20</f>
+        <v>8103</v>
+      </c>
+      <c r="E19" s="29">
         <f>C19/D19</f>
-        <v>415.611448395490</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32">
+        <v>196.667900777490</v>
+      </c>
+      <c r="F19" s="27">
+        <v>12</v>
+      </c>
+      <c r="G19" s="30">
         <f>(C19/C22)^(1/3)</f>
-        <v>5.48747983275193</v>
-      </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="36">
+        <v>4.00806453796077</v>
+      </c>
+      <c r="H19" s="30">
+        <f>C19/C20</f>
+        <v>2.21702838063439</v>
+      </c>
+      <c r="I19" s="38"/>
+      <c r="J19" s="37">
         <f>$A18-7</f>
-        <v>43902</v>
-      </c>
-      <c r="J19" s="34">
-        <v>41</v>
-      </c>
-      <c r="K19" s="30">
-        <f>J16*100</f>
-        <v>608800</v>
-      </c>
-      <c r="L19" s="30">
-        <v>1312</v>
-      </c>
-      <c r="M19" s="31">
-        <f>K19/L19</f>
-        <v>464.024390243902</v>
+        <v>43909</v>
+      </c>
+      <c r="K19" s="35">
+        <v>206</v>
+      </c>
+      <c r="L19" s="27">
+        <f>K16*150</f>
+        <v>2506800</v>
+      </c>
+      <c r="M19" s="27">
+        <v>9415</v>
+      </c>
+      <c r="N19" s="29">
+        <f>L19/M19</f>
+        <v>266.255974508763</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="22">
+      <c r="A20" s="25">
         <f>$A19-7</f>
-        <v>43895</v>
-      </c>
-      <c r="B20" s="29">
-        <f>J20-J21</f>
-        <v>11</v>
-      </c>
-      <c r="C20" s="30">
-        <f>B17*100</f>
-        <v>109000</v>
-      </c>
-      <c r="D20" s="30">
-        <f>L20-L21</f>
-        <v>100</v>
-      </c>
-      <c r="E20" s="31">
+        <v>43902</v>
+      </c>
+      <c r="B20" s="33">
+        <f>K20-K21</f>
+        <v>29</v>
+      </c>
+      <c r="C20" s="27">
+        <f>B17*150</f>
+        <v>718800</v>
+      </c>
+      <c r="D20" s="27">
+        <f>M20-M21</f>
+        <v>1153</v>
+      </c>
+      <c r="E20" s="29">
         <f>C20/D20</f>
-        <v>1090</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="32">
+        <v>623.417172593235</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="30">
         <f>(C20/C23)^(1/3)</f>
-        <v>4.62748057383939</v>
-      </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="36">
+        <v>5.48747983275193</v>
+      </c>
+      <c r="H20" s="30">
+        <f>C20/C21</f>
+        <v>4.39633027522936</v>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="37">
         <f>$A19-7</f>
-        <v>43895</v>
-      </c>
-      <c r="J20" s="34">
-        <v>12</v>
-      </c>
-      <c r="K20" s="30">
-        <f>J17*100</f>
-        <v>129600</v>
-      </c>
-      <c r="L20" s="30">
-        <v>159</v>
-      </c>
-      <c r="M20" s="31">
-        <f>K20/L20</f>
-        <v>815.094339622642</v>
+        <v>43902</v>
+      </c>
+      <c r="K20" s="35">
+        <v>41</v>
+      </c>
+      <c r="L20" s="27">
+        <f>K17*150</f>
+        <v>913200</v>
+      </c>
+      <c r="M20" s="27">
+        <v>1312</v>
+      </c>
+      <c r="N20" s="29">
+        <f>L20/M20</f>
+        <v>696.036585365854</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="22">
+      <c r="A21" s="25">
         <f>$A20-7</f>
-        <v>43888</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30">
-        <f>B18*100</f>
-        <v>16500</v>
-      </c>
-      <c r="D21" s="30">
-        <f>L21-L22</f>
-        <v>44</v>
-      </c>
-      <c r="E21" s="31">
+        <v>43895</v>
+      </c>
+      <c r="B21" s="33">
+        <f>K21-K22</f>
+        <v>11</v>
+      </c>
+      <c r="C21" s="27">
+        <f>B18*150</f>
+        <v>163500</v>
+      </c>
+      <c r="D21" s="27">
+        <f>M21-M22</f>
+        <v>100</v>
+      </c>
+      <c r="E21" s="29">
         <f>C21/D21</f>
-        <v>375</v>
-      </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="36">
+        <v>1635</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="30">
+        <f>(C21/C24)^(1/3)</f>
+        <v>4.62748057383939</v>
+      </c>
+      <c r="H21" s="30">
+        <f>C21/C22</f>
+        <v>6.60606060606061</v>
+      </c>
+      <c r="I21" s="38"/>
+      <c r="J21" s="37">
         <f>$A20-7</f>
-        <v>43888</v>
-      </c>
-      <c r="J21" s="34">
-        <v>1</v>
-      </c>
-      <c r="K21" s="30">
-        <f>J18*100</f>
-        <v>20600</v>
-      </c>
-      <c r="L21" s="30">
-        <v>59</v>
-      </c>
-      <c r="M21" s="31">
-        <f>K21/L21</f>
-        <v>349.152542372881</v>
+        <v>43895</v>
+      </c>
+      <c r="K21" s="35">
+        <v>12</v>
+      </c>
+      <c r="L21" s="27">
+        <f>K18*150</f>
+        <v>194400</v>
+      </c>
+      <c r="M21" s="27">
+        <v>159</v>
+      </c>
+      <c r="N21" s="29">
+        <f>L21/M21</f>
+        <v>1222.641509433960</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="22">
+      <c r="A22" s="25">
         <f>$A21-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30">
-        <f>B19*100</f>
-        <v>2900</v>
-      </c>
-      <c r="D22" s="30">
-        <f>L22-L23</f>
+        <v>43888</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="27">
+        <f>B19*150</f>
+        <v>24750</v>
+      </c>
+      <c r="D22" s="27">
+        <f>M22-M23</f>
+        <v>44</v>
+      </c>
+      <c r="E22" s="29">
+        <f>C22/D22</f>
+        <v>562.5</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30">
+        <f>C22/C23</f>
+        <v>5.68965517241379</v>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="37">
+        <f>$A21-7</f>
+        <v>43888</v>
+      </c>
+      <c r="K22" s="35">
         <v>1</v>
       </c>
-      <c r="E22" s="31">
-        <f>C22/D22</f>
-        <v>2900</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="36">
-        <f>$A21-7</f>
-        <v>43881</v>
-      </c>
-      <c r="J22" s="34"/>
-      <c r="K22" s="30">
-        <f>J19*100</f>
-        <v>4100</v>
-      </c>
-      <c r="L22" s="30">
-        <v>15</v>
-      </c>
-      <c r="M22" s="31">
-        <f>K22/L22</f>
-        <v>273.333333333333</v>
+      <c r="L22" s="27">
+        <f>K19*150</f>
+        <v>30900</v>
+      </c>
+      <c r="M22" s="27">
+        <v>59</v>
+      </c>
+      <c r="N22" s="29">
+        <f>L22/M22</f>
+        <v>523.728813559322</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="22">
+      <c r="A23" s="25">
         <f>$A22-7</f>
-        <v>43874</v>
-      </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30">
-        <f>B20*100</f>
-        <v>1100</v>
-      </c>
-      <c r="D23" s="30">
-        <f>L23-L24</f>
-        <v>2</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="36">
+        <v>43881</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="27">
+        <f>B20*150</f>
+        <v>4350</v>
+      </c>
+      <c r="D23" s="27">
+        <f>M23-M24</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="29">
+        <f>C23/D23</f>
+        <v>4350</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30">
+        <f>C23/C24</f>
+        <v>2.63636363636364</v>
+      </c>
+      <c r="I23" s="38"/>
+      <c r="J23" s="37">
         <f>$A22-7</f>
-        <v>43874</v>
-      </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="30">
-        <f>J20*100</f>
-        <v>1200</v>
-      </c>
-      <c r="L23" s="30">
-        <v>14</v>
-      </c>
-      <c r="M23" s="31">
-        <f>K23/L23</f>
-        <v>85.71428571428569</v>
+        <v>43881</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="27">
+        <f>K20*150</f>
+        <v>6150</v>
+      </c>
+      <c r="M23" s="27">
+        <v>15</v>
+      </c>
+      <c r="N23" s="29">
+        <f>L23/M23</f>
+        <v>410</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="22">
+      <c r="A24" s="25">
         <f>$A23-7</f>
-        <v>43867</v>
-      </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30">
-        <f>L24-L25</f>
-        <v>7</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="36">
+        <v>43874</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="27">
+        <f>B21*150</f>
+        <v>1650</v>
+      </c>
+      <c r="D24" s="27">
+        <f>M24-M25</f>
+        <v>2</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="37">
         <f>$A23-7</f>
-        <v>43867</v>
-      </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="30">
-        <f>J21*100</f>
-        <v>100</v>
-      </c>
-      <c r="L24" s="38">
-        <v>12</v>
-      </c>
-      <c r="M24" s="31">
-        <f>K24/L24</f>
-        <v>8.33333333333333</v>
+        <v>43874</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="27">
+        <f>K21*150</f>
+        <v>1800</v>
+      </c>
+      <c r="M24" s="27">
+        <v>14</v>
+      </c>
+      <c r="N24" s="29">
+        <f>L24/M24</f>
+        <v>128.571428571429</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="22">
+      <c r="A25" s="25">
         <f>$A24-7</f>
-        <v>43860</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30">
-        <f>L25-L26</f>
-        <v>4</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="36">
+        <v>43867</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27">
+        <f>M25-M26</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="37">
         <f>$A24-7</f>
-        <v>43860</v>
-      </c>
-      <c r="J25" s="34"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="38">
-        <v>5</v>
-      </c>
-      <c r="M25" s="31">
-        <f>K25/L25</f>
-        <v>0</v>
+        <v>43867</v>
+      </c>
+      <c r="K25" s="35"/>
+      <c r="L25" s="27">
+        <f>K22*150</f>
+        <v>150</v>
+      </c>
+      <c r="M25" s="39">
+        <v>12</v>
+      </c>
+      <c r="N25" s="29">
+        <f>L25/M25</f>
+        <v>12.5</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38">
-        <v>1</v>
-      </c>
-      <c r="M26" s="31">
-        <f>K26/L26</f>
+      <c r="A26" s="25">
+        <f>$A25-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27">
+        <f>M26-M27</f>
+        <v>4</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="37">
+        <f>$A25-7</f>
+        <v>43860</v>
+      </c>
+      <c r="K26" s="35"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="39">
+        <v>5</v>
+      </c>
+      <c r="N26" s="29">
+        <f>L26/M26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="44"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39">
+        <v>1</v>
+      </c>
+      <c r="N27" s="29">
+        <f>L27/M27</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" t="s" s="49">
-        <v>12</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="46"/>
       <c r="H28" s="46"/>
-      <c r="I28" s="50"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="48"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="44"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="45"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" s="40"/>
+      <c r="B29" t="s" s="50">
+        <v>13</v>
+      </c>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B28" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0padta9WRXNKrK-CmBCgoWKpA"/>
+    <hyperlink ref="B29" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0padta9WRXNKrK-CmBCgoWKpA"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -56,7 +56,7 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="20"/>
+        <color indexed="21"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>https://www.icloud.com/numbers/0padta9WRXNKrK-CmBCgoWKpA</t>
@@ -73,7 +73,7 @@
     <numFmt numFmtId="60" formatCode="#,##0.0"/>
     <numFmt numFmtId="61" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -112,9 +112,14 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="20"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="20"/>
+      <color indexed="21"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -150,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -350,6 +355,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -546,7 +566,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -583,7 +603,7 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -592,94 +612,109 @@
     <xf numFmtId="60" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="4" fillId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="6" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="60" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="6" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="6" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="4" fillId="5" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="7" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="4" fillId="5" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="4" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="61" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -688,19 +723,19 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="61" fontId="0" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,10 +762,11 @@
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdfdfdf"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="fff38731"/>
       <rgbColor rgb="fff27100"/>
-      <rgbColor rgb="ffd69500"/>
       <rgbColor rgb="fff0f0f0"/>
       <rgbColor rgb="ffd5d5d5"/>
+      <rgbColor rgb="ffd69500"/>
       <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
@@ -1793,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1876,1220 +1912,1324 @@
     <row r="3" ht="20.7" customHeight="1">
       <c r="A3" s="10">
         <f>$A4+7</f>
-        <v>44021</v>
+        <v>44035</v>
       </c>
       <c r="B3" s="11">
         <f>K3-K4</f>
-        <v>4300</v>
+        <v>6300</v>
       </c>
       <c r="C3" s="12">
         <f>D3*E3</f>
-        <v>1646040</v>
+        <v>1486580</v>
       </c>
       <c r="D3" s="13">
         <f>M3-M4</f>
-        <v>382800</v>
+        <v>478000</v>
       </c>
       <c r="E3" s="14">
-        <v>4.3</v>
+        <v>3.11</v>
       </c>
       <c r="F3" s="13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="15">
         <f>(C3/C6)^(1/3)</f>
-        <v>1.36655429044929</v>
+        <v>1.16301547210415</v>
       </c>
       <c r="H3" s="16">
         <f>C3/C4</f>
-        <v>1.18188867826986</v>
+        <v>1.00956196943973</v>
       </c>
       <c r="I3" s="17"/>
       <c r="J3" s="18">
         <f>$A4+7</f>
-        <v>44021</v>
+        <v>44035</v>
       </c>
       <c r="K3" s="19">
-        <v>135800</v>
+        <v>147400</v>
       </c>
       <c r="L3" s="20">
         <f>L4+C3</f>
-        <v>24383160</v>
+        <v>26217480</v>
       </c>
       <c r="M3" s="13">
-        <v>3220000</v>
-      </c>
-      <c r="N3" s="14">
+        <v>4173000</v>
+      </c>
+      <c r="N3" s="21">
         <f>L3/M3</f>
-        <v>7.5724099378882</v>
+        <v>6.28264557872035</v>
       </c>
     </row>
     <row r="4" ht="20.7" customHeight="1">
-      <c r="A4" s="10">
+      <c r="A4" s="22">
         <f>$A5+7</f>
-        <v>44014</v>
+        <v>44028</v>
       </c>
       <c r="B4" s="11">
         <f>K4-K5</f>
-        <v>4523</v>
+        <v>5300</v>
       </c>
       <c r="C4" s="12">
         <f>D4*E4</f>
-        <v>1392720</v>
+        <v>1472500</v>
       </c>
       <c r="D4" s="13">
         <f>M4-M5</f>
-        <v>331600</v>
+        <v>475000</v>
       </c>
       <c r="E4" s="14">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="F4" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" s="15">
         <f>(C4/C7)^(1/3)</f>
-        <v>1.27091153611368</v>
+        <v>1.22808772805461</v>
       </c>
       <c r="H4" s="16">
         <f>C4/C5</f>
-        <v>1.42931034482759</v>
+        <v>1.28221873911529</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="18">
         <f>$A5+7</f>
-        <v>44014</v>
+        <v>44028</v>
       </c>
       <c r="K4" s="19">
-        <v>131500</v>
+        <v>141100</v>
       </c>
       <c r="L4" s="20">
         <f>L5+C4</f>
-        <v>22737120</v>
+        <v>24730900</v>
       </c>
       <c r="M4" s="13">
-        <v>2837200</v>
-      </c>
-      <c r="N4" s="14">
+        <v>3695000</v>
+      </c>
+      <c r="N4" s="21">
         <f>L4/M4</f>
-        <v>8.01392922599746</v>
+        <v>6.69307171853857</v>
       </c>
     </row>
     <row r="5" ht="20.7" customHeight="1">
-      <c r="A5" s="21">
+      <c r="A5" s="23">
         <f>$A6+7</f>
-        <v>44007</v>
+        <v>44021</v>
       </c>
       <c r="B5" s="11">
         <f>K5-K6</f>
-        <v>6177</v>
+        <v>4300</v>
       </c>
       <c r="C5" s="12">
         <f>D5*E5</f>
-        <v>974400</v>
+        <v>1148400</v>
       </c>
       <c r="D5" s="13">
         <f>M5-M6</f>
-        <v>243600</v>
-      </c>
-      <c r="E5" s="22">
-        <v>4</v>
+        <v>382800</v>
+      </c>
+      <c r="E5" s="24">
+        <v>3</v>
       </c>
       <c r="F5" s="13">
-        <v>17</v>
-      </c>
-      <c r="G5" s="23">
+        <v>13</v>
+      </c>
+      <c r="G5" s="25">
         <f>(C5/C8)^(1/3)</f>
-        <v>1.01692628201869</v>
+        <v>1.21202382351209</v>
       </c>
       <c r="H5" s="16">
         <f>C5/C6</f>
-        <v>1.5106976744186</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18">
+        <v>1.2152380952381</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27">
         <f>$A6+7</f>
-        <v>44007</v>
+        <v>44021</v>
       </c>
       <c r="K5" s="19">
-        <v>126977</v>
-      </c>
-      <c r="L5" s="24">
+        <v>135800</v>
+      </c>
+      <c r="L5" s="28">
         <f>L6+C5</f>
-        <v>21344400</v>
+        <v>23258400</v>
       </c>
       <c r="M5" s="13">
-        <v>2505600</v>
-      </c>
-      <c r="N5" s="22">
+        <v>3220000</v>
+      </c>
+      <c r="N5" s="29">
         <f>L5/M5</f>
-        <v>8.51867816091954</v>
+        <v>7.22310559006211</v>
       </c>
     </row>
     <row r="6" ht="20.7" customHeight="1">
-      <c r="A6" s="25">
+      <c r="A6" s="10">
         <f>$A7+7</f>
-        <v>44000</v>
-      </c>
-      <c r="B6" s="26">
+        <v>44014</v>
+      </c>
+      <c r="B6" s="11">
         <f>K6-K7</f>
-        <v>4766</v>
-      </c>
-      <c r="C6" s="27">
+        <v>4523</v>
+      </c>
+      <c r="C6" s="30">
         <f>B3*150</f>
-        <v>645000</v>
-      </c>
-      <c r="D6" s="28">
+        <v>945000</v>
+      </c>
+      <c r="D6" s="13">
         <f>M6-M7</f>
-        <v>172299</v>
-      </c>
-      <c r="E6" s="29">
+        <v>331600</v>
+      </c>
+      <c r="E6" s="31">
         <f>C6/D6</f>
-        <v>3.74349241725141</v>
-      </c>
-      <c r="F6" s="28">
-        <v>21</v>
-      </c>
-      <c r="G6" s="30">
+        <v>2.84981905910736</v>
+      </c>
+      <c r="F6" s="13">
+        <v>14</v>
+      </c>
+      <c r="G6" s="32">
         <f>(C6/C9)^(1/3)</f>
-        <v>0.966284038773475</v>
-      </c>
-      <c r="H6" s="30">
+        <v>1.11678949610756</v>
+      </c>
+      <c r="H6" s="32">
         <f>C6/C7</f>
-        <v>0.950696440415653</v>
-      </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="18">
+        <v>1.18867924528302</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27">
         <f>$A7+7</f>
-        <v>44000</v>
-      </c>
-      <c r="K6" s="32">
-        <v>120800</v>
-      </c>
-      <c r="L6" s="27">
+        <v>44014</v>
+      </c>
+      <c r="K6" s="19">
+        <v>131500</v>
+      </c>
+      <c r="L6" s="30">
         <f>K3*150</f>
-        <v>20370000</v>
-      </c>
-      <c r="M6" s="28">
-        <v>2262000</v>
-      </c>
-      <c r="N6" s="29">
+        <v>22110000</v>
+      </c>
+      <c r="M6" s="13">
+        <v>2837200</v>
+      </c>
+      <c r="N6" s="31">
         <f>L6/M6</f>
-        <v>9.0053050397878</v>
+        <v>7.79289440293247</v>
       </c>
     </row>
     <row r="7" ht="20.7" customHeight="1">
-      <c r="A7" s="25">
+      <c r="A7" s="22">
         <f>$A8+7</f>
-        <v>43993</v>
-      </c>
-      <c r="B7" s="33">
+        <v>44007</v>
+      </c>
+      <c r="B7" s="11">
         <f>K7-K8</f>
-        <v>5861</v>
-      </c>
-      <c r="C7" s="27">
+        <v>6177</v>
+      </c>
+      <c r="C7" s="30">
         <f>B4*150</f>
-        <v>678450</v>
-      </c>
-      <c r="D7" s="27">
+        <v>795000</v>
+      </c>
+      <c r="D7" s="13">
         <f>M7-M8</f>
-        <v>165650</v>
-      </c>
-      <c r="E7" s="29">
+        <v>243600</v>
+      </c>
+      <c r="E7" s="31">
         <f>C7/D7</f>
-        <v>4.09568367038938</v>
-      </c>
-      <c r="F7" s="27">
-        <v>21</v>
-      </c>
-      <c r="G7" s="30">
+        <v>3.26354679802956</v>
+      </c>
+      <c r="F7" s="13">
+        <v>17</v>
+      </c>
+      <c r="G7" s="32">
         <f>(C7/C10)^(1/3)</f>
-        <v>0.917244160267474</v>
-      </c>
-      <c r="H7" s="30">
+        <v>0.950238792558697</v>
+      </c>
+      <c r="H7" s="32">
         <f>C7/C8</f>
-        <v>0.73223247531164</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="18">
+        <v>1.23255813953488</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="27">
         <f>$A8+7</f>
-        <v>43993</v>
-      </c>
-      <c r="K7" s="35">
-        <v>116034</v>
-      </c>
-      <c r="L7" s="27">
+        <v>44007</v>
+      </c>
+      <c r="K7" s="19">
+        <v>126977</v>
+      </c>
+      <c r="L7" s="30">
         <f>K4*150</f>
-        <v>19725000</v>
-      </c>
-      <c r="M7" s="27">
-        <v>2089701</v>
-      </c>
-      <c r="N7" s="29">
+        <v>21165000</v>
+      </c>
+      <c r="M7" s="13">
+        <v>2505600</v>
+      </c>
+      <c r="N7" s="31">
         <f>L7/M7</f>
-        <v>9.439149428554609</v>
+        <v>8.4470785440613</v>
       </c>
     </row>
     <row r="8" ht="20.7" customHeight="1">
-      <c r="A8" s="25">
+      <c r="A8" s="33">
         <f>$A9+7</f>
+        <v>44000</v>
+      </c>
+      <c r="B8" s="34">
+        <f>K8-K9</f>
+        <v>4766</v>
+      </c>
+      <c r="C8" s="30">
+        <f>B5*150</f>
+        <v>645000</v>
+      </c>
+      <c r="D8" s="35">
+        <f>M8-M9</f>
+        <v>172299</v>
+      </c>
+      <c r="E8" s="31">
+        <f>C8/D8</f>
+        <v>3.74349241725141</v>
+      </c>
+      <c r="F8" s="35">
+        <v>21</v>
+      </c>
+      <c r="G8" s="32">
+        <f>(C8/C11)^(1/3)</f>
+        <v>0.966284038773475</v>
+      </c>
+      <c r="H8" s="32">
+        <f>C8/C9</f>
+        <v>0.950696440415653</v>
+      </c>
+      <c r="I8" s="36"/>
+      <c r="J8" s="27">
+        <f>$A9+7</f>
+        <v>44000</v>
+      </c>
+      <c r="K8" s="37">
+        <v>120800</v>
+      </c>
+      <c r="L8" s="30">
+        <f>K5*150</f>
+        <v>20370000</v>
+      </c>
+      <c r="M8" s="35">
+        <v>2262000</v>
+      </c>
+      <c r="N8" s="31">
+        <f>L8/M8</f>
+        <v>9.0053050397878</v>
+      </c>
+    </row>
+    <row r="9" ht="20.7" customHeight="1">
+      <c r="A9" s="33">
+        <f>$A10+7</f>
+        <v>43993</v>
+      </c>
+      <c r="B9" s="38">
+        <f>K9-K10</f>
+        <v>5861</v>
+      </c>
+      <c r="C9" s="30">
+        <f>B6*150</f>
+        <v>678450</v>
+      </c>
+      <c r="D9" s="30">
+        <f>M9-M10</f>
+        <v>165650</v>
+      </c>
+      <c r="E9" s="31">
+        <f>C9/D9</f>
+        <v>4.09568367038938</v>
+      </c>
+      <c r="F9" s="30">
+        <v>21</v>
+      </c>
+      <c r="G9" s="32">
+        <f>(C9/C12)^(1/3)</f>
+        <v>0.917244160267474</v>
+      </c>
+      <c r="H9" s="32">
+        <f>C9/C10</f>
+        <v>0.73223247531164</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="27">
+        <f>$A10+7</f>
+        <v>43993</v>
+      </c>
+      <c r="K9" s="40">
+        <v>116034</v>
+      </c>
+      <c r="L9" s="30">
+        <f>K6*150</f>
+        <v>19725000</v>
+      </c>
+      <c r="M9" s="30">
+        <v>2089701</v>
+      </c>
+      <c r="N9" s="31">
+        <f>L9/M9</f>
+        <v>9.439149428554609</v>
+      </c>
+    </row>
+    <row r="10" ht="20.7" customHeight="1">
+      <c r="A10" s="33">
+        <f>$A11+7</f>
         <v>43986</v>
       </c>
-      <c r="B8" s="33">
-        <f>K8-K9</f>
+      <c r="B10" s="38">
+        <f>K10-K11</f>
         <v>6573</v>
       </c>
-      <c r="C8" s="27">
-        <f>B5*150</f>
+      <c r="C10" s="30">
+        <f>B7*150</f>
         <v>926550</v>
       </c>
-      <c r="D8" s="27">
-        <f>M8-M9</f>
+      <c r="D10" s="30">
+        <f>M10-M11</f>
         <v>159051</v>
       </c>
-      <c r="E8" s="29">
-        <f>C8/D8</f>
+      <c r="E10" s="31">
+        <f>C10/D10</f>
         <v>5.82548993718996</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F10" s="30">
         <v>20</v>
       </c>
-      <c r="G8" s="30">
-        <f>(C8/C11)^(1/3)</f>
+      <c r="G10" s="32">
+        <f>(C10/C13)^(1/3)</f>
         <v>0.979500487211567</v>
       </c>
-      <c r="H8" s="30">
-        <f>C8/C9</f>
+      <c r="H10" s="32">
+        <f>C10/C11</f>
         <v>1.29605539236257</v>
       </c>
-      <c r="I8" s="34"/>
-      <c r="J8" s="36">
-        <f>$A9+7</f>
+      <c r="I10" s="39"/>
+      <c r="J10" s="41">
+        <f>$A11+7</f>
         <v>43986</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K10" s="40">
         <v>110173</v>
       </c>
-      <c r="L8" s="27">
-        <f>K5*150</f>
+      <c r="L10" s="30">
+        <f>K7*150</f>
         <v>19046550</v>
       </c>
-      <c r="M8" s="27">
+      <c r="M10" s="30">
         <v>1924051</v>
       </c>
-      <c r="N8" s="29">
-        <f>L8/M8</f>
+      <c r="N10" s="31">
+        <f>L10/M10</f>
         <v>9.899191861338389</v>
       </c>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="25">
-        <f>$A10+7</f>
+    <row r="11" ht="20.35" customHeight="1">
+      <c r="A11" s="33">
+        <f>$A12+7</f>
         <v>43979</v>
       </c>
-      <c r="B9" s="33">
-        <f>K9-K10</f>
+      <c r="B11" s="38">
+        <f>K11-K12</f>
         <v>7246</v>
       </c>
-      <c r="C9" s="27">
-        <f>B6*150</f>
+      <c r="C11" s="30">
+        <f>B8*150</f>
         <v>714900</v>
       </c>
-      <c r="D9" s="27">
-        <f>M9-M10</f>
+      <c r="D11" s="30">
+        <f>M11-M12</f>
         <v>144103</v>
       </c>
-      <c r="E9" s="29">
-        <f>C9/D9</f>
+      <c r="E11" s="31">
+        <f>C11/D11</f>
         <v>4.96103481537511</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F11" s="30">
         <v>18</v>
       </c>
-      <c r="G9" s="30">
-        <f>(C9/C12)^(1/3)</f>
+      <c r="G11" s="32">
+        <f>(C11/C14)^(1/3)</f>
         <v>0.86966482116181</v>
       </c>
-      <c r="H9" s="30">
-        <f>C9/C10</f>
+      <c r="H11" s="32">
+        <f>C11/C12</f>
         <v>0.813171813683672</v>
       </c>
-      <c r="I9" s="34"/>
-      <c r="J9" s="37">
-        <f>$A10+7</f>
+      <c r="I11" s="39"/>
+      <c r="J11" s="42">
+        <f>$A12+7</f>
         <v>43979</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K11" s="40">
         <v>103600</v>
       </c>
-      <c r="L9" s="27">
-        <f>K6*150</f>
+      <c r="L11" s="30">
+        <f>K8*150</f>
         <v>18120000</v>
       </c>
-      <c r="M9" s="27">
+      <c r="M11" s="30">
         <v>1765000</v>
       </c>
-      <c r="N9" s="29">
-        <f>L9/M9</f>
+      <c r="N11" s="31">
+        <f>L11/M11</f>
         <v>10.2662889518414</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="25">
-        <f>$A11+7</f>
-        <v>43972</v>
-      </c>
-      <c r="B10" s="33">
-        <f>K10-K11</f>
-        <v>9354</v>
-      </c>
-      <c r="C10" s="27">
-        <f>B7*150</f>
-        <v>879150</v>
-      </c>
-      <c r="D10" s="27">
-        <f>M10-M11</f>
-        <v>180897</v>
-      </c>
-      <c r="E10" s="29">
-        <f>C10/D10</f>
-        <v>4.85994792616793</v>
-      </c>
-      <c r="F10" s="27">
-        <v>17</v>
-      </c>
-      <c r="G10" s="30">
-        <f>(C10/C13)^(1/3)</f>
-        <v>0.855706410034197</v>
-      </c>
-      <c r="H10" s="30">
-        <f>C10/C11</f>
-        <v>0.891678076981591</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="37">
-        <f>$A11+7</f>
-        <v>43972</v>
-      </c>
-      <c r="K10" s="35">
-        <v>96354</v>
-      </c>
-      <c r="L10" s="27">
-        <f>K7*150</f>
-        <v>17405100</v>
-      </c>
-      <c r="M10" s="27">
-        <v>1620897</v>
-      </c>
-      <c r="N10" s="29">
-        <f>L10/M10</f>
-        <v>10.7379432499412</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="25">
-        <v>43965</v>
-      </c>
-      <c r="B11" s="33">
-        <f>K11-K12</f>
-        <v>10072</v>
-      </c>
-      <c r="C11" s="27">
-        <f>B8*150</f>
-        <v>985950</v>
-      </c>
-      <c r="D11" s="27">
-        <f>M11-M12</f>
-        <v>147377</v>
-      </c>
-      <c r="E11" s="29">
-        <f>C11/D11</f>
-        <v>6.68998554726993</v>
-      </c>
-      <c r="F11" s="27">
-        <v>14</v>
-      </c>
-      <c r="G11" s="30">
-        <f>(C11/C14)^(1/3)</f>
-        <v>0.867393117289844</v>
-      </c>
-      <c r="H11" s="30">
-        <f>C11/C12</f>
-        <v>0.907121170300856</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="37">
-        <v>43965</v>
-      </c>
-      <c r="K11" s="35">
-        <v>87000</v>
-      </c>
-      <c r="L11" s="27">
-        <f>K8*150</f>
-        <v>16525950</v>
-      </c>
-      <c r="M11" s="27">
-        <v>1440000</v>
-      </c>
-      <c r="N11" s="29">
-        <f>L11/M11</f>
-        <v>11.4763541666667</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="25">
-        <v>43958</v>
-      </c>
-      <c r="B12" s="33">
+      <c r="A12" s="33">
+        <f>$A13+7</f>
+        <v>43972</v>
+      </c>
+      <c r="B12" s="38">
         <f>K12-K13</f>
-        <v>13072</v>
-      </c>
-      <c r="C12" s="27">
+        <v>9354</v>
+      </c>
+      <c r="C12" s="30">
         <f>B9*150</f>
-        <v>1086900</v>
-      </c>
-      <c r="D12" s="27">
+        <v>879150</v>
+      </c>
+      <c r="D12" s="30">
         <f>M12-M13</f>
-        <v>197600</v>
-      </c>
-      <c r="E12" s="29">
+        <v>180897</v>
+      </c>
+      <c r="E12" s="31">
         <f>C12/D12</f>
-        <v>5.50050607287449</v>
-      </c>
-      <c r="F12" s="27">
-        <v>10</v>
-      </c>
-      <c r="G12" s="30">
+        <v>4.85994792616793</v>
+      </c>
+      <c r="F12" s="30">
+        <v>17</v>
+      </c>
+      <c r="G12" s="32">
         <f>(C12/C15)^(1/3)</f>
-        <v>0.821458126164389</v>
-      </c>
-      <c r="H12" s="30">
+        <v>0.855706410034197</v>
+      </c>
+      <c r="H12" s="32">
         <f>C12/C13</f>
-        <v>0.774641864443019</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="37">
-        <v>43958</v>
-      </c>
-      <c r="K12" s="35">
-        <v>76928</v>
-      </c>
-      <c r="L12" s="27">
+        <v>0.891678076981591</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="42">
+        <f>$A13+7</f>
+        <v>43972</v>
+      </c>
+      <c r="K12" s="40">
+        <v>96354</v>
+      </c>
+      <c r="L12" s="30">
         <f>K9*150</f>
-        <v>15540000</v>
-      </c>
-      <c r="M12" s="27">
-        <v>1292623</v>
-      </c>
-      <c r="N12" s="29">
+        <v>17405100</v>
+      </c>
+      <c r="M12" s="30">
+        <v>1620897</v>
+      </c>
+      <c r="N12" s="31">
         <f>L12/M12</f>
-        <v>12.0220667588307</v>
+        <v>10.7379432499412</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="25">
-        <v>43951</v>
-      </c>
-      <c r="B13" s="33">
+      <c r="A13" s="33">
+        <v>43965</v>
+      </c>
+      <c r="B13" s="38">
         <f>K13-K14</f>
-        <v>13620</v>
-      </c>
-      <c r="C13" s="27">
+        <v>10072</v>
+      </c>
+      <c r="C13" s="30">
         <f>B10*150</f>
-        <v>1403100</v>
-      </c>
-      <c r="D13" s="27">
+        <v>985950</v>
+      </c>
+      <c r="D13" s="30">
         <f>M13-M14</f>
-        <v>208581</v>
-      </c>
-      <c r="E13" s="29">
+        <v>147377</v>
+      </c>
+      <c r="E13" s="31">
         <f>C13/D13</f>
-        <v>6.72688308139284</v>
-      </c>
-      <c r="F13" s="27">
-        <v>8</v>
-      </c>
-      <c r="G13" s="30">
+        <v>6.68998554726993</v>
+      </c>
+      <c r="F13" s="30">
+        <v>14</v>
+      </c>
+      <c r="G13" s="32">
         <f>(C13/C16)^(1/3)</f>
-        <v>0.882280646327855</v>
-      </c>
-      <c r="H13" s="30">
+        <v>0.867393117289844</v>
+      </c>
+      <c r="H13" s="32">
         <f>C13/C14</f>
-        <v>0.928713264495631</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="37">
-        <v>43951</v>
-      </c>
-      <c r="K13" s="35">
-        <v>63856</v>
-      </c>
-      <c r="L13" s="27">
+        <v>0.907121170300856</v>
+      </c>
+      <c r="I13" s="43"/>
+      <c r="J13" s="42">
+        <v>43965</v>
+      </c>
+      <c r="K13" s="40">
+        <v>87000</v>
+      </c>
+      <c r="L13" s="30">
         <f>K10*150</f>
-        <v>14453100</v>
-      </c>
-      <c r="M13" s="27">
-        <v>1095023</v>
-      </c>
-      <c r="N13" s="29">
+        <v>16525950</v>
+      </c>
+      <c r="M13" s="30">
+        <v>1440000</v>
+      </c>
+      <c r="N13" s="31">
         <f>L13/M13</f>
-        <v>13.1989008450051</v>
+        <v>11.4763541666667</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="25">
-        <v>43944</v>
-      </c>
-      <c r="B14" s="33">
+      <c r="A14" s="33">
+        <v>43958</v>
+      </c>
+      <c r="B14" s="38">
         <f>K14-K15</f>
-        <v>15619</v>
-      </c>
-      <c r="C14" s="27">
+        <v>13072</v>
+      </c>
+      <c r="C14" s="30">
         <f>B11*150</f>
-        <v>1510800</v>
-      </c>
-      <c r="D14" s="27">
+        <v>1086900</v>
+      </c>
+      <c r="D14" s="30">
         <f>M14-M15</f>
-        <v>246778</v>
-      </c>
-      <c r="E14" s="29">
+        <v>197600</v>
+      </c>
+      <c r="E14" s="31">
         <f>C14/D14</f>
-        <v>6.12210164601383</v>
-      </c>
-      <c r="F14" s="27">
-        <v>6</v>
-      </c>
-      <c r="G14" s="30">
+        <v>5.50050607287449</v>
+      </c>
+      <c r="F14" s="30">
+        <v>10</v>
+      </c>
+      <c r="G14" s="32">
         <f>(C14/C17)^(1/3)</f>
-        <v>0.863947788733022</v>
-      </c>
-      <c r="H14" s="30">
+        <v>0.821458126164389</v>
+      </c>
+      <c r="H14" s="32">
         <f>C14/C15</f>
-        <v>0.770501835985312</v>
-      </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="37">
-        <v>43944</v>
-      </c>
-      <c r="K14" s="35">
-        <v>50236</v>
-      </c>
-      <c r="L14" s="27">
+        <v>0.774641864443019</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="42">
+        <v>43958</v>
+      </c>
+      <c r="K14" s="40">
+        <v>76928</v>
+      </c>
+      <c r="L14" s="30">
         <f>K11*150</f>
-        <v>13050000</v>
-      </c>
-      <c r="M14" s="27">
-        <v>886442</v>
-      </c>
-      <c r="N14" s="29">
+        <v>15540000</v>
+      </c>
+      <c r="M14" s="30">
+        <v>1292623</v>
+      </c>
+      <c r="N14" s="31">
         <f>L14/M14</f>
-        <v>14.7217753671419</v>
+        <v>12.0220667588307</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="25">
-        <v>43937</v>
-      </c>
-      <c r="B15" s="33">
+      <c r="A15" s="33">
+        <v>43951</v>
+      </c>
+      <c r="B15" s="38">
         <f>K15-K16</f>
-        <v>17905</v>
-      </c>
-      <c r="C15" s="27">
+        <v>13620</v>
+      </c>
+      <c r="C15" s="30">
         <f>B12*150</f>
-        <v>1960800</v>
-      </c>
-      <c r="D15" s="27">
+        <v>1403100</v>
+      </c>
+      <c r="D15" s="30">
         <f>M15-M16</f>
-        <v>207532</v>
-      </c>
-      <c r="E15" s="29">
+        <v>208581</v>
+      </c>
+      <c r="E15" s="31">
         <f>C15/D15</f>
-        <v>9.44818148526492</v>
-      </c>
-      <c r="F15" s="27">
-        <v>5</v>
-      </c>
-      <c r="G15" s="30">
+        <v>6.72688308139284</v>
+      </c>
+      <c r="F15" s="30">
+        <v>8</v>
+      </c>
+      <c r="G15" s="32">
         <f>(C15/C18)^(1/3)</f>
-        <v>0.90044233315585</v>
-      </c>
-      <c r="H15" s="30">
+        <v>0.882280646327855</v>
+      </c>
+      <c r="H15" s="32">
         <f>C15/C16</f>
-        <v>0.959765051395007</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="37">
-        <v>43937</v>
-      </c>
-      <c r="K15" s="35">
-        <v>34617</v>
-      </c>
-      <c r="L15" s="27">
+        <v>0.928713264495631</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="42">
+        <v>43951</v>
+      </c>
+      <c r="K15" s="40">
+        <v>63856</v>
+      </c>
+      <c r="L15" s="30">
         <f>K12*150</f>
-        <v>11539200</v>
-      </c>
-      <c r="M15" s="27">
-        <v>639664</v>
-      </c>
-      <c r="N15" s="29">
+        <v>14453100</v>
+      </c>
+      <c r="M15" s="30">
+        <v>1095023</v>
+      </c>
+      <c r="N15" s="31">
         <f>L15/M15</f>
-        <v>18.0394707221291</v>
+        <v>13.1989008450051</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="25">
-        <f>$A15-7</f>
-        <v>43930</v>
-      </c>
-      <c r="B16" s="33">
+      <c r="A16" s="33">
+        <v>43944</v>
+      </c>
+      <c r="B16" s="38">
         <f>K16-K17</f>
-        <v>10624</v>
-      </c>
-      <c r="C16" s="27">
+        <v>15619</v>
+      </c>
+      <c r="C16" s="30">
         <f>B13*150</f>
-        <v>2043000</v>
-      </c>
-      <c r="D16" s="27">
+        <v>1510800</v>
+      </c>
+      <c r="D16" s="30">
         <f>M16-M17</f>
-        <v>215411</v>
-      </c>
-      <c r="E16" s="29">
+        <v>246778</v>
+      </c>
+      <c r="E16" s="31">
         <f>C16/D16</f>
-        <v>9.484195328929349</v>
-      </c>
-      <c r="F16" s="27">
-        <v>5</v>
-      </c>
-      <c r="G16" s="30">
+        <v>6.12210164601383</v>
+      </c>
+      <c r="F16" s="30">
+        <v>6</v>
+      </c>
+      <c r="G16" s="32">
         <f>(C16/C19)^(1/3)</f>
-        <v>1.08633310680582</v>
-      </c>
-      <c r="H16" s="30">
+        <v>0.863947788733022</v>
+      </c>
+      <c r="H16" s="32">
         <f>C16/C17</f>
-        <v>0.872014853703822</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="37">
-        <f>$A15-7</f>
-        <v>43930</v>
-      </c>
-      <c r="K16" s="35">
-        <v>16712</v>
-      </c>
-      <c r="L16" s="27">
+        <v>0.770501835985312</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="42">
+        <v>43944</v>
+      </c>
+      <c r="K16" s="40">
+        <v>50236</v>
+      </c>
+      <c r="L16" s="30">
         <f>K13*150</f>
-        <v>9578400</v>
-      </c>
-      <c r="M16" s="27">
-        <v>432132</v>
-      </c>
-      <c r="N16" s="29">
+        <v>13050000</v>
+      </c>
+      <c r="M16" s="30">
+        <v>886442</v>
+      </c>
+      <c r="N16" s="31">
         <f>L16/M16</f>
-        <v>22.1654494460026</v>
+        <v>14.7217753671419</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="25">
-        <f>$A16-7</f>
-        <v>43923</v>
-      </c>
-      <c r="B17" s="33">
+      <c r="A17" s="33">
+        <v>43937</v>
+      </c>
+      <c r="B17" s="38">
         <f>K17-K18</f>
-        <v>4792</v>
-      </c>
-      <c r="C17" s="27">
+        <v>17905</v>
+      </c>
+      <c r="C17" s="30">
         <f>B14*150</f>
-        <v>2342850</v>
-      </c>
-      <c r="D17" s="27">
+        <v>1960800</v>
+      </c>
+      <c r="D17" s="30">
         <f>M17-M18</f>
-        <v>147527</v>
-      </c>
-      <c r="E17" s="29">
+        <v>207532</v>
+      </c>
+      <c r="E17" s="31">
         <f>C17/D17</f>
-        <v>15.8808218156676</v>
-      </c>
-      <c r="F17" s="27">
+        <v>9.44818148526492</v>
+      </c>
+      <c r="F17" s="30">
         <v>5</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="32">
         <f>(C17/C20)^(1/3)</f>
-        <v>1.48267331704548</v>
-      </c>
-      <c r="H17" s="30">
+        <v>0.90044233315585</v>
+      </c>
+      <c r="H17" s="32">
         <f>C17/C18</f>
-        <v>0.872326165875454</v>
-      </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="37">
-        <f>$A16-7</f>
-        <v>43923</v>
-      </c>
-      <c r="K17" s="35">
-        <v>6088</v>
-      </c>
-      <c r="L17" s="27">
+        <v>0.959765051395007</v>
+      </c>
+      <c r="I17" s="43"/>
+      <c r="J17" s="42">
+        <v>43937</v>
+      </c>
+      <c r="K17" s="40">
+        <v>34617</v>
+      </c>
+      <c r="L17" s="30">
         <f>K14*150</f>
-        <v>7535400</v>
-      </c>
-      <c r="M17" s="27">
-        <v>216721</v>
-      </c>
-      <c r="N17" s="29">
+        <v>11539200</v>
+      </c>
+      <c r="M17" s="30">
+        <v>639664</v>
+      </c>
+      <c r="N17" s="31">
         <f>L17/M17</f>
-        <v>34.7700499720839</v>
+        <v>18.0394707221291</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="25">
+      <c r="A18" s="33">
         <f>$A17-7</f>
-        <v>43916</v>
-      </c>
-      <c r="B18" s="33">
+        <v>43930</v>
+      </c>
+      <c r="B18" s="38">
         <f>K18-K19</f>
-        <v>1090</v>
-      </c>
-      <c r="C18" s="27">
+        <v>10624</v>
+      </c>
+      <c r="C18" s="30">
         <f>B15*150</f>
-        <v>2685750</v>
-      </c>
-      <c r="D18" s="27">
+        <v>2043000</v>
+      </c>
+      <c r="D18" s="30">
         <f>M18-M19</f>
-        <v>59779</v>
-      </c>
-      <c r="E18" s="29">
+        <v>215411</v>
+      </c>
+      <c r="E18" s="31">
         <f>C18/D18</f>
-        <v>44.9279847438064</v>
-      </c>
-      <c r="F18" s="27">
-        <v>7</v>
-      </c>
-      <c r="G18" s="30">
+        <v>9.484195328929349</v>
+      </c>
+      <c r="F18" s="30">
+        <v>5</v>
+      </c>
+      <c r="G18" s="32">
         <f>(C18/C21)^(1/3)</f>
-        <v>2.54204134080383</v>
-      </c>
-      <c r="H18" s="30">
+        <v>1.08633310680582</v>
+      </c>
+      <c r="H18" s="32">
         <f>C18/C19</f>
-        <v>1.68533509036145</v>
-      </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="37">
+        <v>0.872014853703822</v>
+      </c>
+      <c r="I18" s="43"/>
+      <c r="J18" s="42">
         <f>$A17-7</f>
-        <v>43916</v>
-      </c>
-      <c r="K18" s="35">
-        <v>1296</v>
-      </c>
-      <c r="L18" s="27">
+        <v>43930</v>
+      </c>
+      <c r="K18" s="40">
+        <v>16712</v>
+      </c>
+      <c r="L18" s="30">
         <f>K15*150</f>
-        <v>5192550</v>
-      </c>
-      <c r="M18" s="27">
-        <v>69194</v>
-      </c>
-      <c r="N18" s="29">
+        <v>9578400</v>
+      </c>
+      <c r="M18" s="30">
+        <v>432132</v>
+      </c>
+      <c r="N18" s="31">
         <f>L18/M18</f>
-        <v>75.0433563603781</v>
+        <v>22.1654494460026</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="25">
+      <c r="A19" s="33">
         <f>$A18-7</f>
-        <v>43909</v>
-      </c>
-      <c r="B19" s="33">
+        <v>43923</v>
+      </c>
+      <c r="B19" s="38">
         <f>K19-K20</f>
-        <v>165</v>
-      </c>
-      <c r="C19" s="27">
+        <v>4792</v>
+      </c>
+      <c r="C19" s="30">
         <f>B16*150</f>
-        <v>1593600</v>
-      </c>
-      <c r="D19" s="27">
+        <v>2342850</v>
+      </c>
+      <c r="D19" s="30">
         <f>M19-M20</f>
-        <v>8103</v>
-      </c>
-      <c r="E19" s="29">
+        <v>147527</v>
+      </c>
+      <c r="E19" s="31">
         <f>C19/D19</f>
-        <v>196.667900777490</v>
-      </c>
-      <c r="F19" s="27">
-        <v>12</v>
-      </c>
-      <c r="G19" s="30">
+        <v>15.8808218156676</v>
+      </c>
+      <c r="F19" s="30">
+        <v>5</v>
+      </c>
+      <c r="G19" s="32">
         <f>(C19/C22)^(1/3)</f>
-        <v>4.00806453796077</v>
-      </c>
-      <c r="H19" s="30">
+        <v>1.48267331704548</v>
+      </c>
+      <c r="H19" s="32">
         <f>C19/C20</f>
-        <v>2.21702838063439</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="37">
+        <v>0.872326165875454</v>
+      </c>
+      <c r="I19" s="43"/>
+      <c r="J19" s="42">
         <f>$A18-7</f>
-        <v>43909</v>
-      </c>
-      <c r="K19" s="35">
-        <v>206</v>
-      </c>
-      <c r="L19" s="27">
+        <v>43923</v>
+      </c>
+      <c r="K19" s="40">
+        <v>6088</v>
+      </c>
+      <c r="L19" s="30">
         <f>K16*150</f>
-        <v>2506800</v>
-      </c>
-      <c r="M19" s="27">
-        <v>9415</v>
-      </c>
-      <c r="N19" s="29">
+        <v>7535400</v>
+      </c>
+      <c r="M19" s="30">
+        <v>216721</v>
+      </c>
+      <c r="N19" s="31">
         <f>L19/M19</f>
-        <v>266.255974508763</v>
+        <v>34.7700499720839</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="25">
+      <c r="A20" s="33">
         <f>$A19-7</f>
-        <v>43902</v>
-      </c>
-      <c r="B20" s="33">
+        <v>43916</v>
+      </c>
+      <c r="B20" s="38">
         <f>K20-K21</f>
-        <v>29</v>
-      </c>
-      <c r="C20" s="27">
+        <v>1090</v>
+      </c>
+      <c r="C20" s="30">
         <f>B17*150</f>
-        <v>718800</v>
-      </c>
-      <c r="D20" s="27">
+        <v>2685750</v>
+      </c>
+      <c r="D20" s="30">
         <f>M20-M21</f>
-        <v>1153</v>
-      </c>
-      <c r="E20" s="29">
+        <v>59779</v>
+      </c>
+      <c r="E20" s="31">
         <f>C20/D20</f>
-        <v>623.417172593235</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="30">
+        <v>44.9279847438064</v>
+      </c>
+      <c r="F20" s="30">
+        <v>7</v>
+      </c>
+      <c r="G20" s="32">
         <f>(C20/C23)^(1/3)</f>
-        <v>5.48747983275193</v>
-      </c>
-      <c r="H20" s="30">
+        <v>2.54204134080383</v>
+      </c>
+      <c r="H20" s="32">
         <f>C20/C21</f>
-        <v>4.39633027522936</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="37">
+        <v>1.68533509036145</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="42">
         <f>$A19-7</f>
-        <v>43902</v>
-      </c>
-      <c r="K20" s="35">
-        <v>41</v>
-      </c>
-      <c r="L20" s="27">
+        <v>43916</v>
+      </c>
+      <c r="K20" s="40">
+        <v>1296</v>
+      </c>
+      <c r="L20" s="30">
         <f>K17*150</f>
-        <v>913200</v>
-      </c>
-      <c r="M20" s="27">
-        <v>1312</v>
-      </c>
-      <c r="N20" s="29">
+        <v>5192550</v>
+      </c>
+      <c r="M20" s="30">
+        <v>69194</v>
+      </c>
+      <c r="N20" s="31">
         <f>L20/M20</f>
-        <v>696.036585365854</v>
+        <v>75.0433563603781</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="25">
+      <c r="A21" s="33">
         <f>$A20-7</f>
-        <v>43895</v>
-      </c>
-      <c r="B21" s="33">
+        <v>43909</v>
+      </c>
+      <c r="B21" s="38">
         <f>K21-K22</f>
-        <v>11</v>
-      </c>
-      <c r="C21" s="27">
+        <v>165</v>
+      </c>
+      <c r="C21" s="30">
         <f>B18*150</f>
-        <v>163500</v>
-      </c>
-      <c r="D21" s="27">
+        <v>1593600</v>
+      </c>
+      <c r="D21" s="30">
         <f>M21-M22</f>
-        <v>100</v>
-      </c>
-      <c r="E21" s="29">
+        <v>8103</v>
+      </c>
+      <c r="E21" s="31">
         <f>C21/D21</f>
-        <v>1635</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="30">
+        <v>196.667900777490</v>
+      </c>
+      <c r="F21" s="30">
+        <v>12</v>
+      </c>
+      <c r="G21" s="32">
         <f>(C21/C24)^(1/3)</f>
-        <v>4.62748057383939</v>
-      </c>
-      <c r="H21" s="30">
+        <v>4.00806453796077</v>
+      </c>
+      <c r="H21" s="32">
         <f>C21/C22</f>
-        <v>6.60606060606061</v>
-      </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="37">
+        <v>2.21702838063439</v>
+      </c>
+      <c r="I21" s="43"/>
+      <c r="J21" s="42">
         <f>$A20-7</f>
-        <v>43895</v>
-      </c>
-      <c r="K21" s="35">
-        <v>12</v>
-      </c>
-      <c r="L21" s="27">
+        <v>43909</v>
+      </c>
+      <c r="K21" s="40">
+        <v>206</v>
+      </c>
+      <c r="L21" s="30">
         <f>K18*150</f>
-        <v>194400</v>
-      </c>
-      <c r="M21" s="27">
-        <v>159</v>
-      </c>
-      <c r="N21" s="29">
+        <v>2506800</v>
+      </c>
+      <c r="M21" s="30">
+        <v>9415</v>
+      </c>
+      <c r="N21" s="31">
         <f>L21/M21</f>
-        <v>1222.641509433960</v>
+        <v>266.255974508763</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="25">
+      <c r="A22" s="33">
         <f>$A21-7</f>
-        <v>43888</v>
-      </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="27">
+        <v>43902</v>
+      </c>
+      <c r="B22" s="38">
+        <f>K22-K23</f>
+        <v>29</v>
+      </c>
+      <c r="C22" s="30">
         <f>B19*150</f>
-        <v>24750</v>
-      </c>
-      <c r="D22" s="27">
+        <v>718800</v>
+      </c>
+      <c r="D22" s="30">
         <f>M22-M23</f>
-        <v>44</v>
-      </c>
-      <c r="E22" s="29">
+        <v>1153</v>
+      </c>
+      <c r="E22" s="31">
         <f>C22/D22</f>
-        <v>562.5</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30">
+        <v>623.417172593235</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="32">
+        <f>(C22/C25)^(1/3)</f>
+        <v>5.48747983275193</v>
+      </c>
+      <c r="H22" s="32">
         <f>C22/C23</f>
-        <v>5.68965517241379</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="37">
+        <v>4.39633027522936</v>
+      </c>
+      <c r="I22" s="43"/>
+      <c r="J22" s="42">
         <f>$A21-7</f>
-        <v>43888</v>
-      </c>
-      <c r="K22" s="35">
-        <v>1</v>
-      </c>
-      <c r="L22" s="27">
+        <v>43902</v>
+      </c>
+      <c r="K22" s="40">
+        <v>41</v>
+      </c>
+      <c r="L22" s="30">
         <f>K19*150</f>
-        <v>30900</v>
-      </c>
-      <c r="M22" s="27">
-        <v>59</v>
-      </c>
-      <c r="N22" s="29">
+        <v>913200</v>
+      </c>
+      <c r="M22" s="30">
+        <v>1312</v>
+      </c>
+      <c r="N22" s="31">
         <f>L22/M22</f>
-        <v>523.728813559322</v>
+        <v>696.036585365854</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="25">
+      <c r="A23" s="33">
         <f>$A22-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="27">
+        <v>43895</v>
+      </c>
+      <c r="B23" s="38">
+        <f>K23-K24</f>
+        <v>11</v>
+      </c>
+      <c r="C23" s="30">
         <f>B20*150</f>
-        <v>4350</v>
-      </c>
-      <c r="D23" s="27">
+        <v>163500</v>
+      </c>
+      <c r="D23" s="30">
         <f>M23-M24</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="29">
+        <v>100</v>
+      </c>
+      <c r="E23" s="31">
         <f>C23/D23</f>
-        <v>4350</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30">
+        <v>1635</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="32">
+        <f>(C23/C26)^(1/3)</f>
+        <v>4.62748057383939</v>
+      </c>
+      <c r="H23" s="32">
         <f>C23/C24</f>
-        <v>2.63636363636364</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="37">
+        <v>6.60606060606061</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="42">
         <f>$A22-7</f>
-        <v>43881</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="27">
+        <v>43895</v>
+      </c>
+      <c r="K23" s="40">
+        <v>12</v>
+      </c>
+      <c r="L23" s="30">
         <f>K20*150</f>
-        <v>6150</v>
-      </c>
-      <c r="M23" s="27">
-        <v>15</v>
-      </c>
-      <c r="N23" s="29">
+        <v>194400</v>
+      </c>
+      <c r="M23" s="30">
+        <v>159</v>
+      </c>
+      <c r="N23" s="31">
         <f>L23/M23</f>
-        <v>410</v>
+        <v>1222.641509433960</v>
       </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="25">
+      <c r="A24" s="33">
         <f>$A23-7</f>
-        <v>43874</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="27">
+        <v>43888</v>
+      </c>
+      <c r="B24" s="38"/>
+      <c r="C24" s="30">
         <f>B21*150</f>
-        <v>1650</v>
-      </c>
-      <c r="D24" s="27">
+        <v>24750</v>
+      </c>
+      <c r="D24" s="30">
         <f>M24-M25</f>
-        <v>2</v>
-      </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="37">
+        <v>44</v>
+      </c>
+      <c r="E24" s="31">
+        <f>C24/D24</f>
+        <v>562.5</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32">
+        <f>C24/C25</f>
+        <v>5.68965517241379</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="42">
         <f>$A23-7</f>
-        <v>43874</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="27">
+        <v>43888</v>
+      </c>
+      <c r="K24" s="40">
+        <v>1</v>
+      </c>
+      <c r="L24" s="30">
         <f>K21*150</f>
-        <v>1800</v>
-      </c>
-      <c r="M24" s="27">
-        <v>14</v>
-      </c>
-      <c r="N24" s="29">
+        <v>30900</v>
+      </c>
+      <c r="M24" s="30">
+        <v>59</v>
+      </c>
+      <c r="N24" s="31">
         <f>L24/M24</f>
-        <v>128.571428571429</v>
+        <v>523.728813559322</v>
       </c>
     </row>
     <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" s="25">
+      <c r="A25" s="33">
         <f>$A24-7</f>
-        <v>43867</v>
-      </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27">
+        <v>43881</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="30">
+        <f>B22*150</f>
+        <v>4350</v>
+      </c>
+      <c r="D25" s="30">
         <f>M25-M26</f>
-        <v>7</v>
-      </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="37">
+        <v>1</v>
+      </c>
+      <c r="E25" s="31">
+        <f>C25/D25</f>
+        <v>4350</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32">
+        <f>C25/C26</f>
+        <v>2.63636363636364</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="42">
         <f>$A24-7</f>
-        <v>43867</v>
-      </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="27">
+        <v>43881</v>
+      </c>
+      <c r="K25" s="40"/>
+      <c r="L25" s="30">
         <f>K22*150</f>
-        <v>150</v>
-      </c>
-      <c r="M25" s="39">
-        <v>12</v>
-      </c>
-      <c r="N25" s="29">
+        <v>6150</v>
+      </c>
+      <c r="M25" s="30">
+        <v>15</v>
+      </c>
+      <c r="N25" s="31">
         <f>L25/M25</f>
-        <v>12.5</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" s="25">
+      <c r="A26" s="33">
         <f>$A25-7</f>
-        <v>43860</v>
-      </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27">
+        <v>43874</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="30">
+        <f>B23*150</f>
+        <v>1650</v>
+      </c>
+      <c r="D26" s="30">
         <f>M26-M27</f>
-        <v>4</v>
-      </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="37">
+        <v>2</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="42">
         <f>$A25-7</f>
-        <v>43860</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="39">
-        <v>5</v>
-      </c>
-      <c r="N26" s="29">
+        <v>43874</v>
+      </c>
+      <c r="K26" s="40"/>
+      <c r="L26" s="30">
+        <f>K23*150</f>
+        <v>1800</v>
+      </c>
+      <c r="M26" s="30">
+        <v>14</v>
+      </c>
+      <c r="N26" s="31">
         <f>L26/M26</f>
-        <v>0</v>
+        <v>128.571428571429</v>
       </c>
     </row>
     <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39">
-        <v>1</v>
-      </c>
-      <c r="N27" s="29">
+      <c r="A27" s="33">
+        <f>$A26-7</f>
+        <v>43867</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30">
+        <f>M27-M28</f>
+        <v>7</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="42">
+        <f>$A26-7</f>
+        <v>43867</v>
+      </c>
+      <c r="K27" s="40"/>
+      <c r="L27" s="30">
+        <f>K24*150</f>
+        <v>150</v>
+      </c>
+      <c r="M27" s="44">
+        <v>12</v>
+      </c>
+      <c r="N27" s="31">
         <f>L27/M27</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="45"/>
+      <c r="A28" s="33">
+        <f>$A27-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30">
+        <f>M28-M29</f>
+        <v>4</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="42">
+        <f>$A27-7</f>
+        <v>43860</v>
+      </c>
+      <c r="K28" s="40"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="44">
+        <v>5</v>
+      </c>
+      <c r="N28" s="31">
+        <f>L28/M28</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" s="40"/>
-      <c r="B29" t="s" s="50">
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44">
+        <v>1</v>
+      </c>
+      <c r="N29" s="31">
+        <f>L29/M29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" s="45"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="50"/>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" s="45"/>
+      <c r="B31" t="s" s="55">
         <v>13</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="45"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0padta9WRXNKrK-CmBCgoWKpA"/>
+    <hyperlink ref="B31" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0padta9WRXNKrK-CmBCgoWKpA"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
